--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.4900000000000002</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-19.99999999999996</v>
+      </c>
       <c r="L12" t="n">
         <v>2.077</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.5000000000000004</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-20.00000000000004</v>
+      </c>
       <c r="L13" t="n">
         <v>2.067</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.5000000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-20.00000000000004</v>
+      </c>
       <c r="L14" t="n">
         <v>2.058</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.5000000000000004</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>2.049</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.5100000000000007</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>11.76470588235293</v>
+      </c>
       <c r="L16" t="n">
         <v>2.05</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.5400000000000005</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20.00000000000007</v>
+      </c>
       <c r="L17" t="n">
         <v>2.057</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.5400000000000005</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L18" t="n">
         <v>2.052</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.6000000000000005</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>17.64705882352926</v>
+      </c>
       <c r="L19" t="n">
         <v>2.054</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.6000000000000005</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-27.27272727272742</v>
+      </c>
       <c r="L20" t="n">
         <v>2.057</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.6600000000000006</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>17.64705882352926</v>
+      </c>
       <c r="L21" t="n">
         <v>2.06</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.7500000000000004</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-19.99999999999993</v>
+      </c>
       <c r="L22" t="n">
         <v>2.054</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.7800000000000005</v>
       </c>
       <c r="K23" t="n">
-        <v>-24.3243243243243</v>
+        <v>-28.57142857142851</v>
       </c>
       <c r="L23" t="n">
         <v>2.046</v>
@@ -1466,7 +1488,7 @@
         <v>0.8000000000000005</v>
       </c>
       <c r="K24" t="n">
-        <v>-20</v>
+        <v>-19.99999999999994</v>
       </c>
       <c r="L24" t="n">
         <v>2.04</v>
@@ -1515,7 +1537,7 @@
         <v>0.8400000000000003</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.92405063291143</v>
+        <v>-9.090909090909177</v>
       </c>
       <c r="L25" t="n">
         <v>2.038</v>
@@ -1564,7 +1586,7 @@
         <v>0.8500000000000005</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.408450704225321</v>
+        <v>-16.12903225806446</v>
       </c>
       <c r="L26" t="n">
         <v>2.036</v>
@@ -1613,7 +1635,7 @@
         <v>0.9000000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.10958904109589</v>
+        <v>-27.77777777777774</v>
       </c>
       <c r="L27" t="n">
         <v>2.026</v>
@@ -1662,7 +1684,7 @@
         <v>0.9100000000000006</v>
       </c>
       <c r="K28" t="n">
-        <v>-22.58064516129032</v>
+        <v>-9.677419354838646</v>
       </c>
       <c r="L28" t="n">
         <v>2.017</v>
@@ -1711,7 +1733,7 @@
         <v>0.9100000000000006</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.040816326530568</v>
+        <v>-9.677419354838646</v>
       </c>
       <c r="L29" t="n">
         <v>2.014</v>
@@ -1760,7 +1782,7 @@
         <v>0.9100000000000006</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L30" t="n">
         <v>2.011</v>
@@ -1809,7 +1831,7 @@
         <v>0.9400000000000004</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.666666666666719</v>
+        <v>15.78947368421043</v>
       </c>
       <c r="L31" t="n">
         <v>2.005</v>
@@ -1860,7 +1882,7 @@
         <v>0.9700000000000002</v>
       </c>
       <c r="K32" t="n">
-        <v>-12.50000000000001</v>
+        <v>15.78947368421056</v>
       </c>
       <c r="L32" t="n">
         <v>2.005</v>
@@ -1911,7 +1933,7 @@
         <v>0.9700000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>-10.63829787234039</v>
+        <v>5.882352941176486</v>
       </c>
       <c r="L33" t="n">
         <v>2.008</v>
@@ -1962,7 +1984,7 @@
         <v>1.04</v>
       </c>
       <c r="K34" t="n">
-        <v>3.70370370370371</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L34" t="n">
         <v>2.016</v>
@@ -2013,7 +2035,7 @@
         <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>7.142857142857154</v>
+        <v>23.80952380952378</v>
       </c>
       <c r="L35" t="n">
         <v>2.022</v>
@@ -2064,7 +2086,7 @@
         <v>1.16</v>
       </c>
       <c r="K36" t="n">
-        <v>20</v>
+        <v>76.92307692307703</v>
       </c>
       <c r="L36" t="n">
         <v>2.037</v>
@@ -2115,7 +2137,7 @@
         <v>1.29</v>
       </c>
       <c r="K37" t="n">
-        <v>30.66666666666668</v>
+        <v>84.21052631578956</v>
       </c>
       <c r="L37" t="n">
         <v>2.07</v>
@@ -2166,7 +2188,7 @@
         <v>1.36</v>
       </c>
       <c r="K38" t="n">
-        <v>19.51219512195125</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L38" t="n">
         <v>2.095</v>
@@ -2217,7 +2239,7 @@
         <v>1.38</v>
       </c>
       <c r="K39" t="n">
-        <v>30.76923076923082</v>
+        <v>57.44680851063838</v>
       </c>
       <c r="L39" t="n">
         <v>2.122</v>
@@ -2268,7 +2290,7 @@
         <v>1.52</v>
       </c>
       <c r="K40" t="n">
-        <v>10.86956521739132</v>
+        <v>17.24137931034485</v>
       </c>
       <c r="L40" t="n">
         <v>2.135</v>
@@ -2319,7 +2341,7 @@
         <v>1.58</v>
       </c>
       <c r="K41" t="n">
-        <v>10.86956521739132</v>
+        <v>31.14754098360655</v>
       </c>
       <c r="L41" t="n">
         <v>2.151</v>
@@ -2370,7 +2392,7 @@
         <v>1.6</v>
       </c>
       <c r="K42" t="n">
-        <v>20</v>
+        <v>26.98412698412698</v>
       </c>
       <c r="L42" t="n">
         <v>2.168</v>
@@ -2421,7 +2443,7 @@
         <v>1.63</v>
       </c>
       <c r="K43" t="n">
-        <v>27.05882352941179</v>
+        <v>22.03389830508479</v>
       </c>
       <c r="L43" t="n">
         <v>2.188</v>
@@ -2472,7 +2494,7 @@
         <v>1.71</v>
       </c>
       <c r="K44" t="n">
-        <v>14.2857142857143</v>
+        <v>4.615384615384651</v>
       </c>
       <c r="L44" t="n">
         <v>2.193</v>
@@ -2523,7 +2545,7 @@
         <v>1.78</v>
       </c>
       <c r="K45" t="n">
-        <v>17.0212765957447</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>2.203</v>
@@ -2574,7 +2596,7 @@
         <v>1.8</v>
       </c>
       <c r="K46" t="n">
-        <v>17.89473684210526</v>
+        <v>-21.56862745098036</v>
       </c>
       <c r="L46" t="n">
         <v>2.205</v>
@@ -2625,7 +2647,7 @@
         <v>1.87</v>
       </c>
       <c r="K47" t="n">
-        <v>29.89690721649484</v>
+        <v>5.882352941176429</v>
       </c>
       <c r="L47" t="n">
         <v>2.201</v>
@@ -2676,7 +2698,7 @@
         <v>1.98</v>
       </c>
       <c r="K48" t="n">
-        <v>15.88785046728972</v>
+        <v>-16.66666666666668</v>
       </c>
       <c r="L48" t="n">
         <v>2.193</v>
@@ -2727,7 +2749,7 @@
         <v>2.1</v>
       </c>
       <c r="K49" t="n">
-        <v>4.201680672268894</v>
+        <v>-13.79310344827587</v>
       </c>
       <c r="L49" t="n">
         <v>2.171</v>
@@ -2778,7 +2800,7 @@
         <v>2.26</v>
       </c>
       <c r="K50" t="n">
-        <v>15.55555555555556</v>
+        <v>2.941176470588237</v>
       </c>
       <c r="L50" t="n">
         <v>2.179</v>
@@ -2829,7 +2851,7 @@
         <v>2.33</v>
       </c>
       <c r="K51" t="n">
-        <v>7.913669064748226</v>
+        <v>-4.109589041095864</v>
       </c>
       <c r="L51" t="n">
         <v>2.174</v>
@@ -2880,7 +2902,7 @@
         <v>2.37</v>
       </c>
       <c r="K52" t="n">
-        <v>12.85714285714287</v>
+        <v>-2.702702702702706</v>
       </c>
       <c r="L52" t="n">
         <v>2.175</v>
@@ -2931,7 +2953,7 @@
         <v>2.4</v>
       </c>
       <c r="K53" t="n">
-        <v>10.48951048951048</v>
+        <v>4.347826086956494</v>
       </c>
       <c r="L53" t="n">
         <v>2.17</v>
@@ -2982,7 +3004,7 @@
         <v>2.44</v>
       </c>
       <c r="K54" t="n">
-        <v>8.571428571428577</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>2.177</v>
@@ -3033,7 +3055,7 @@
         <v>2.46</v>
       </c>
       <c r="K55" t="n">
-        <v>5.714285714285718</v>
+        <v>-6.060606060606065</v>
       </c>
       <c r="L55" t="n">
         <v>2.175</v>
@@ -3084,7 +3106,7 @@
         <v>2.48</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>-14.75409836065571</v>
       </c>
       <c r="L56" t="n">
         <v>2.173</v>
@@ -3135,7 +3157,7 @@
         <v>2.49</v>
       </c>
       <c r="K57" t="n">
-        <v>-11.66666666666664</v>
+        <v>1.960784313725535</v>
       </c>
       <c r="L57" t="n">
         <v>2.162999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>2.53</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.401709401709388</v>
+        <v>20.9302325581396</v>
       </c>
       <c r="L58" t="n">
         <v>2.159999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>2.56</v>
       </c>
       <c r="K59" t="n">
-        <v>-8.474576271186447</v>
+        <v>-13.33333333333335</v>
       </c>
       <c r="L59" t="n">
         <v>2.172</v>
@@ -3288,7 +3310,7 @@
         <v>2.62</v>
       </c>
       <c r="K60" t="n">
-        <v>-1.818181818181819</v>
+        <v>-10.34482758620698</v>
       </c>
       <c r="L60" t="n">
         <v>2.161999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>2.68</v>
       </c>
       <c r="K61" t="n">
-        <v>-1.818181818181819</v>
+        <v>-3.225806451612977</v>
       </c>
       <c r="L61" t="n">
         <v>2.164999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>2.82</v>
       </c>
       <c r="K62" t="n">
-        <v>-11.47540983606558</v>
+        <v>-28.5714285714286</v>
       </c>
       <c r="L62" t="n">
         <v>2.149999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>2.890000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>-7.936507936507942</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L63" t="n">
         <v>2.145</v>
@@ -3492,7 +3514,7 @@
         <v>2.970000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>4.761904761904765</v>
+        <v>1.960784313725535</v>
       </c>
       <c r="L64" t="n">
         <v>2.143999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>3.050000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>-7.086614173228332</v>
+        <v>-15.78947368421049</v>
       </c>
       <c r="L65" t="n">
         <v>2.137</v>
@@ -3594,7 +3616,7 @@
         <v>3.050000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>-8.799999999999986</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>2.128</v>
@@ -3645,7 +3667,7 @@
         <v>3.080000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.39669421487602</v>
+        <v>-1.818181818181859</v>
       </c>
       <c r="L67" t="n">
         <v>2.123</v>
@@ -3696,7 +3718,7 @@
         <v>3.17</v>
       </c>
       <c r="K68" t="n">
-        <v>-10.92436974789915</v>
+        <v>-21.31147540983604</v>
       </c>
       <c r="L68" t="n">
         <v>2.113</v>
@@ -3747,7 +3769,7 @@
         <v>3.2</v>
       </c>
       <c r="K69" t="n">
-        <v>1.818181818181819</v>
+        <v>-6.896551724137937</v>
       </c>
       <c r="L69" t="n">
         <v>2.102999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>3.21</v>
       </c>
       <c r="K70" t="n">
-        <v>-15.78947368421052</v>
+        <v>-20.75471698113206</v>
       </c>
       <c r="L70" t="n">
         <v>2.097999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>3.22</v>
       </c>
       <c r="K71" t="n">
-        <v>-7.865168539325877</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="L71" t="n">
         <v>2.088</v>
@@ -3900,7 +3922,7 @@
         <v>3.22</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.94117647058828</v>
+        <v>-9.090909090909188</v>
       </c>
       <c r="L72" t="n">
         <v>2.092</v>
@@ -3951,7 +3973,7 @@
         <v>3.22</v>
       </c>
       <c r="K73" t="n">
-        <v>-9.756097560975626</v>
+        <v>-44.00000000000028</v>
       </c>
       <c r="L73" t="n">
         <v>2.089</v>
@@ -4002,7 +4024,7 @@
         <v>3.22</v>
       </c>
       <c r="K74" t="n">
-        <v>-15.38461538461541</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L74" t="n">
         <v>2.077999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>3.23</v>
       </c>
       <c r="K75" t="n">
-        <v>-11.68831168831168</v>
+        <v>-11.11111111111117</v>
       </c>
       <c r="L75" t="n">
         <v>2.075999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>3.24</v>
       </c>
       <c r="K76" t="n">
-        <v>-15.78947368421055</v>
+        <v>-37.50000000000011</v>
       </c>
       <c r="L76" t="n">
         <v>2.072999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>3.25</v>
       </c>
       <c r="K77" t="n">
-        <v>-15.78947368421055</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L77" t="n">
         <v>2.065999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>3.25</v>
       </c>
       <c r="K78" t="n">
-        <v>-11.11111111111112</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L78" t="n">
         <v>2.067999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>3.28</v>
       </c>
       <c r="K79" t="n">
-        <v>-19.44444444444446</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L79" t="n">
         <v>2.063999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>3.350000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>-1.3698630136986</v>
+        <v>23.07692307692313</v>
       </c>
       <c r="L80" t="n">
         <v>2.067999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>3.410000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>-17.80821917808217</v>
+        <v>-15.78947368421035</v>
       </c>
       <c r="L81" t="n">
         <v>2.064999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>3.42</v>
       </c>
       <c r="K82" t="n">
-        <v>3.333333333333336</v>
+        <v>-9.999999999999979</v>
       </c>
       <c r="L82" t="n">
         <v>2.062999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>3.46</v>
       </c>
       <c r="K83" t="n">
-        <v>-15.78947368421058</v>
+        <v>-24.99999999999995</v>
       </c>
       <c r="L83" t="n">
         <v>2.056999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>3.5</v>
       </c>
       <c r="K84" t="n">
-        <v>-39.62264150943405</v>
+        <v>-40.74074074074077</v>
       </c>
       <c r="L84" t="n">
         <v>2.046999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>3.68</v>
       </c>
       <c r="K85" t="n">
-        <v>7.936507936507921</v>
+        <v>18.18181818181822</v>
       </c>
       <c r="L85" t="n">
         <v>2.053999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>3.77</v>
       </c>
       <c r="K86" t="n">
-        <v>-5.55555555555557</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>2.052999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>3.839999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>11.864406779661</v>
       </c>
       <c r="L87" t="n">
         <v>2.059999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>3.96</v>
       </c>
       <c r="K88" t="n">
-        <v>-3.797468354430415</v>
+        <v>-2.941176470588241</v>
       </c>
       <c r="L88" t="n">
         <v>2.054999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>4.029999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>1.204819277108463</v>
+        <v>-2.941176470588243</v>
       </c>
       <c r="L89" t="n">
         <v>2.06</v>
@@ -4818,7 +4840,7 @@
         <v>4.039999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>3.614457831325281</v>
+        <v>7.936507936507926</v>
       </c>
       <c r="L90" t="n">
         <v>2.058999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>4.069999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>5.882352941176505</v>
+        <v>10.76923076923083</v>
       </c>
       <c r="L91" t="n">
         <v>2.066999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>4.16</v>
       </c>
       <c r="K92" t="n">
-        <v>-4.255319148936172</v>
+        <v>2.857142857142861</v>
       </c>
       <c r="L92" t="n">
         <v>2.065</v>
@@ -4971,7 +4993,7 @@
         <v>4.26</v>
       </c>
       <c r="K93" t="n">
-        <v>5.769230769230774</v>
+        <v>21.05263157894736</v>
       </c>
       <c r="L93" t="n">
         <v>2.077</v>
@@ -5022,7 +5044,7 @@
         <v>4.43</v>
       </c>
       <c r="K94" t="n">
-        <v>-9.090909090909081</v>
+        <v>-25.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>2.076</v>
@@ -5073,7 +5095,7 @@
         <v>4.6</v>
       </c>
       <c r="K95" t="n">
-        <v>3.649635036496338</v>
+        <v>8.433734939759017</v>
       </c>
       <c r="L95" t="n">
         <v>2.074</v>
@@ -5124,7 +5146,7 @@
         <v>4.6</v>
       </c>
       <c r="K96" t="n">
-        <v>4.411764705882359</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>2.081</v>
@@ -5175,7 +5197,7 @@
         <v>4.609999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>5.882352941176478</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L97" t="n">
         <v>2.082</v>
@@ -5226,7 +5248,7 @@
         <v>4.609999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>5.882352941176478</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L98" t="n">
         <v>2.095</v>
@@ -5277,7 +5299,7 @@
         <v>4.609999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>8.270676691729353</v>
+        <v>8.771929824561447</v>
       </c>
       <c r="L99" t="n">
         <v>2.101</v>
@@ -5328,7 +5350,7 @@
         <v>4.619999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>2.362204724409436</v>
+        <v>1.81818181818178</v>
       </c>
       <c r="L100" t="n">
         <v>2.105</v>
@@ -5379,7 +5401,7 @@
         <v>4.629999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>8.196721311475427</v>
+        <v>23.40425531914906</v>
       </c>
       <c r="L101" t="n">
         <v>2.107</v>
@@ -5430,7 +5452,7 @@
         <v>4.629999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>7.438016528925654</v>
+        <v>2.702702702702771</v>
       </c>
       <c r="L102" t="n">
         <v>2.118</v>
@@ -5481,7 +5503,7 @@
         <v>4.639999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>11.86440677966104</v>
+        <v>90.47619047619085</v>
       </c>
       <c r="L103" t="n">
         <v>2.12</v>
@@ -5532,7 +5554,7 @@
         <v>4.669999999999999</v>
       </c>
       <c r="K104" t="n">
-        <v>17.94871794871798</v>
+        <v>71.42857142857243</v>
       </c>
       <c r="L104" t="n">
         <v>2.142</v>
@@ -5583,7 +5605,7 @@
         <v>4.669999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>3.030303030303057</v>
+        <v>71.42857142857243</v>
       </c>
       <c r="L105" t="n">
         <v>2.147</v>
@@ -5634,7 +5656,7 @@
         <v>4.68</v>
       </c>
       <c r="K106" t="n">
-        <v>12.08791208791207</v>
+        <v>42.85714285714241</v>
       </c>
       <c r="L106" t="n">
         <v>2.151</v>
@@ -5685,7 +5707,7 @@
         <v>4.69</v>
       </c>
       <c r="K107" t="n">
-        <v>5.882352941176501</v>
+        <v>50</v>
       </c>
       <c r="L107" t="n">
         <v>2.155</v>
@@ -5736,7 +5758,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="K108" t="n">
-        <v>21.62162162162165</v>
+        <v>33.33333333333317</v>
       </c>
       <c r="L108" t="n">
         <v>2.158</v>
@@ -5787,7 +5809,7 @@
         <v>4.729999999999999</v>
       </c>
       <c r="K109" t="n">
-        <v>8.571428571428589</v>
+        <v>9.090909090909348</v>
       </c>
       <c r="L109" t="n">
         <v>2.158</v>
@@ -5838,7 +5860,7 @@
         <v>4.769999999999999</v>
       </c>
       <c r="K110" t="n">
-        <v>12.32876712328772</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L110" t="n">
         <v>2.163</v>
@@ -5889,7 +5911,7 @@
         <v>4.779999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>7.042253521126736</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L111" t="n">
         <v>2.165999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>4.799999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>18.75000000000005</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>2.166999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>4.829999999999999</v>
       </c>
       <c r="K113" t="n">
-        <v>8.771929824561459</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>2.169999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>4.85</v>
       </c>
       <c r="K114" t="n">
-        <v>47.61904761904767</v>
+        <v>-11.11111111111108</v>
       </c>
       <c r="L114" t="n">
         <v>2.168</v>
@@ -6093,7 +6115,7 @@
         <v>4.89</v>
       </c>
       <c r="K115" t="n">
-        <v>-3.448275862068892</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L115" t="n">
         <v>2.162</v>
@@ -6144,7 +6166,7 @@
         <v>4.89</v>
       </c>
       <c r="K116" t="n">
-        <v>-3.448275862068892</v>
+        <v>-30</v>
       </c>
       <c r="L116" t="n">
         <v>2.157</v>
@@ -6195,7 +6217,7 @@
         <v>4.94</v>
       </c>
       <c r="K117" t="n">
-        <v>9.09090909090903</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>2.156</v>
@@ -6246,7 +6268,7 @@
         <v>4.94</v>
       </c>
       <c r="K118" t="n">
-        <v>9.09090909090903</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L118" t="n">
         <v>2.156</v>
@@ -6297,7 +6319,7 @@
         <v>4.94</v>
       </c>
       <c r="K119" t="n">
-        <v>9.09090909090903</v>
+        <v>-5.882352941176578</v>
       </c>
       <c r="L119" t="n">
         <v>2.159</v>
@@ -6348,7 +6370,7 @@
         <v>4.94</v>
       </c>
       <c r="K120" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>2.158</v>
@@ -6399,7 +6421,7 @@
         <v>4.94</v>
       </c>
       <c r="K121" t="n">
-        <v>9.677419354838632</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L121" t="n">
         <v>2.158</v>
@@ -6450,7 +6472,7 @@
         <v>4.94</v>
       </c>
       <c r="K122" t="n">
-        <v>9.677419354838632</v>
+        <v>-9.090909090909275</v>
       </c>
       <c r="L122" t="n">
         <v>2.160000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>4.949999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>9.677419354838774</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L123" t="n">
         <v>2.160000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>4.98</v>
       </c>
       <c r="K124" t="n">
-        <v>-9.677419354838774</v>
+        <v>33.33333333333317</v>
       </c>
       <c r="L124" t="n">
         <v>2.159000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>5</v>
       </c>
       <c r="K125" t="n">
-        <v>-3.030303030303092</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L125" t="n">
         <v>2.164000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>5.02</v>
       </c>
       <c r="K127" t="n">
-        <v>-9.090909090909165</v>
+        <v>-25</v>
       </c>
       <c r="L127" t="n">
         <v>2.167</v>
@@ -6756,7 +6778,7 @@
         <v>5.05</v>
       </c>
       <c r="K128" t="n">
-        <v>2.857142857142919</v>
+        <v>9.090909090909275</v>
       </c>
       <c r="L128" t="n">
         <v>2.168</v>
@@ -6807,7 +6829,7 @@
         <v>5.06</v>
       </c>
       <c r="K129" t="n">
-        <v>9.09090909090898</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>2.168</v>
@@ -6858,7 +6880,7 @@
         <v>5.06</v>
       </c>
       <c r="K130" t="n">
-        <v>-3.448275862069024</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>2.168</v>
@@ -6909,7 +6931,7 @@
         <v>5.09</v>
       </c>
       <c r="K131" t="n">
-        <v>-9.677419354838632</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L131" t="n">
         <v>2.165</v>
@@ -6960,7 +6982,7 @@
         <v>5.09</v>
       </c>
       <c r="K132" t="n">
-        <v>-3.448275862068881</v>
+        <v>-28.57142857142848</v>
       </c>
       <c r="L132" t="n">
         <v>2.162</v>
@@ -7011,7 +7033,7 @@
         <v>5.109999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-7.142857142857142</v>
+        <v>7.692307692307876</v>
       </c>
       <c r="L133" t="n">
         <v>2.16</v>
@@ -7062,7 +7084,7 @@
         <v>5.109999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L134" t="n">
         <v>2.161</v>
@@ -7113,7 +7135,7 @@
         <v>5.109999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>18.18181818181822</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L135" t="n">
         <v>2.16</v>
@@ -7164,7 +7186,7 @@
         <v>5.109999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>18.18181818181822</v>
+        <v>11.11111111111139</v>
       </c>
       <c r="L136" t="n">
         <v>2.159</v>
@@ -7215,7 +7237,7 @@
         <v>5.109999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-5.882352941176348</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L137" t="n">
         <v>2.160000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>5.16</v>
       </c>
       <c r="K138" t="n">
-        <v>-27.27272727272722</v>
+        <v>-60.00000000000026</v>
       </c>
       <c r="L138" t="n">
         <v>2.153</v>
@@ -7317,7 +7339,7 @@
         <v>5.16</v>
       </c>
       <c r="K139" t="n">
-        <v>-27.27272727272722</v>
+        <v>-60.00000000000026</v>
       </c>
       <c r="L139" t="n">
         <v>2.147000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>5.16</v>
       </c>
       <c r="K140" t="n">
-        <v>-27.27272727272722</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L140" t="n">
         <v>2.141</v>

--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S140"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.04000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.04999999999999982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.04999999999999982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.1400000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1699999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1800000000000002</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4200000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1899999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.4300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.4900000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.4900000000000002</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-19.99999999999996</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.077</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5000000000000004</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-20.00000000000004</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.067</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5000000000000004</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-20.00000000000004</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.058</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5000000000000004</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.049</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5100000000000007</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11.76470588235293</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5400000000000005</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-20.00000000000007</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5400000000000005</v>
-      </c>
-      <c r="K18" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.052</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6000000000000005</v>
-      </c>
-      <c r="K19" t="n">
-        <v>17.64705882352926</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.054</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6000000000000005</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-27.27272727272742</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6600000000000006</v>
-      </c>
-      <c r="K21" t="n">
-        <v>17.64705882352926</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>2.075000000000001</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1899999999999999</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7500000000000004</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-19.99999999999993</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>2.065500000000001</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7800000000000005</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-28.57142857142851</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>2.056500000000001</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.8000000000000005</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-19.99999999999994</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>2.049000000000001</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.8400000000000003</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-9.090909090909177</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>2.043500000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1499999999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8500000000000005</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-16.12903225806446</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>2.043000000000001</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.9000000000000006</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-27.77777777777774</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>2.041500000000001</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1899999999999999</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9100000000000006</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-9.677419354838646</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>2.034500000000001</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1396,19 @@
         <v>2.183500000000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9100000000000006</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>-9.677419354838646</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.014</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>2.034000000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1435,23 @@
         <v>2.176333333333335</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9100000000000006</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>-35.99999999999994</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.011</v>
+        <v>2</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>2.034000000000001</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1478,23 @@
         <v>2.169166666666668</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9400000000000004</v>
+        <v>2.03</v>
       </c>
       <c r="K31" t="n">
-        <v>15.78947368421043</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.005</v>
+        <v>2</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>2.032500000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.051666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1521,19 @@
         <v>2.161333333333335</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9700000000000002</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>15.78947368421056</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.005</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>2.029500000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.045333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1560,23 @@
         <v>2.152500000000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9700000000000002</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>5.882352941176486</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.008</v>
+        <v>2</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>2.027000000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.040333333333334</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1603,23 @@
         <v>2.145000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>2.07</v>
       </c>
       <c r="K34" t="n">
-        <v>20.00000000000005</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.016</v>
+        <v>2</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>2.028000000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.038000000000001</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1646,19 @@
         <v>2.137833333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.06</v>
+        <v>2.09</v>
       </c>
       <c r="K35" t="n">
-        <v>23.80952380952378</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.022</v>
-      </c>
+        <v>2.09</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>2.030000000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.036333333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1685,23 @@
         <v>2.134166666666668</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.16</v>
+        <v>2.09</v>
       </c>
       <c r="K36" t="n">
-        <v>76.92307692307703</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.037</v>
+        <v>2.09</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>2.036500000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.041000000000001</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1728,23 @@
         <v>2.132833333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.29</v>
+        <v>2.32</v>
       </c>
       <c r="K37" t="n">
-        <v>84.21052631578956</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>2.048000000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.051000000000001</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1771,23 @@
         <v>2.130333333333334</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.36</v>
+        <v>2.3</v>
       </c>
       <c r="K38" t="n">
-        <v>55.55555555555565</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.095</v>
+        <v>2.09</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>2.056000000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.054666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1817,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>57.44680851063838</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.122</v>
+        <v>2.09</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>2.068000000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.063333333333334</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1858,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>17.24137931034485</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.135</v>
+        <v>2.09</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>2.073000000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.067666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1899,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>31.14754098360655</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.151</v>
+        <v>2.09</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>2.078000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.072000000000001</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1940,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>26.98412698412698</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.168</v>
+        <v>2.09</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>2.086500000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.075666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1981,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>22.03389830508479</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.188</v>
+        <v>2.09</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>2.098000000000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.080666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2022,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>4.615384615384651</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.193</v>
+        <v>2.09</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>2.104500000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.083000000000001</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2541,26 +2065,16 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1.78</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.203</v>
+        <v>2.09</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>2.112500000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2.087666666666668</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2104,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>-21.56862745098036</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.205</v>
+        <v>2.09</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>2.121000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.092666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2145,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>5.882352941176429</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.201</v>
+        <v>2.09</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>2.135500000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.099000000000001</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,29 +2186,19 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>-16.66666666666668</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.193</v>
+        <v>2.09</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>2.144000000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.101666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
-        <v>1</v>
+        <v>1.033277511961723</v>
       </c>
     </row>
     <row r="49">
@@ -2743,28 +2227,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-13.79310344827587</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>2.146500000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.102333333333334</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2262,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.941176470588237</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>2.157000000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.108333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2297,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-4.109589041095864</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>2.162500000000001</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2332,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-2.702702702702706</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>2.171500000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.116</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2367,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K53" t="n">
-        <v>4.347826086956494</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>2.179000000000001</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,26 +2404,10 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.177</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>2.185</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.128666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2437,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-6.060606060606065</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>2.189000000000001</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2.133333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,26 +2474,10 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-14.75409836065571</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.173</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>2.189000000000001</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2.138333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2507,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.960784313725535</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.162999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>2.182000000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.144666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2542,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="K58" t="n">
-        <v>20.9302325581396</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.159999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>2.176500000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.149333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2577,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-13.33333333333335</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>2.171500000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.155</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2612,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-10.34482758620698</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.161999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>2.170500000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2.158666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2647,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-3.225806451612977</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.164999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>2.169500000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.163333333333334</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2682,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-28.5714285714286</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2.149999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>2.162500000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2.164333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2717,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.890000000000001</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-19.99999999999996</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>2.157500000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>2.167666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2752,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.970000000000001</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1.960784313725535</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.143999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>2.160500000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.171333333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2787,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.050000000000001</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-15.78947368421049</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>2.156000000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2.171666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2822,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.050000000000001</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>2.150500000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.168666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2857,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.080000000000001</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-1.818181818181859</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>2.143000000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>2.162333333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2892,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.1499999999999999</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-21.31147540983604</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>2.136500000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>2.155333333333334</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2927,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-6.896551724137937</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.102999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>2.137500000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2.148666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2962,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-20.75471698113206</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2.097999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>2.130000000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>2.146333333333334</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2997,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="K71" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>2.126500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2.142333333333334</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +3029,19 @@
         <v>2.107333333333334</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3.22</v>
+        <v>2.07</v>
       </c>
       <c r="K72" t="n">
-        <v>-9.090909090909188</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.092</v>
-      </c>
+        <v>2.07</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>2.121000000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3068,23 @@
         <v>2.107666666666668</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.22</v>
+        <v>2.07</v>
       </c>
       <c r="K73" t="n">
-        <v>-44.00000000000028</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.089</v>
+        <v>2.07</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>2.117000000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2.134666666666666</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3111,23 @@
         <v>2.108000000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>3.22</v>
+        <v>2.08</v>
       </c>
       <c r="K74" t="n">
-        <v>-17.64705882352966</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.077999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>2.111000000000002</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2.133</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3154,23 @@
         <v>2.108500000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.1099999999999999</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3.23</v>
+        <v>2.08</v>
       </c>
       <c r="K75" t="n">
-        <v>-11.11111111111117</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.075999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>2.106500000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2.129333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3197,23 @@
         <v>2.108666666666668</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.24</v>
+        <v>2.07</v>
       </c>
       <c r="K76" t="n">
-        <v>-37.50000000000011</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.072999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>2.100500000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2.124666666666666</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,31 +3240,23 @@
         <v>2.108166666666668</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3.25</v>
+        <v>2.07</v>
       </c>
       <c r="K77" t="n">
-        <v>25.00000000000014</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.065999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>2.094500000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>2.117333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3283,23 @@
         <v>2.107666666666668</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3.25</v>
+        <v>2.06</v>
       </c>
       <c r="K78" t="n">
-        <v>-19.99999999999964</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.067999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>2.090500000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>2.113666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3326,23 @@
         <v>2.107666666666668</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3.28</v>
+        <v>2.04</v>
       </c>
       <c r="K79" t="n">
-        <v>-42.85714285714304</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.063999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>2.083500000000002</v>
-      </c>
-      <c r="N79" t="n">
-        <v>2.113</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3369,23 @@
         <v>2.108833333333334</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>3.350000000000001</v>
+        <v>2.03</v>
       </c>
       <c r="K80" t="n">
-        <v>23.07692307692313</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.067999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>2.083000000000002</v>
-      </c>
-      <c r="N80" t="n">
-        <v>2.109333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3412,23 @@
         <v>2.108000000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>3.410000000000001</v>
+        <v>2.03</v>
       </c>
       <c r="K81" t="n">
-        <v>-15.78947368421035</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.064999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>2.076500000000002</v>
-      </c>
-      <c r="N81" t="n">
-        <v>2.105999999999999</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3455,23 @@
         <v>2.108833333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.1400000000000001</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3.42</v>
+        <v>2.05</v>
       </c>
       <c r="K82" t="n">
-        <v>-9.999999999999979</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.062999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>2.077500000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>2.101666666666666</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3498,23 @@
         <v>2.109500000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.1800000000000002</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>3.46</v>
+        <v>2.01</v>
       </c>
       <c r="K83" t="n">
-        <v>-24.99999999999995</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.056999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>2.073000000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2.096999999999999</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3541,23 @@
         <v>2.109166666666668</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.22</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>3.5</v>
+        <v>1.97</v>
       </c>
       <c r="K84" t="n">
-        <v>-40.74074074074077</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.046999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>2.062500000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>2.089666666666666</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,31 +3584,23 @@
         <v>2.111166666666668</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>3.68</v>
+        <v>2.07</v>
       </c>
       <c r="K85" t="n">
-        <v>18.18181818181822</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.053999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>2.065000000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2.089</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3627,23 @@
         <v>2.111500000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>3.77</v>
+        <v>2.05</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.052999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>2.063000000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>2.084666666666666</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3670,23 @@
         <v>2.113833333333334</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>3.839999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="K87" t="n">
-        <v>11.864406779661</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.059999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>2.063000000000001</v>
-      </c>
-      <c r="N87" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3713,23 @@
         <v>2.114000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.1800000000000002</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>3.96</v>
+        <v>2.06</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.941176470588241</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.054999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>2.061500000000001</v>
-      </c>
-      <c r="N88" t="n">
-        <v>2.078666666666666</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3756,23 @@
         <v>2.115333333333334</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.1099999999999999</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>4.029999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.941176470588243</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>2.062000000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>2.075666666666666</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3799,23 @@
         <v>2.116833333333334</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>4.039999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="K90" t="n">
-        <v>7.936507936507926</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.058999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>2.0635</v>
-      </c>
-      <c r="N90" t="n">
-        <v>2.075</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3842,23 @@
         <v>2.118333333333335</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.06999999999999984</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>4.069999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="K91" t="n">
-        <v>10.76923076923083</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.066999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>2.066</v>
-      </c>
-      <c r="N91" t="n">
-        <v>2.073333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3885,23 @@
         <v>2.118833333333335</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>4.16</v>
+        <v>2.03</v>
       </c>
       <c r="K92" t="n">
-        <v>2.857142857142861</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.065</v>
+        <v>2.07</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>2.064000000000001</v>
-      </c>
-      <c r="N92" t="n">
-        <v>2.073333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3928,23 @@
         <v>2.121000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>4.26</v>
+        <v>2.12</v>
       </c>
       <c r="K93" t="n">
-        <v>21.05263157894736</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.077</v>
+        <v>2.07</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>2.067000000000001</v>
-      </c>
-      <c r="N93" t="n">
-        <v>2.074333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3971,23 @@
         <v>2.119166666666668</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.23</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>4.43</v>
+        <v>2.04</v>
       </c>
       <c r="K94" t="n">
-        <v>-25.33333333333333</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.076</v>
+        <v>2.07</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>2.061500000000001</v>
-      </c>
-      <c r="N94" t="n">
-        <v>2.066999999999999</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +4014,23 @@
         <v>2.119833333333335</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="K95" t="n">
-        <v>8.433734939759017</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.074</v>
+        <v>2.07</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>2.064000000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>2.068</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +4057,23 @@
         <v>2.118833333333335</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>4.6</v>
+        <v>1.96</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.081</v>
+        <v>2.07</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>2.067000000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>2.069</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +4100,23 @@
         <v>2.115833333333335</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>4.609999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="K97" t="n">
-        <v>20.00000000000005</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.082</v>
+        <v>2.07</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>2.071000000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>2.069333333333332</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,31 +4143,23 @@
         <v>2.114000000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>4.609999999999999</v>
+        <v>2.14</v>
       </c>
       <c r="K98" t="n">
-        <v>10.3448275862069</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.095</v>
+        <v>2.07</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>2.075000000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>2.072666666666666</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +4186,23 @@
         <v>2.111833333333334</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4.609999999999999</v>
+        <v>2.14</v>
       </c>
       <c r="K99" t="n">
-        <v>8.771929824561447</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.101</v>
+        <v>2.07</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>2.080500000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>2.074999999999999</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4232,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J100" t="n">
-        <v>4.619999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>1.81818181818178</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.105</v>
+        <v>2.07</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>2.082000000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>2.077333333333332</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4273,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J101" t="n">
-        <v>4.629999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>23.40425531914906</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.107</v>
+        <v>2.07</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>2.087000000000001</v>
-      </c>
-      <c r="N101" t="n">
-        <v>2.079666666666665</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4314,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J102" t="n">
-        <v>4.629999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>2.702702702702771</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2.118</v>
+        <v>2.07</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>2.091500000000001</v>
-      </c>
-      <c r="N102" t="n">
-        <v>2.081999999999999</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4355,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J103" t="n">
-        <v>4.639999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>90.47619047619085</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>2.098500000000001</v>
-      </c>
-      <c r="N103" t="n">
-        <v>2.084666666666665</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4396,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J104" t="n">
-        <v>4.669999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>71.42857142857243</v>
-      </c>
-      <c r="L104" t="n">
-        <v>2.142</v>
+        <v>2.07</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>2.109000000000001</v>
-      </c>
-      <c r="N104" t="n">
-        <v>2.088333333333332</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4437,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J105" t="n">
-        <v>4.669999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>71.42857142857243</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2.147</v>
+        <v>2.07</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>2.110500000000001</v>
-      </c>
-      <c r="N105" t="n">
-        <v>2.091666666666665</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4478,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J106" t="n">
-        <v>4.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>42.85714285714241</v>
-      </c>
-      <c r="L106" t="n">
-        <v>2.151</v>
+        <v>2.07</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>2.116000000000001</v>
-      </c>
-      <c r="N106" t="n">
-        <v>2.094999999999998</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4519,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J107" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>50</v>
-      </c>
-      <c r="L107" t="n">
-        <v>2.155</v>
+        <v>2.07</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>2.118500000000001</v>
-      </c>
-      <c r="N107" t="n">
-        <v>2.098999999999998</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4560,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J108" t="n">
-        <v>4.699999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>33.33333333333317</v>
-      </c>
-      <c r="L108" t="n">
-        <v>2.158</v>
+        <v>2.07</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>2.126500000000001</v>
-      </c>
-      <c r="N108" t="n">
-        <v>2.102666666666665</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4601,18 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J109" t="n">
-        <v>4.729999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>9.090909090909348</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2.158</v>
+        <v>2.07</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>2.129500000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>2.106333333333332</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4642,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4.769999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>28.57142857142867</v>
-      </c>
-      <c r="L110" t="n">
-        <v>2.163</v>
+        <v>2.07</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>2.134000000000001</v>
-      </c>
-      <c r="N110" t="n">
-        <v>2.108999999999999</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4683,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4.779999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>19.99999999999982</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2.165999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>2.136500000000001</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2.113333333333332</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4724,18 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J112" t="n">
-        <v>4.799999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>2.166999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>2.142500000000001</v>
-      </c>
-      <c r="N112" t="n">
-        <v>2.116666666666665</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4765,18 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J113" t="n">
-        <v>4.829999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>2.169999999999999</v>
+        <v>2.07</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>2.145000000000001</v>
-      </c>
-      <c r="N113" t="n">
-        <v>2.122333333333332</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4806,18 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J114" t="n">
-        <v>4.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>-11.11111111111108</v>
-      </c>
-      <c r="L114" t="n">
-        <v>2.168</v>
+        <v>2.07</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>2.155000000000001</v>
-      </c>
-      <c r="N114" t="n">
-        <v>2.128666666666666</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4847,18 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J115" t="n">
-        <v>4.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>-23.80952380952373</v>
-      </c>
-      <c r="L115" t="n">
-        <v>2.162</v>
+        <v>2.07</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>2.154500000000001</v>
-      </c>
-      <c r="N115" t="n">
-        <v>2.127666666666666</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4888,18 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J116" t="n">
-        <v>4.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>-30</v>
-      </c>
-      <c r="L116" t="n">
-        <v>2.157</v>
+        <v>2.07</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>2.154</v>
-      </c>
-      <c r="N116" t="n">
-        <v>2.129666666666666</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4929,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J117" t="n">
-        <v>4.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>2.156</v>
+        <v>2.07</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>2.1555</v>
-      </c>
-      <c r="N117" t="n">
-        <v>2.130999999999999</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4970,18 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J118" t="n">
-        <v>4.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L118" t="n">
-        <v>2.156</v>
+        <v>2.07</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>2.157</v>
-      </c>
-      <c r="N118" t="n">
-        <v>2.136333333333332</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,1099 +5011,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J119" t="n">
-        <v>4.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>-5.882352941176578</v>
-      </c>
-      <c r="L119" t="n">
-        <v>2.159</v>
+        <v>2.07</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>2.158500000000001</v>
-      </c>
-      <c r="N119" t="n">
-        <v>2.139333333333332</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E120" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F120" t="n">
-        <v>9730.4874</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2.108499999999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J120" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>2.158</v>
-      </c>
-      <c r="M120" t="n">
-        <v>2.1605</v>
-      </c>
-      <c r="N120" t="n">
-        <v>2.141999999999999</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F121" t="n">
-        <v>25499.3926</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2.108499999999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J121" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="K121" t="n">
-        <v>14.28571428571424</v>
-      </c>
-      <c r="L121" t="n">
-        <v>2.158</v>
-      </c>
-      <c r="M121" t="n">
-        <v>2.162</v>
-      </c>
-      <c r="N121" t="n">
-        <v>2.143666666666665</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F122" t="n">
-        <v>123866.8941</v>
-      </c>
-      <c r="G122" t="n">
-        <v>2.110833333333332</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J122" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-9.090909090909275</v>
-      </c>
-      <c r="L122" t="n">
-        <v>2.160000000000001</v>
-      </c>
-      <c r="M122" t="n">
-        <v>2.1635</v>
-      </c>
-      <c r="N122" t="n">
-        <v>2.148333333333332</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E123" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F123" t="n">
-        <v>69531</v>
-      </c>
-      <c r="G123" t="n">
-        <v>2.112166666666666</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J123" t="n">
-        <v>4.949999999999999</v>
-      </c>
-      <c r="K123" t="n">
-        <v>20.00000000000009</v>
-      </c>
-      <c r="L123" t="n">
-        <v>2.160000000000001</v>
-      </c>
-      <c r="M123" t="n">
-        <v>2.165</v>
-      </c>
-      <c r="N123" t="n">
-        <v>2.149999999999999</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C124" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D124" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E124" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F124" t="n">
-        <v>11</v>
-      </c>
-      <c r="G124" t="n">
-        <v>2.111666666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J124" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="K124" t="n">
-        <v>33.33333333333317</v>
-      </c>
-      <c r="L124" t="n">
-        <v>2.159000000000001</v>
-      </c>
-      <c r="M124" t="n">
-        <v>2.1635</v>
-      </c>
-      <c r="N124" t="n">
-        <v>2.156333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C125" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E125" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F125" t="n">
-        <v>873991.8349</v>
-      </c>
-      <c r="G125" t="n">
-        <v>2.112833333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J125" t="n">
-        <v>5</v>
-      </c>
-      <c r="K125" t="n">
-        <v>45.45454545454516</v>
-      </c>
-      <c r="L125" t="n">
-        <v>2.164000000000001</v>
-      </c>
-      <c r="M125" t="n">
-        <v>2.163000000000001</v>
-      </c>
-      <c r="N125" t="n">
-        <v>2.157666666666666</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D126" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E126" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F126" t="n">
-        <v>98994</v>
-      </c>
-      <c r="G126" t="n">
-        <v>2.113999999999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J126" t="n">
-        <v>5</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>2.169</v>
-      </c>
-      <c r="M126" t="n">
-        <v>2.163000000000001</v>
-      </c>
-      <c r="N126" t="n">
-        <v>2.159</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C127" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F127" t="n">
-        <v>137813.1824</v>
-      </c>
-      <c r="G127" t="n">
-        <v>2.114333333333333</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J127" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L127" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="M127" t="n">
-        <v>2.161500000000001</v>
-      </c>
-      <c r="N127" t="n">
-        <v>2.159333333333334</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C128" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E128" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F128" t="n">
-        <v>97841</v>
-      </c>
-      <c r="G128" t="n">
-        <v>2.116666666666666</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J128" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="K128" t="n">
-        <v>9.090909090909275</v>
-      </c>
-      <c r="L128" t="n">
-        <v>2.168</v>
-      </c>
-      <c r="M128" t="n">
-        <v>2.162</v>
-      </c>
-      <c r="N128" t="n">
-        <v>2.160666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D129" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E129" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F129" t="n">
-        <v>105725.8135</v>
-      </c>
-      <c r="G129" t="n">
-        <v>2.118333333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J129" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>2.168</v>
-      </c>
-      <c r="M129" t="n">
-        <v>2.1635</v>
-      </c>
-      <c r="N129" t="n">
-        <v>2.161666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C130" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D130" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F130" t="n">
-        <v>77660.3616</v>
-      </c>
-      <c r="G130" t="n">
-        <v>2.120166666666666</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J130" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>2.168</v>
-      </c>
-      <c r="M130" t="n">
-        <v>2.163000000000001</v>
-      </c>
-      <c r="N130" t="n">
-        <v>2.163000000000001</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C131" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D131" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E131" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F131" t="n">
-        <v>59415.8469</v>
-      </c>
-      <c r="G131" t="n">
-        <v>2.121333333333332</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J131" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-19.99999999999982</v>
-      </c>
-      <c r="L131" t="n">
-        <v>2.165</v>
-      </c>
-      <c r="M131" t="n">
-        <v>2.161500000000001</v>
-      </c>
-      <c r="N131" t="n">
-        <v>2.163000000000001</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C132" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E132" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F132" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G132" t="n">
-        <v>2.122499999999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J132" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-28.57142857142848</v>
-      </c>
-      <c r="L132" t="n">
-        <v>2.162</v>
-      </c>
-      <c r="M132" t="n">
-        <v>2.161</v>
-      </c>
-      <c r="N132" t="n">
-        <v>2.163000000000001</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E133" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F133" t="n">
-        <v>23534</v>
-      </c>
-      <c r="G133" t="n">
-        <v>2.123999999999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J133" t="n">
-        <v>5.109999999999999</v>
-      </c>
-      <c r="K133" t="n">
-        <v>7.692307692307876</v>
-      </c>
-      <c r="L133" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="M133" t="n">
-        <v>2.160000000000001</v>
-      </c>
-      <c r="N133" t="n">
-        <v>2.163333333333334</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F134" t="n">
-        <v>19393.7097</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2.125499999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J134" t="n">
-        <v>5.109999999999999</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-9.090909090908944</v>
-      </c>
-      <c r="L134" t="n">
-        <v>2.161</v>
-      </c>
-      <c r="M134" t="n">
-        <v>2.160000000000001</v>
-      </c>
-      <c r="N134" t="n">
-        <v>2.162666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F135" t="n">
-        <v>76705</v>
-      </c>
-      <c r="G135" t="n">
-        <v>2.126833333333332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J135" t="n">
-        <v>5.109999999999999</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-9.090909090908944</v>
-      </c>
-      <c r="L135" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="M135" t="n">
-        <v>2.162000000000001</v>
-      </c>
-      <c r="N135" t="n">
-        <v>2.161999999999999</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D136" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F136" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G136" t="n">
-        <v>2.128333333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J136" t="n">
-        <v>5.109999999999999</v>
-      </c>
-      <c r="K136" t="n">
-        <v>11.11111111111139</v>
-      </c>
-      <c r="L136" t="n">
-        <v>2.159</v>
-      </c>
-      <c r="M136" t="n">
-        <v>2.164000000000001</v>
-      </c>
-      <c r="N136" t="n">
-        <v>2.161666666666666</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F137" t="n">
-        <v>60728</v>
-      </c>
-      <c r="G137" t="n">
-        <v>2.129999999999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J137" t="n">
-        <v>5.109999999999999</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-33.33333333333358</v>
-      </c>
-      <c r="L137" t="n">
-        <v>2.160000000000001</v>
-      </c>
-      <c r="M137" t="n">
-        <v>2.163500000000001</v>
-      </c>
-      <c r="N137" t="n">
-        <v>2.160999999999999</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D138" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E138" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F138" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G138" t="n">
-        <v>2.130833333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J138" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-60.00000000000026</v>
-      </c>
-      <c r="L138" t="n">
-        <v>2.153</v>
-      </c>
-      <c r="M138" t="n">
-        <v>2.160500000000001</v>
-      </c>
-      <c r="N138" t="n">
-        <v>2.158999999999999</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D139" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F139" t="n">
-        <v>158699.0321</v>
-      </c>
-      <c r="G139" t="n">
-        <v>2.132166666666666</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J139" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-60.00000000000026</v>
-      </c>
-      <c r="L139" t="n">
-        <v>2.147000000000001</v>
-      </c>
-      <c r="M139" t="n">
-        <v>2.157500000000001</v>
-      </c>
-      <c r="N139" t="n">
-        <v>2.157999999999999</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C140" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F140" t="n">
-        <v>41928.5492</v>
-      </c>
-      <c r="G140" t="n">
-        <v>2.132333333333333</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J140" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-42.85714285714304</v>
-      </c>
-      <c r="L140" t="n">
-        <v>2.141</v>
-      </c>
-      <c r="M140" t="n">
-        <v>2.154500000000001</v>
-      </c>
-      <c r="N140" t="n">
-        <v>2.155666666666666</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -591,14 +591,20 @@
         <v>2.290666666666668</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2.14</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -633,7 +639,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -668,7 +678,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -703,7 +717,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -738,7 +756,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -773,7 +795,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -808,7 +834,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -843,7 +873,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -878,7 +912,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -913,7 +951,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -948,7 +990,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1029,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +1068,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1053,7 +1107,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1088,7 +1146,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1123,7 +1185,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,7 +1224,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1193,7 +1263,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1228,7 +1302,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1263,7 +1341,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1298,7 +1380,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1333,7 +1419,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1368,7 +1458,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1396,18 +1490,18 @@
         <v>2.183500000000002</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1529,16 @@
         <v>2.176333333333335</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1478,20 +1568,16 @@
         <v>2.169166666666668</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1521,18 +1607,18 @@
         <v>2.161333333333335</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1560,20 +1646,16 @@
         <v>2.152500000000002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -1609,14 +1691,12 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K34" t="n">
         <v>2</v>
       </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1652,12 +1732,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
+        <v>2.07</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1693,12 +1775,10 @@
       <c r="J36" t="n">
         <v>2.09</v>
       </c>
-      <c r="K36" t="n">
-        <v>2.09</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -1728,17 +1808,13 @@
         <v>2.132833333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2.09</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1771,17 +1847,13 @@
         <v>2.130333333333334</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.09</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1820,9 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>2.09</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1861,17 +1931,13 @@
         <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>2.09</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1899,17 +1965,11 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1943,14 +2003,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1984,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2022,17 +2070,11 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2066,14 +2108,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2107,14 +2143,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2148,14 +2178,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2186,19 +2210,13 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>1.033277511961723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3029,17 +3047,13 @@
         <v>2.107333333333334</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.07</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
@@ -3068,22 +3082,14 @@
         <v>2.107666666666668</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3111,22 +3117,14 @@
         <v>2.108000000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3154,22 +3152,14 @@
         <v>2.108500000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3197,22 +3187,14 @@
         <v>2.108666666666668</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3240,22 +3222,14 @@
         <v>2.108166666666668</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3283,22 +3257,14 @@
         <v>2.107666666666668</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3326,22 +3292,14 @@
         <v>2.107666666666668</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K79" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3369,22 +3327,14 @@
         <v>2.108833333333334</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K80" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3412,22 +3362,14 @@
         <v>2.108000000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3455,22 +3397,14 @@
         <v>2.108833333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K82" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3432,14 @@
         <v>2.109500000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3541,22 +3467,14 @@
         <v>2.109166666666668</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="K84" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3584,22 +3502,14 @@
         <v>2.111166666666668</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3627,22 +3537,14 @@
         <v>2.111500000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3670,22 +3572,14 @@
         <v>2.113833333333334</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3713,22 +3607,14 @@
         <v>2.114000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3756,22 +3642,14 @@
         <v>2.115333333333334</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="K89" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3799,22 +3677,14 @@
         <v>2.116833333333334</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="K90" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3842,22 +3712,14 @@
         <v>2.118333333333335</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="K91" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3885,22 +3747,14 @@
         <v>2.118833333333335</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3928,22 +3782,14 @@
         <v>2.121000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K93" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3971,22 +3817,14 @@
         <v>2.119166666666668</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K94" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +3852,14 @@
         <v>2.119833333333335</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K95" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4057,22 +3887,14 @@
         <v>2.118833333333335</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4100,22 +3922,14 @@
         <v>2.115833333333335</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="K97" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +3957,14 @@
         <v>2.114000000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4186,22 +3992,14 @@
         <v>2.111833333333334</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4232,17 +4030,11 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4276,14 +4068,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4317,14 +4103,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4358,14 +4138,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4399,14 +4173,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4440,14 +4208,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4481,14 +4243,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4522,14 +4278,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4563,14 +4313,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4604,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4645,14 +4383,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4686,14 +4418,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4727,14 +4453,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4768,14 +4488,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4809,14 +4523,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4850,14 +4558,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4891,14 +4593,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4932,14 +4628,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4973,14 +4663,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5014,14 +4698,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="D2" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="E2" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="F2" t="n">
-        <v>342669.8888</v>
+        <v>38988.267</v>
       </c>
       <c r="G2" t="n">
-        <v>2.300833333333335</v>
+        <v>2.302500000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="C3" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="E3" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="F3" t="n">
-        <v>201784</v>
+        <v>342669.8888</v>
       </c>
       <c r="G3" t="n">
-        <v>2.298500000000002</v>
+        <v>2.300833333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="C4" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="E4" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="F4" t="n">
-        <v>97293</v>
+        <v>201784</v>
       </c>
       <c r="G4" t="n">
-        <v>2.296833333333334</v>
+        <v>2.298500000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>2.14</v>
       </c>
       <c r="F5" t="n">
-        <v>3182.7102</v>
+        <v>97293</v>
       </c>
       <c r="G5" t="n">
-        <v>2.294500000000001</v>
+        <v>2.296833333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,38 +573,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="F6" t="n">
-        <v>485993.718</v>
+        <v>3182.7102</v>
       </c>
       <c r="G6" t="n">
-        <v>2.290666666666668</v>
+        <v>2.294500000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.14</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -614,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="C7" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="D7" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="E7" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="F7" t="n">
-        <v>200000</v>
+        <v>485993.718</v>
       </c>
       <c r="G7" t="n">
-        <v>2.287000000000001</v>
+        <v>2.290666666666668</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -639,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -653,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="C8" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="D8" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="E8" t="n">
         <v>2.02</v>
       </c>
       <c r="F8" t="n">
-        <v>483564.3537</v>
+        <v>200000</v>
       </c>
       <c r="G8" t="n">
-        <v>2.285166666666667</v>
+        <v>2.287000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -692,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="C9" t="n">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="E9" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="F9" t="n">
-        <v>12967.5</v>
+        <v>483564.3537</v>
       </c>
       <c r="G9" t="n">
-        <v>2.281166666666667</v>
+        <v>2.285166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -717,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -731,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="D10" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="F10" t="n">
-        <v>964514.0056</v>
+        <v>12967.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2.280833333333334</v>
+        <v>2.281166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -756,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -773,19 +751,19 @@
         <v>2.04</v>
       </c>
       <c r="C11" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>2.06</v>
       </c>
       <c r="E11" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>120000</v>
+        <v>964514.0056</v>
       </c>
       <c r="G11" t="n">
-        <v>2.280166666666667</v>
+        <v>2.280833333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -809,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="C12" t="n">
         <v>2.06</v>
@@ -818,13 +792,13 @@
         <v>2.06</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="F12" t="n">
-        <v>917747.8874</v>
+        <v>120000</v>
       </c>
       <c r="G12" t="n">
-        <v>2.277333333333334</v>
+        <v>2.280166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -848,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="D13" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="E13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>2935</v>
+        <v>917747.8874</v>
       </c>
       <c r="G13" t="n">
-        <v>2.274333333333334</v>
+        <v>2.277333333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -873,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -899,10 +865,10 @@
         <v>2.05</v>
       </c>
       <c r="F14" t="n">
-        <v>140000</v>
+        <v>2935</v>
       </c>
       <c r="G14" t="n">
-        <v>2.269333333333335</v>
+        <v>2.274333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -912,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -938,10 +900,10 @@
         <v>2.05</v>
       </c>
       <c r="F15" t="n">
-        <v>616943.1431</v>
+        <v>140000</v>
       </c>
       <c r="G15" t="n">
-        <v>2.267500000000001</v>
+        <v>2.269333333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -951,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -965,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="D16" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="F16" t="n">
-        <v>1549820.1913</v>
+        <v>616943.1431</v>
       </c>
       <c r="G16" t="n">
-        <v>2.264166666666668</v>
+        <v>2.267500000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -990,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1004,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="C17" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="D17" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="E17" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>502015.6997</v>
+        <v>1549820.1913</v>
       </c>
       <c r="G17" t="n">
-        <v>2.255500000000002</v>
+        <v>2.264166666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1029,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1055,10 +1005,10 @@
         <v>2.09</v>
       </c>
       <c r="F18" t="n">
-        <v>14152</v>
+        <v>502015.6997</v>
       </c>
       <c r="G18" t="n">
-        <v>2.253000000000001</v>
+        <v>2.255500000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1068,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1082,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="C19" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="D19" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="E19" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="F19" t="n">
-        <v>88.5</v>
+        <v>14152</v>
       </c>
       <c r="G19" t="n">
-        <v>2.247166666666668</v>
+        <v>2.253000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1107,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1121,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="C20" t="n">
         <v>2.03</v>
       </c>
       <c r="D20" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="E20" t="n">
         <v>2.03</v>
       </c>
       <c r="F20" t="n">
-        <v>396943.1431</v>
+        <v>88.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.243500000000002</v>
+        <v>2.247166666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1146,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1163,19 +1101,19 @@
         <v>2.03</v>
       </c>
       <c r="C21" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="D21" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="E21" t="n">
         <v>2.03</v>
       </c>
       <c r="F21" t="n">
-        <v>220193.2251</v>
+        <v>396943.1431</v>
       </c>
       <c r="G21" t="n">
-        <v>2.239333333333335</v>
+        <v>2.243500000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1185,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1199,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="D22" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="F22" t="n">
-        <v>1122431.8959</v>
+        <v>220193.2251</v>
       </c>
       <c r="G22" t="n">
-        <v>2.232833333333335</v>
+        <v>2.239333333333335</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1224,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="C23" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="E23" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>32.5</v>
+        <v>1122431.8959</v>
       </c>
       <c r="G23" t="n">
-        <v>2.226166666666669</v>
+        <v>2.232833333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1263,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1277,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="C24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D24" t="n">
         <v>1.99</v>
       </c>
-      <c r="D24" t="n">
-        <v>2.09</v>
-      </c>
       <c r="E24" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="F24" t="n">
-        <v>239558.4276</v>
+        <v>32.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2.219666666666669</v>
+        <v>2.226166666666669</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1302,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1316,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="C25" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="D25" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="E25" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="F25" t="n">
-        <v>491056.3471</v>
+        <v>239558.4276</v>
       </c>
       <c r="G25" t="n">
-        <v>2.212833333333335</v>
+        <v>2.219666666666669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1341,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1355,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="C26" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="D26" t="n">
         <v>2.04</v>
       </c>
       <c r="E26" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="F26" t="n">
-        <v>133750.9487</v>
+        <v>491056.3471</v>
       </c>
       <c r="G26" t="n">
-        <v>2.205333333333335</v>
+        <v>2.212833333333335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1380,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1394,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="C27" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="D27" t="n">
         <v>2.04</v>
       </c>
       <c r="E27" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="F27" t="n">
-        <v>1647079.5576</v>
+        <v>133750.9487</v>
       </c>
       <c r="G27" t="n">
-        <v>2.197833333333335</v>
+        <v>2.205333333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1419,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1433,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="F28" t="n">
-        <v>22964.146</v>
+        <v>1647079.5576</v>
       </c>
       <c r="G28" t="n">
-        <v>2.190166666666669</v>
+        <v>2.197833333333335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1458,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1484,10 +1390,10 @@
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>30000</v>
+        <v>22964.146</v>
       </c>
       <c r="G29" t="n">
-        <v>2.183500000000002</v>
+        <v>2.190166666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1497,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1523,10 +1425,10 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>11999</v>
+        <v>30000</v>
       </c>
       <c r="G30" t="n">
-        <v>2.176333333333335</v>
+        <v>2.183500000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1536,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1550,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>723.6453</v>
+        <v>11999</v>
       </c>
       <c r="G31" t="n">
-        <v>2.169166666666668</v>
+        <v>2.176333333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1575,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1589,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="F32" t="n">
-        <v>55</v>
+        <v>723.6453</v>
       </c>
       <c r="G32" t="n">
-        <v>2.161333333333335</v>
+        <v>2.169166666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1614,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1640,10 +1530,10 @@
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>48422.3301</v>
+        <v>55</v>
       </c>
       <c r="G33" t="n">
-        <v>2.152500000000002</v>
+        <v>2.161333333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1653,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1667,38 +1553,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>41139</v>
+        <v>48422.3301</v>
       </c>
       <c r="G34" t="n">
-        <v>2.145000000000001</v>
+        <v>2.152500000000002</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1708,38 +1588,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="C35" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="D35" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="E35" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="F35" t="n">
-        <v>20000</v>
+        <v>41139</v>
       </c>
       <c r="G35" t="n">
-        <v>2.137833333333334</v>
+        <v>2.145000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>2.07</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1752,35 +1626,29 @@
         <v>2.09</v>
       </c>
       <c r="C36" t="n">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="D36" t="n">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="E36" t="n">
         <v>2.09</v>
       </c>
       <c r="F36" t="n">
-        <v>7666</v>
+        <v>20000</v>
       </c>
       <c r="G36" t="n">
-        <v>2.134166666666668</v>
+        <v>2.137833333333334</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>2.09</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1790,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="C37" t="n">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="D37" t="n">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="E37" t="n">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>7666</v>
       </c>
       <c r="G37" t="n">
-        <v>2.132833333333334</v>
+        <v>2.134166666666668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1815,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1829,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="C38" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="D38" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="E38" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>2.130333333333334</v>
+        <v>2.132833333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1854,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="C39" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="D39" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="E39" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="F39" t="n">
-        <v>897306.4</v>
+        <v>200</v>
       </c>
       <c r="G39" t="n">
-        <v>2.129166666666668</v>
+        <v>2.130333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1893,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1907,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="C40" t="n">
         <v>2.27</v>
       </c>
-      <c r="C40" t="n">
-        <v>2.13</v>
-      </c>
       <c r="D40" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="E40" t="n">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="F40" t="n">
-        <v>75638</v>
+        <v>897306.4</v>
       </c>
       <c r="G40" t="n">
-        <v>2.124833333333334</v>
+        <v>2.129166666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1932,40 +1788,38 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="C41" t="n">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="D41" t="n">
         <v>2.29</v>
       </c>
       <c r="E41" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="F41" t="n">
-        <v>865818</v>
+        <v>75638</v>
       </c>
       <c r="G41" t="n">
-        <v>2.121333333333334</v>
+        <v>2.124833333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1979,28 +1833,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C42" t="n">
         <v>2.19</v>
       </c>
-      <c r="C42" t="n">
-        <v>2.17</v>
-      </c>
       <c r="D42" t="n">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="E42" t="n">
         <v>2.17</v>
       </c>
       <c r="F42" t="n">
-        <v>1687623.2653</v>
+        <v>865818</v>
       </c>
       <c r="G42" t="n">
-        <v>2.120166666666667</v>
+        <v>2.121333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2014,28 +1868,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="C43" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="D43" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="E43" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="F43" t="n">
-        <v>11</v>
+        <v>1687623.2653</v>
       </c>
       <c r="G43" t="n">
-        <v>2.119166666666668</v>
+        <v>2.120166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2049,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="C44" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="D44" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="E44" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="F44" t="n">
-        <v>120000</v>
+        <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>2.114666666666667</v>
+        <v>2.119166666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2084,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="C45" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="D45" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="E45" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>120000</v>
       </c>
       <c r="G45" t="n">
-        <v>2.111666666666667</v>
+        <v>2.114666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2119,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="C46" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="D46" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="E46" t="n">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
       <c r="F46" t="n">
-        <v>247810</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>2.109000000000001</v>
+        <v>2.111666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2154,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C47" t="n">
         <v>2.21</v>
       </c>
-      <c r="C47" t="n">
-        <v>2.28</v>
-      </c>
       <c r="D47" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="E47" t="n">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="F47" t="n">
-        <v>19599</v>
+        <v>247810</v>
       </c>
       <c r="G47" t="n">
-        <v>2.107666666666668</v>
+        <v>2.109000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2189,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="C48" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="D48" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="E48" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="F48" t="n">
-        <v>120000</v>
+        <v>19599</v>
       </c>
       <c r="G48" t="n">
-        <v>2.104500000000001</v>
+        <v>2.107666666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2224,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="C49" t="n">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="D49" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="E49" t="n">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="F49" t="n">
-        <v>97922</v>
+        <v>120000</v>
       </c>
       <c r="G49" t="n">
-        <v>2.100833333333334</v>
+        <v>2.104500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2259,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="C50" t="n">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="D50" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="E50" t="n">
-        <v>2.21</v>
+        <v>2.04</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
+        <v>97922</v>
       </c>
       <c r="G50" t="n">
-        <v>2.101000000000001</v>
+        <v>2.100833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2294,28 +2148,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.09</v>
+        <v>2.21</v>
       </c>
       <c r="C51" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="D51" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="E51" t="n">
-        <v>2.09</v>
+        <v>2.21</v>
       </c>
       <c r="F51" t="n">
-        <v>1162.4292</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>2.100666666666668</v>
+        <v>2.101000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2329,28 +2183,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="C52" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="D52" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="E52" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="F52" t="n">
-        <v>40000</v>
+        <v>1162.4292</v>
       </c>
       <c r="G52" t="n">
-        <v>2.101666666666667</v>
+        <v>2.100666666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2364,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="C53" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="D53" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="E53" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="F53" t="n">
-        <v>120083.5581</v>
+        <v>40000</v>
       </c>
       <c r="G53" t="n">
-        <v>2.102166666666668</v>
+        <v>2.101666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2399,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="C54" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="D54" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="E54" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="F54" t="n">
-        <v>555</v>
+        <v>120083.5581</v>
       </c>
       <c r="G54" t="n">
-        <v>2.103333333333334</v>
+        <v>2.102166666666668</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2434,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="C55" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="D55" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="E55" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="F55" t="n">
-        <v>10641.0384</v>
+        <v>555</v>
       </c>
       <c r="G55" t="n">
-        <v>2.103833333333334</v>
+        <v>2.103333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2469,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="C56" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="D56" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="E56" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="F56" t="n">
-        <v>50000</v>
+        <v>10641.0384</v>
       </c>
       <c r="G56" t="n">
-        <v>2.105833333333334</v>
+        <v>2.103833333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2504,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="C57" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="D57" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="E57" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="F57" t="n">
-        <v>122408.6409</v>
+        <v>50000</v>
       </c>
       <c r="G57" t="n">
-        <v>2.107166666666668</v>
+        <v>2.105833333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2539,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="C58" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="D58" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="E58" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="F58" t="n">
-        <v>146699.42</v>
+        <v>122408.6409</v>
       </c>
       <c r="G58" t="n">
-        <v>2.106666666666667</v>
+        <v>2.107166666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2574,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="C59" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="D59" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="E59" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v>146699.42</v>
       </c>
       <c r="G59" t="n">
-        <v>2.107833333333334</v>
+        <v>2.106666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2609,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="C60" t="n">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="D60" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="E60" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="F60" t="n">
-        <v>477993.966</v>
+        <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>2.107166666666668</v>
+        <v>2.107833333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2644,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="C61" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="D61" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="E61" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="F61" t="n">
-        <v>44</v>
+        <v>477993.966</v>
       </c>
       <c r="G61" t="n">
-        <v>2.107500000000001</v>
+        <v>2.107166666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2679,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="C62" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="D62" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="E62" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="F62" t="n">
-        <v>141911.4209</v>
+        <v>44</v>
       </c>
       <c r="G62" t="n">
-        <v>2.104833333333334</v>
+        <v>2.107500000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2714,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="C63" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="D63" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="E63" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="F63" t="n">
-        <v>80000</v>
+        <v>141911.4209</v>
       </c>
       <c r="G63" t="n">
-        <v>2.104000000000001</v>
+        <v>2.104833333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2749,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="C64" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="E64" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>80000</v>
       </c>
       <c r="G64" t="n">
-        <v>2.104666666666668</v>
+        <v>2.104000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2784,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="C65" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="D65" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="E65" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>2.104000000000001</v>
+        <v>2.104666666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2831,10 +2685,10 @@
         <v>2.1</v>
       </c>
       <c r="F66" t="n">
-        <v>98540</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>2.104833333333334</v>
+        <v>2.104000000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2857,19 +2711,19 @@
         <v>2.1</v>
       </c>
       <c r="C67" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="D67" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="E67" t="n">
         <v>2.1</v>
       </c>
       <c r="F67" t="n">
-        <v>60000</v>
+        <v>98540</v>
       </c>
       <c r="G67" t="n">
-        <v>2.106666666666668</v>
+        <v>2.104833333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2889,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="C68" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="D68" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="E68" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="F68" t="n">
-        <v>12077.2532</v>
+        <v>60000</v>
       </c>
       <c r="G68" t="n">
-        <v>2.105000000000001</v>
+        <v>2.106666666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2924,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="C69" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="D69" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="E69" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="F69" t="n">
-        <v>163260.3204</v>
+        <v>12077.2532</v>
       </c>
       <c r="G69" t="n">
-        <v>2.106000000000001</v>
+        <v>2.105000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2959,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="C70" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="D70" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="E70" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="F70" t="n">
-        <v>41549.7837</v>
+        <v>163260.3204</v>
       </c>
       <c r="G70" t="n">
-        <v>2.107000000000001</v>
+        <v>2.106000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2994,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="C71" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="D71" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="E71" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="F71" t="n">
-        <v>51901.9323</v>
+        <v>41549.7837</v>
       </c>
       <c r="G71" t="n">
-        <v>2.107166666666668</v>
+        <v>2.107000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3041,10 +2895,10 @@
         <v>2.07</v>
       </c>
       <c r="F72" t="n">
-        <v>104327.795</v>
+        <v>51901.9323</v>
       </c>
       <c r="G72" t="n">
-        <v>2.107333333333334</v>
+        <v>2.107166666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3076,19 +2930,23 @@
         <v>2.07</v>
       </c>
       <c r="F73" t="n">
-        <v>21744.6266</v>
+        <v>104327.795</v>
       </c>
       <c r="G73" t="n">
-        <v>2.107666666666668</v>
+        <v>2.107333333333334</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.07</v>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
@@ -3099,22 +2957,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="C74" t="n">
         <v>2.07</v>
       </c>
       <c r="D74" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="E74" t="n">
         <v>2.07</v>
       </c>
       <c r="F74" t="n">
-        <v>40000</v>
+        <v>21744.6266</v>
       </c>
       <c r="G74" t="n">
-        <v>2.108000000000001</v>
+        <v>2.107666666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3123,8 +2981,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3137,19 +3001,19 @@
         <v>2.08</v>
       </c>
       <c r="C75" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="D75" t="n">
         <v>2.08</v>
       </c>
       <c r="E75" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="F75" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G75" t="n">
-        <v>2.108500000000001</v>
+        <v>2.108000000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3158,8 +3022,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3169,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="C76" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="D76" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="E76" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="F76" t="n">
-        <v>120435.642</v>
+        <v>20000</v>
       </c>
       <c r="G76" t="n">
-        <v>2.108666666666668</v>
+        <v>2.108500000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3193,8 +3063,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3207,19 +3083,19 @@
         <v>2.07</v>
       </c>
       <c r="C77" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="D77" t="n">
         <v>2.07</v>
       </c>
       <c r="E77" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="F77" t="n">
-        <v>340493.8669</v>
+        <v>120435.642</v>
       </c>
       <c r="G77" t="n">
-        <v>2.108166666666668</v>
+        <v>2.108666666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3228,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3239,32 +3121,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="C78" t="n">
         <v>2.06</v>
       </c>
       <c r="D78" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="E78" t="n">
         <v>2.06</v>
       </c>
       <c r="F78" t="n">
-        <v>37043.16</v>
+        <v>340493.8669</v>
       </c>
       <c r="G78" t="n">
-        <v>2.107666666666668</v>
+        <v>2.108166666666668</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3274,32 +3164,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="C79" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="D79" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="E79" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="F79" t="n">
-        <v>523272.3986</v>
+        <v>37043.16</v>
       </c>
       <c r="G79" t="n">
         <v>2.107666666666668</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3309,22 +3207,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="C80" t="n">
         <v>2.03</v>
       </c>
-      <c r="C80" t="n">
-        <v>2.1</v>
-      </c>
       <c r="D80" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="E80" t="n">
         <v>2.03</v>
       </c>
       <c r="F80" t="n">
-        <v>4604840.9048</v>
+        <v>523272.3986</v>
       </c>
       <c r="G80" t="n">
-        <v>2.108833333333334</v>
+        <v>2.107666666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3333,8 +3231,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3347,19 +3251,19 @@
         <v>2.03</v>
       </c>
       <c r="C81" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="D81" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="E81" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="F81" t="n">
-        <v>34008951.74</v>
+        <v>4604840.9048</v>
       </c>
       <c r="G81" t="n">
-        <v>2.108000000000001</v>
+        <v>2.108833333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3368,8 +3272,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3379,22 +3289,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="C82" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="D82" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="E82" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="F82" t="n">
-        <v>97019.23</v>
+        <v>34008951.74</v>
       </c>
       <c r="G82" t="n">
-        <v>2.108833333333334</v>
+        <v>2.108000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3403,8 +3313,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3414,22 +3330,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="C83" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="D83" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="E83" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="F83" t="n">
-        <v>523836.2831</v>
+        <v>97019.23</v>
       </c>
       <c r="G83" t="n">
-        <v>2.109500000000001</v>
+        <v>2.108833333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3438,8 +3354,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3449,22 +3371,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="C84" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="D84" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="E84" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="F84" t="n">
-        <v>1485605.0382</v>
+        <v>523836.2831</v>
       </c>
       <c r="G84" t="n">
-        <v>2.109166666666668</v>
+        <v>2.109500000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3473,8 +3395,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3484,22 +3412,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="C85" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="D85" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="E85" t="n">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="F85" t="n">
-        <v>60019</v>
+        <v>1485605.0382</v>
       </c>
       <c r="G85" t="n">
-        <v>2.111166666666668</v>
+        <v>2.109166666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3508,8 +3436,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3519,22 +3453,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="C86" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="D86" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="E86" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="F86" t="n">
-        <v>304504.7349</v>
+        <v>60019</v>
       </c>
       <c r="G86" t="n">
-        <v>2.111500000000001</v>
+        <v>2.111166666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3543,8 +3477,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3554,22 +3494,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="C87" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="D87" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="E87" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>304504.7349</v>
       </c>
       <c r="G87" t="n">
-        <v>2.113833333333334</v>
+        <v>2.111500000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3578,8 +3518,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3589,22 +3535,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="C88" t="n">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="D88" t="n">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="E88" t="n">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="F88" t="n">
-        <v>104654.0105</v>
+        <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>2.114000000000001</v>
+        <v>2.113833333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3613,8 +3559,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3624,22 +3576,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="C89" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="D89" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="E89" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="F89" t="n">
-        <v>100000</v>
+        <v>104654.0105</v>
       </c>
       <c r="G89" t="n">
-        <v>2.115333333333334</v>
+        <v>2.114000000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3648,8 +3600,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3659,22 +3617,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="C90" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="D90" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="E90" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="F90" t="n">
-        <v>20289.8808</v>
+        <v>100000</v>
       </c>
       <c r="G90" t="n">
-        <v>2.116833333333334</v>
+        <v>2.115333333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3683,8 +3641,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3697,29 +3661,37 @@
         <v>2.09</v>
       </c>
       <c r="C91" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="D91" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="E91" t="n">
         <v>2.09</v>
       </c>
       <c r="F91" t="n">
-        <v>100000</v>
+        <v>20289.8808</v>
       </c>
       <c r="G91" t="n">
-        <v>2.118333333333335</v>
+        <v>2.116833333333334</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3729,22 +3701,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="C92" t="n">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="D92" t="n">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="E92" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="F92" t="n">
-        <v>66719.583</v>
+        <v>100000</v>
       </c>
       <c r="G92" t="n">
-        <v>2.118833333333335</v>
+        <v>2.118333333333335</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3753,8 +3725,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3764,22 +3742,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="C93" t="n">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="D93" t="n">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="E93" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="F93" t="n">
-        <v>60000</v>
+        <v>66719.583</v>
       </c>
       <c r="G93" t="n">
-        <v>2.121000000000001</v>
+        <v>2.118833333333335</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3788,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3799,22 +3783,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="C94" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="D94" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="E94" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="F94" t="n">
-        <v>290000</v>
+        <v>60000</v>
       </c>
       <c r="G94" t="n">
-        <v>2.119166666666668</v>
+        <v>2.121000000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3823,8 +3807,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3834,22 +3824,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="C95" t="n">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="D95" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="E95" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="F95" t="n">
-        <v>131439</v>
+        <v>290000</v>
       </c>
       <c r="G95" t="n">
-        <v>2.119833333333335</v>
+        <v>2.119166666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3858,8 +3848,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3869,7 +3865,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="C96" t="n">
         <v>2.13</v>
@@ -3878,13 +3874,13 @@
         <v>2.13</v>
       </c>
       <c r="E96" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="F96" t="n">
-        <v>45104.0273</v>
+        <v>131439</v>
       </c>
       <c r="G96" t="n">
-        <v>2.118833333333335</v>
+        <v>2.119833333333335</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3893,8 +3889,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3904,22 +3906,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C97" t="n">
         <v>2.13</v>
       </c>
-      <c r="C97" t="n">
-        <v>2.14</v>
-      </c>
       <c r="D97" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="E97" t="n">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="F97" t="n">
-        <v>80000</v>
+        <v>45104.0273</v>
       </c>
       <c r="G97" t="n">
-        <v>2.115833333333335</v>
+        <v>2.118833333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3928,8 +3930,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3939,7 +3947,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="C98" t="n">
         <v>2.14</v>
@@ -3948,13 +3956,13 @@
         <v>2.14</v>
       </c>
       <c r="E98" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="F98" t="n">
-        <v>1078</v>
+        <v>80000</v>
       </c>
       <c r="G98" t="n">
-        <v>2.114000000000001</v>
+        <v>2.115833333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3963,8 +3971,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3986,10 +4000,10 @@
         <v>2.14</v>
       </c>
       <c r="F99" t="n">
-        <v>659</v>
+        <v>1078</v>
       </c>
       <c r="G99" t="n">
-        <v>2.111833333333334</v>
+        <v>2.114000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3998,8 +4012,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4009,32 +4029,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="C100" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="D100" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="E100" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="F100" t="n">
-        <v>46948.3568</v>
+        <v>659</v>
       </c>
       <c r="G100" t="n">
-        <v>2.111833333333335</v>
+        <v>2.111833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4047,19 +4073,19 @@
         <v>2.13</v>
       </c>
       <c r="C101" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="D101" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="E101" t="n">
         <v>2.13</v>
       </c>
       <c r="F101" t="n">
-        <v>63140</v>
+        <v>46948.3568</v>
       </c>
       <c r="G101" t="n">
-        <v>2.111000000000001</v>
+        <v>2.111833333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4068,8 +4094,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4079,7 +4111,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="C102" t="n">
         <v>2.14</v>
@@ -4088,13 +4120,13 @@
         <v>2.14</v>
       </c>
       <c r="E102" t="n">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="F102" t="n">
-        <v>127700.8679</v>
+        <v>63140</v>
       </c>
       <c r="G102" t="n">
-        <v>2.1105</v>
+        <v>2.111000000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4103,8 +4135,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4114,22 +4152,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C103" t="n">
         <v>2.14</v>
       </c>
-      <c r="C103" t="n">
-        <v>2.15</v>
-      </c>
       <c r="D103" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="E103" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="F103" t="n">
-        <v>217867.365</v>
+        <v>127700.8679</v>
       </c>
       <c r="G103" t="n">
-        <v>2.109666666666667</v>
+        <v>2.1105</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4138,8 +4176,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4149,22 +4193,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="C104" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="D104" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="E104" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="F104" t="n">
-        <v>218193.4600954129</v>
+        <v>217867.365</v>
       </c>
       <c r="G104" t="n">
-        <v>2.110666666666667</v>
+        <v>2.109666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4173,8 +4217,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4234,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="C105" t="n">
         <v>2.18</v>
@@ -4193,13 +4243,13 @@
         <v>2.18</v>
       </c>
       <c r="E105" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="F105" t="n">
-        <v>33068.3486</v>
+        <v>218193.4600954129</v>
       </c>
       <c r="G105" t="n">
-        <v>2.1105</v>
+        <v>2.110666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4208,8 +4258,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4222,19 +4278,19 @@
         <v>2.18</v>
       </c>
       <c r="C106" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="D106" t="n">
         <v>2.18</v>
       </c>
       <c r="E106" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="F106" t="n">
-        <v>1320</v>
+        <v>33068.3486</v>
       </c>
       <c r="G106" t="n">
-        <v>2.109833333333333</v>
+        <v>2.1105</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4243,8 +4299,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4254,22 +4316,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="C107" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="D107" t="n">
         <v>2.18</v>
       </c>
       <c r="E107" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="F107" t="n">
-        <v>565</v>
+        <v>1320</v>
       </c>
       <c r="G107" t="n">
-        <v>2.108166666666667</v>
+        <v>2.109833333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4278,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4289,19 +4357,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="C108" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="D108" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="E108" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="F108" t="n">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="G108" t="n">
         <v>2.108166666666667</v>
@@ -4313,8 +4381,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4324,22 +4398,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="C109" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="D109" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="E109" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="F109" t="n">
-        <v>33</v>
+        <v>544</v>
       </c>
       <c r="G109" t="n">
-        <v>2.109666666666667</v>
+        <v>2.108166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4348,8 +4422,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4359,22 +4439,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="C110" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="D110" t="n">
         <v>2.18</v>
       </c>
       <c r="E110" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="F110" t="n">
-        <v>187846.0854</v>
+        <v>33</v>
       </c>
       <c r="G110" t="n">
-        <v>2.109166666666666</v>
+        <v>2.109666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4383,8 +4463,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4397,19 +4483,19 @@
         <v>2.17</v>
       </c>
       <c r="C111" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="D111" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="E111" t="n">
         <v>2.17</v>
       </c>
       <c r="F111" t="n">
-        <v>17833.5944</v>
+        <v>187846.0854</v>
       </c>
       <c r="G111" t="n">
-        <v>2.109666666666667</v>
+        <v>2.109166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4418,8 +4504,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4429,22 +4521,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="C112" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="D112" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="E112" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>17833.5944</v>
       </c>
       <c r="G112" t="n">
-        <v>2.109166666666666</v>
+        <v>2.109666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4453,8 +4545,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4464,22 +4562,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="C113" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="D113" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="E113" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="F113" t="n">
-        <v>423.5023</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>2.109666666666667</v>
+        <v>2.109166666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4488,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4502,19 +4606,19 @@
         <v>2.17</v>
       </c>
       <c r="C114" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="D114" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E114" t="n">
         <v>2.17</v>
       </c>
-      <c r="E114" t="n">
-        <v>2.16</v>
-      </c>
       <c r="F114" t="n">
-        <v>217647.9764</v>
+        <v>423.5023</v>
       </c>
       <c r="G114" t="n">
-        <v>2.109166666666666</v>
+        <v>2.109666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4523,8 +4627,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4534,22 +4644,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="C115" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="D115" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="E115" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="F115" t="n">
-        <v>255423.637</v>
+        <v>217647.9764</v>
       </c>
       <c r="G115" t="n">
-        <v>2.108333333333333</v>
+        <v>2.109166666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4558,8 +4668,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4569,22 +4685,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="C116" t="n">
         <v>2.12</v>
       </c>
       <c r="D116" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="E116" t="n">
         <v>2.12</v>
       </c>
       <c r="F116" t="n">
-        <v>33068.3486</v>
+        <v>255423.637</v>
       </c>
       <c r="G116" t="n">
-        <v>2.107166666666666</v>
+        <v>2.108333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4593,8 +4709,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4604,22 +4726,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="C117" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="D117" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="E117" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="F117" t="n">
-        <v>40630</v>
+        <v>33068.3486</v>
       </c>
       <c r="G117" t="n">
-        <v>2.106999999999999</v>
+        <v>2.107166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4628,8 +4750,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4639,7 +4767,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="C118" t="n">
         <v>2.17</v>
@@ -4648,13 +4776,13 @@
         <v>2.17</v>
       </c>
       <c r="E118" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="F118" t="n">
-        <v>20026.4976</v>
+        <v>40630</v>
       </c>
       <c r="G118" t="n">
-        <v>2.107499999999999</v>
+        <v>2.106999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4663,8 +4791,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4686,7 +4820,7 @@
         <v>2.17</v>
       </c>
       <c r="F119" t="n">
-        <v>7573</v>
+        <v>20026.4976</v>
       </c>
       <c r="G119" t="n">
         <v>2.107499999999999</v>
@@ -4698,9 +4832,56 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7573</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2.107499999999999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>38988.267</v>
       </c>
       <c r="G2" t="n">
+        <v>2.172666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.302500000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>342669.8888</v>
       </c>
       <c r="G3" t="n">
+        <v>2.161333333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.300833333333335</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>201784</v>
       </c>
       <c r="G4" t="n">
+        <v>2.147333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.298500000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>97293</v>
       </c>
       <c r="G5" t="n">
+        <v>2.138666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.296833333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3182.7102</v>
       </c>
       <c r="G6" t="n">
+        <v>2.134666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.294500000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>485993.718</v>
       </c>
       <c r="G7" t="n">
+        <v>2.127333333333332</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.290666666666668</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>200000</v>
       </c>
       <c r="G8" t="n">
+        <v>2.120666666666665</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.287000000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>483564.3537</v>
       </c>
       <c r="G9" t="n">
+        <v>2.121999999999998</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.285166666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>12967.5</v>
       </c>
       <c r="G10" t="n">
+        <v>2.114666666666665</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.281166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>964514.0056</v>
       </c>
       <c r="G11" t="n">
+        <v>2.105333333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.280833333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>120000</v>
       </c>
       <c r="G12" t="n">
+        <v>2.104666666666665</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.280166666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>917747.8874</v>
       </c>
       <c r="G13" t="n">
+        <v>2.101999999999998</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.277333333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2935</v>
       </c>
       <c r="G14" t="n">
+        <v>2.093999999999998</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.274333333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>140000</v>
       </c>
       <c r="G15" t="n">
+        <v>2.090666666666664</v>
+      </c>
+      <c r="H15" t="n">
         <v>2.269333333333335</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>616943.1431</v>
       </c>
       <c r="G16" t="n">
+        <v>2.083999999999997</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.267500000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1549820.1913</v>
       </c>
       <c r="G17" t="n">
+        <v>2.077999999999998</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.264166666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>502015.6997</v>
       </c>
       <c r="G18" t="n">
+        <v>2.071333333333331</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.255500000000002</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>14152</v>
       </c>
       <c r="G19" t="n">
+        <v>2.067333333333331</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.253000000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>88.5</v>
       </c>
       <c r="G20" t="n">
+        <v>2.059999999999997</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.247166666666668</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>396943.1431</v>
       </c>
       <c r="G21" t="n">
+        <v>2.052666666666664</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.243500000000002</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>220193.2251</v>
       </c>
       <c r="G22" t="n">
+        <v>2.055333333333331</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.239333333333335</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1122431.8959</v>
       </c>
       <c r="G23" t="n">
+        <v>2.053999999999998</v>
+      </c>
+      <c r="H23" t="n">
         <v>2.232833333333335</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>32.5</v>
       </c>
       <c r="G24" t="n">
+        <v>2.042666666666665</v>
+      </c>
+      <c r="H24" t="n">
         <v>2.226166666666669</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>239558.4276</v>
       </c>
       <c r="G25" t="n">
+        <v>2.041333333333332</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.219666666666669</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>491056.3471</v>
       </c>
       <c r="G26" t="n">
+        <v>2.043333333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.212833333333335</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>133750.9487</v>
       </c>
       <c r="G27" t="n">
+        <v>2.041999999999998</v>
+      </c>
+      <c r="H27" t="n">
         <v>2.205333333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1647079.5576</v>
       </c>
       <c r="G28" t="n">
+        <v>2.037333333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>2.197833333333335</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>22964.146</v>
       </c>
       <c r="G29" t="n">
+        <v>2.033999999999998</v>
+      </c>
+      <c r="H29" t="n">
         <v>2.190166666666669</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,25 @@
         <v>30000</v>
       </c>
       <c r="G30" t="n">
+        <v>2.030666666666665</v>
+      </c>
+      <c r="H30" t="n">
         <v>2.183500000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1559,29 @@
         <v>11999</v>
       </c>
       <c r="G31" t="n">
+        <v>2.027333333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>2.176333333333335</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1605,27 @@
         <v>723.6453</v>
       </c>
       <c r="G32" t="n">
+        <v>2.025333333333332</v>
+      </c>
+      <c r="H32" t="n">
         <v>2.169166666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1649,21 @@
         <v>55</v>
       </c>
       <c r="G33" t="n">
+        <v>2.019333333333332</v>
+      </c>
+      <c r="H33" t="n">
         <v>2.161333333333335</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1687,21 @@
         <v>48422.3301</v>
       </c>
       <c r="G34" t="n">
+        <v>2.013333333333332</v>
+      </c>
+      <c r="H34" t="n">
         <v>2.152500000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1725,21 @@
         <v>41139</v>
       </c>
       <c r="G35" t="n">
+        <v>2.015999999999998</v>
+      </c>
+      <c r="H35" t="n">
         <v>2.145000000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1763,21 @@
         <v>20000</v>
       </c>
       <c r="G36" t="n">
+        <v>2.019999999999998</v>
+      </c>
+      <c r="H36" t="n">
         <v>2.137833333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1801,21 @@
         <v>7666</v>
       </c>
       <c r="G37" t="n">
+        <v>2.026666666666665</v>
+      </c>
+      <c r="H37" t="n">
         <v>2.134166666666668</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1839,21 @@
         <v>11</v>
       </c>
       <c r="G38" t="n">
+        <v>2.047999999999997</v>
+      </c>
+      <c r="H38" t="n">
         <v>2.132833333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1877,21 @@
         <v>200</v>
       </c>
       <c r="G39" t="n">
+        <v>2.066666666666664</v>
+      </c>
+      <c r="H39" t="n">
         <v>2.130333333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1915,21 @@
         <v>897306.4</v>
       </c>
       <c r="G40" t="n">
+        <v>2.085333333333331</v>
+      </c>
+      <c r="H40" t="n">
         <v>2.129166666666668</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1953,21 @@
         <v>75638</v>
       </c>
       <c r="G41" t="n">
+        <v>2.091999999999998</v>
+      </c>
+      <c r="H41" t="n">
         <v>2.124833333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1991,21 @@
         <v>865818</v>
       </c>
       <c r="G42" t="n">
+        <v>2.101999999999998</v>
+      </c>
+      <c r="H42" t="n">
         <v>2.121333333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2029,21 @@
         <v>1687623.2653</v>
       </c>
       <c r="G43" t="n">
+        <v>2.113999999999998</v>
+      </c>
+      <c r="H43" t="n">
         <v>2.120166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2067,21 @@
         <v>11</v>
       </c>
       <c r="G44" t="n">
+        <v>2.127333333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>2.119166666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2105,21 @@
         <v>120000</v>
       </c>
       <c r="G45" t="n">
+        <v>2.135333333333331</v>
+      </c>
+      <c r="H45" t="n">
         <v>2.114666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2143,21 @@
         <v>11</v>
       </c>
       <c r="G46" t="n">
+        <v>2.147999999999997</v>
+      </c>
+      <c r="H46" t="n">
         <v>2.111666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2181,21 @@
         <v>247810</v>
       </c>
       <c r="G47" t="n">
+        <v>2.159999999999997</v>
+      </c>
+      <c r="H47" t="n">
         <v>2.109000000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2219,21 @@
         <v>19599</v>
       </c>
       <c r="G48" t="n">
+        <v>2.178666666666664</v>
+      </c>
+      <c r="H48" t="n">
         <v>2.107666666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2257,21 @@
         <v>120000</v>
       </c>
       <c r="G49" t="n">
+        <v>2.189999999999998</v>
+      </c>
+      <c r="H49" t="n">
         <v>2.104500000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2295,21 @@
         <v>97922</v>
       </c>
       <c r="G50" t="n">
+        <v>2.188666666666664</v>
+      </c>
+      <c r="H50" t="n">
         <v>2.100833333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2333,21 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
+        <v>2.196666666666664</v>
+      </c>
+      <c r="H51" t="n">
         <v>2.101000000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2371,21 @@
         <v>1162.4292</v>
       </c>
       <c r="G52" t="n">
+        <v>2.193333333333331</v>
+      </c>
+      <c r="H52" t="n">
         <v>2.100666666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2409,21 @@
         <v>40000</v>
       </c>
       <c r="G53" t="n">
+        <v>2.183999999999997</v>
+      </c>
+      <c r="H53" t="n">
         <v>2.101666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2447,21 @@
         <v>120083.5581</v>
       </c>
       <c r="G54" t="n">
+        <v>2.177333333333331</v>
+      </c>
+      <c r="H54" t="n">
         <v>2.102166666666668</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2485,21 @@
         <v>555</v>
       </c>
       <c r="G55" t="n">
+        <v>2.171999999999997</v>
+      </c>
+      <c r="H55" t="n">
         <v>2.103333333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2523,21 @@
         <v>10641.0384</v>
       </c>
       <c r="G56" t="n">
+        <v>2.174666666666664</v>
+      </c>
+      <c r="H56" t="n">
         <v>2.103833333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2561,21 @@
         <v>50000</v>
       </c>
       <c r="G57" t="n">
+        <v>2.174666666666664</v>
+      </c>
+      <c r="H57" t="n">
         <v>2.105833333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2599,21 @@
         <v>122408.6409</v>
       </c>
       <c r="G58" t="n">
+        <v>2.17533333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>2.107166666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2637,21 @@
         <v>146699.42</v>
       </c>
       <c r="G59" t="n">
+        <v>2.17133333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>2.106666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2675,21 @@
         <v>11</v>
       </c>
       <c r="G60" t="n">
+        <v>2.174666666666664</v>
+      </c>
+      <c r="H60" t="n">
         <v>2.107833333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2713,21 @@
         <v>477993.966</v>
       </c>
       <c r="G61" t="n">
+        <v>2.16933333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>2.107166666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2751,21 @@
         <v>44</v>
       </c>
       <c r="G62" t="n">
+        <v>2.166666666666664</v>
+      </c>
+      <c r="H62" t="n">
         <v>2.107500000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2789,21 @@
         <v>141911.4209</v>
       </c>
       <c r="G63" t="n">
+        <v>2.149999999999997</v>
+      </c>
+      <c r="H63" t="n">
         <v>2.104833333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2827,21 @@
         <v>80000</v>
       </c>
       <c r="G64" t="n">
+        <v>2.145333333333331</v>
+      </c>
+      <c r="H64" t="n">
         <v>2.104000000000001</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2865,21 @@
         <v>11</v>
       </c>
       <c r="G65" t="n">
+        <v>2.153999999999997</v>
+      </c>
+      <c r="H65" t="n">
         <v>2.104666666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2903,21 @@
         <v>100</v>
       </c>
       <c r="G66" t="n">
+        <v>2.146666666666664</v>
+      </c>
+      <c r="H66" t="n">
         <v>2.104000000000001</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2941,21 @@
         <v>98540</v>
       </c>
       <c r="G67" t="n">
+        <v>2.143999999999997</v>
+      </c>
+      <c r="H67" t="n">
         <v>2.104833333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2979,21 @@
         <v>60000</v>
       </c>
       <c r="G68" t="n">
+        <v>2.140666666666664</v>
+      </c>
+      <c r="H68" t="n">
         <v>2.106666666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3017,21 @@
         <v>12077.2532</v>
       </c>
       <c r="G69" t="n">
+        <v>2.133333333333331</v>
+      </c>
+      <c r="H69" t="n">
         <v>2.105000000000001</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3055,21 @@
         <v>163260.3204</v>
       </c>
       <c r="G70" t="n">
+        <v>2.125333333333331</v>
+      </c>
+      <c r="H70" t="n">
         <v>2.106000000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3093,21 @@
         <v>41549.7837</v>
       </c>
       <c r="G71" t="n">
+        <v>2.117999999999997</v>
+      </c>
+      <c r="H71" t="n">
         <v>2.107000000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3131,21 @@
         <v>51901.9323</v>
       </c>
       <c r="G72" t="n">
+        <v>2.109999999999997</v>
+      </c>
+      <c r="H72" t="n">
         <v>2.107166666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,22 +3169,25 @@
         <v>104327.795</v>
       </c>
       <c r="G73" t="n">
+        <v>2.102666666666664</v>
+      </c>
+      <c r="H73" t="n">
         <v>2.107333333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>2.07</v>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,24 +3211,29 @@
         <v>21744.6266</v>
       </c>
       <c r="G74" t="n">
+        <v>2.097999999999997</v>
+      </c>
+      <c r="H74" t="n">
         <v>2.107666666666668</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="n">
         <v>2.07</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3013,24 +3257,29 @@
         <v>40000</v>
       </c>
       <c r="G75" t="n">
+        <v>2.09133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>2.108000000000001</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
         <v>2.07</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,24 +3303,29 @@
         <v>20000</v>
       </c>
       <c r="G76" t="n">
+        <v>2.08933333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>2.108500000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="n">
         <v>2.07</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3095,24 +3349,29 @@
         <v>120435.642</v>
       </c>
       <c r="G77" t="n">
+        <v>2.082666666666663</v>
+      </c>
+      <c r="H77" t="n">
         <v>2.108666666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L77" t="inlineStr">
+        <v>2.08</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,26 +3395,29 @@
         <v>340493.8669</v>
       </c>
       <c r="G78" t="n">
+        <v>2.084666666666664</v>
+      </c>
+      <c r="H78" t="n">
         <v>2.108166666666668</v>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>2.07</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,26 +3441,29 @@
         <v>37043.16</v>
       </c>
       <c r="G79" t="n">
+        <v>2.081999999999997</v>
+      </c>
+      <c r="H79" t="n">
         <v>2.107666666666668</v>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
         <v>2.06</v>
       </c>
-      <c r="K79" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3222,24 +3487,29 @@
         <v>523272.3986</v>
       </c>
       <c r="G80" t="n">
+        <v>2.071999999999997</v>
+      </c>
+      <c r="H80" t="n">
         <v>2.107666666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L80" t="inlineStr">
+        <v>2.06</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3263,24 +3533,29 @@
         <v>4604840.9048</v>
       </c>
       <c r="G81" t="n">
+        <v>2.071999999999997</v>
+      </c>
+      <c r="H81" t="n">
         <v>2.108833333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>2.03</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,24 +3579,29 @@
         <v>34008951.74</v>
       </c>
       <c r="G82" t="n">
+        <v>2.067999999999997</v>
+      </c>
+      <c r="H82" t="n">
         <v>2.108000000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>2.1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3345,24 +3625,29 @@
         <v>97019.23</v>
       </c>
       <c r="G83" t="n">
+        <v>2.062666666666663</v>
+      </c>
+      <c r="H83" t="n">
         <v>2.108833333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>2.04</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,24 +3671,29 @@
         <v>523836.2831</v>
       </c>
       <c r="G84" t="n">
+        <v>2.060666666666664</v>
+      </c>
+      <c r="H84" t="n">
         <v>2.109500000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L84" t="inlineStr">
+        <v>2.05</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3427,24 +3717,29 @@
         <v>1485605.0382</v>
       </c>
       <c r="G85" t="n">
+        <v>2.053999999999997</v>
+      </c>
+      <c r="H85" t="n">
         <v>2.109166666666668</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L85" t="inlineStr">
+        <v>2.01</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3468,24 +3763,27 @@
         <v>60019</v>
       </c>
       <c r="G86" t="n">
+        <v>2.059999999999997</v>
+      </c>
+      <c r="H86" t="n">
         <v>2.111166666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,24 +3807,29 @@
         <v>304504.7349</v>
       </c>
       <c r="G87" t="n">
+        <v>2.05933333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>2.111500000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L87" t="inlineStr">
+        <v>2.15</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,24 +3853,27 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
+        <v>2.06333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>2.113833333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3591,24 +3897,27 @@
         <v>104654.0105</v>
       </c>
       <c r="G89" t="n">
+        <v>2.05933333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>2.114000000000001</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,24 +3941,27 @@
         <v>100000</v>
       </c>
       <c r="G90" t="n">
+        <v>2.059999999999997</v>
+      </c>
+      <c r="H90" t="n">
         <v>2.115333333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3673,26 +3985,27 @@
         <v>20289.8808</v>
       </c>
       <c r="G91" t="n">
+        <v>2.060666666666664</v>
+      </c>
+      <c r="H91" t="n">
         <v>2.116833333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="K91" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,24 +4029,27 @@
         <v>100000</v>
       </c>
       <c r="G92" t="n">
+        <v>2.063999999999997</v>
+      </c>
+      <c r="H92" t="n">
         <v>2.118333333333335</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,24 +4073,27 @@
         <v>66719.583</v>
       </c>
       <c r="G93" t="n">
+        <v>2.061999999999997</v>
+      </c>
+      <c r="H93" t="n">
         <v>2.118833333333335</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,24 +4117,27 @@
         <v>60000</v>
       </c>
       <c r="G94" t="n">
+        <v>2.066666666666664</v>
+      </c>
+      <c r="H94" t="n">
         <v>2.121000000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3839,24 +4161,27 @@
         <v>290000</v>
       </c>
       <c r="G95" t="n">
+        <v>2.061999999999997</v>
+      </c>
+      <c r="H95" t="n">
         <v>2.119166666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,24 +4205,27 @@
         <v>131439</v>
       </c>
       <c r="G96" t="n">
+        <v>2.063999999999997</v>
+      </c>
+      <c r="H96" t="n">
         <v>2.119833333333335</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3921,24 +4249,27 @@
         <v>45104.0273</v>
       </c>
       <c r="G97" t="n">
+        <v>2.069999999999997</v>
+      </c>
+      <c r="H97" t="n">
         <v>2.118833333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3962,24 +4293,27 @@
         <v>80000</v>
       </c>
       <c r="G98" t="n">
+        <v>2.075999999999997</v>
+      </c>
+      <c r="H98" t="n">
         <v>2.115833333333335</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,24 +4337,27 @@
         <v>1078</v>
       </c>
       <c r="G99" t="n">
+        <v>2.084666666666664</v>
+      </c>
+      <c r="H99" t="n">
         <v>2.114000000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4044,24 +4381,27 @@
         <v>659</v>
       </c>
       <c r="G100" t="n">
+        <v>2.095999999999997</v>
+      </c>
+      <c r="H100" t="n">
         <v>2.111833333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4085,24 +4425,27 @@
         <v>46948.3568</v>
       </c>
       <c r="G101" t="n">
+        <v>2.094666666666664</v>
+      </c>
+      <c r="H101" t="n">
         <v>2.111833333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,24 +4469,27 @@
         <v>63140</v>
       </c>
       <c r="G102" t="n">
+        <v>2.099999999999997</v>
+      </c>
+      <c r="H102" t="n">
         <v>2.111000000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,24 +4513,29 @@
         <v>127700.8679</v>
       </c>
       <c r="G103" t="n">
+        <v>2.100666666666664</v>
+      </c>
+      <c r="H103" t="n">
         <v>2.1105</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>2.14</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,24 +4559,29 @@
         <v>217867.365</v>
       </c>
       <c r="G104" t="n">
+        <v>2.109999999999998</v>
+      </c>
+      <c r="H104" t="n">
         <v>2.109666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>2.14</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4249,24 +4605,29 @@
         <v>218193.4600954129</v>
       </c>
       <c r="G105" t="n">
+        <v>2.116666666666664</v>
+      </c>
+      <c r="H105" t="n">
         <v>2.110666666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L105" t="inlineStr">
+        <v>2.15</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4290,24 +4651,27 @@
         <v>33068.3486</v>
       </c>
       <c r="G106" t="n">
+        <v>2.122666666666664</v>
+      </c>
+      <c r="H106" t="n">
         <v>2.1105</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,24 +4695,29 @@
         <v>1320</v>
       </c>
       <c r="G107" t="n">
+        <v>2.125999999999997</v>
+      </c>
+      <c r="H107" t="n">
         <v>2.109833333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L107" t="inlineStr">
+        <v>2.18</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,24 +4741,29 @@
         <v>565</v>
       </c>
       <c r="G108" t="n">
+        <v>2.135999999999997</v>
+      </c>
+      <c r="H108" t="n">
         <v>2.108166666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L108" t="inlineStr">
+        <v>2.17</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4413,24 +4787,29 @@
         <v>544</v>
       </c>
       <c r="G109" t="n">
+        <v>2.138666666666664</v>
+      </c>
+      <c r="H109" t="n">
         <v>2.108166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L109" t="inlineStr">
+        <v>2.18</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,24 +4833,29 @@
         <v>33</v>
       </c>
       <c r="G110" t="n">
+        <v>2.150666666666664</v>
+      </c>
+      <c r="H110" t="n">
         <v>2.109666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L110" t="inlineStr">
+        <v>2.17</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4495,24 +4879,29 @@
         <v>187846.0854</v>
       </c>
       <c r="G111" t="n">
+        <v>2.153999999999997</v>
+      </c>
+      <c r="H111" t="n">
         <v>2.109166666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L111" t="inlineStr">
+        <v>2.14</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4536,24 +4925,27 @@
         <v>17833.5944</v>
       </c>
       <c r="G112" t="n">
+        <v>2.156666666666664</v>
+      </c>
+      <c r="H112" t="n">
         <v>2.109666666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,24 +4969,27 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
+        <v>2.157333333333331</v>
+      </c>
+      <c r="H113" t="n">
         <v>2.109166666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,24 +5013,27 @@
         <v>423.5023</v>
       </c>
       <c r="G114" t="n">
+        <v>2.159999999999997</v>
+      </c>
+      <c r="H114" t="n">
         <v>2.109666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,24 +5057,27 @@
         <v>217647.9764</v>
       </c>
       <c r="G115" t="n">
+        <v>2.161333333333331</v>
+      </c>
+      <c r="H115" t="n">
         <v>2.109166666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,24 +5101,27 @@
         <v>255423.637</v>
       </c>
       <c r="G116" t="n">
+        <v>2.160666666666664</v>
+      </c>
+      <c r="H116" t="n">
         <v>2.108333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4741,24 +5145,29 @@
         <v>33068.3486</v>
       </c>
       <c r="G117" t="n">
+        <v>2.15933333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>2.107166666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L117" t="inlineStr">
+        <v>2.12</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,24 +5191,27 @@
         <v>40630</v>
       </c>
       <c r="G118" t="n">
+        <v>2.16133333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>2.106999999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,24 +5235,29 @@
         <v>20026.4976</v>
       </c>
       <c r="G119" t="n">
+        <v>2.162666666666664</v>
+      </c>
+      <c r="H119" t="n">
         <v>2.107499999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L119" t="inlineStr">
+        <v>2.17</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,24 +5281,477 @@
         <v>7573</v>
       </c>
       <c r="G120" t="n">
+        <v>2.161999999999997</v>
+      </c>
+      <c r="H120" t="n">
         <v>2.107499999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L120" t="inlineStr">
+        <v>2.17</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9730.4874</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2.161333333333331</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2.108499999999999</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F122" t="n">
+        <v>25499.3926</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2.161333333333331</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2.108499999999999</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F123" t="n">
+        <v>123866.8941</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2.160666666666664</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.110833333333332</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F124" t="n">
+        <v>69531</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2.161333333333331</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2.112166666666666</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F125" t="n">
+        <v>11</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2.161999999999997</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2.111666666666666</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F126" t="n">
+        <v>873991.8349</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2.161333333333331</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2.112833333333333</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F127" t="n">
+        <v>98994</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2.161333333333331</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2.113999999999999</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F128" t="n">
+        <v>137813.1824</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.161333333333331</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2.114333333333333</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F129" t="n">
+        <v>97841</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.161333333333331</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2.116666666666666</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F130" t="n">
+        <v>105725.8135</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.161999999999998</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2.118333333333333</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="C2" t="n">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="D2" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="E2" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="F2" t="n">
-        <v>38988.267</v>
+        <v>1922176.71722301</v>
       </c>
       <c r="G2" t="n">
-        <v>2.172666666666666</v>
+        <v>158918762.5599683</v>
       </c>
       <c r="H2" t="n">
-        <v>2.302500000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.19</v>
+        <v>2.51</v>
       </c>
       <c r="C3" t="n">
-        <v>2.19</v>
+        <v>2.53</v>
       </c>
       <c r="D3" t="n">
-        <v>2.19</v>
+        <v>2.53</v>
       </c>
       <c r="E3" t="n">
-        <v>2.19</v>
+        <v>2.47</v>
       </c>
       <c r="F3" t="n">
-        <v>342669.8888</v>
+        <v>2683625.130872112</v>
       </c>
       <c r="G3" t="n">
-        <v>2.161333333333332</v>
+        <v>161602387.6908404</v>
       </c>
       <c r="H3" t="n">
-        <v>2.300833333333335</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="C4" t="n">
-        <v>2.15</v>
+        <v>2.52</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="E4" t="n">
-        <v>2.15</v>
+        <v>2.52</v>
       </c>
       <c r="F4" t="n">
-        <v>201784</v>
+        <v>8947.728499999999</v>
       </c>
       <c r="G4" t="n">
-        <v>2.147333333333333</v>
+        <v>161593439.9623404</v>
       </c>
       <c r="H4" t="n">
-        <v>2.298500000000002</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="C5" t="n">
-        <v>2.14</v>
+        <v>2.52</v>
       </c>
       <c r="D5" t="n">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="E5" t="n">
-        <v>2.14</v>
+        <v>2.52</v>
       </c>
       <c r="F5" t="n">
-        <v>97293</v>
+        <v>31200.4858</v>
       </c>
       <c r="G5" t="n">
-        <v>2.138666666666666</v>
+        <v>161593439.9623404</v>
       </c>
       <c r="H5" t="n">
-        <v>2.296833333333334</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.14</v>
+        <v>2.51</v>
       </c>
       <c r="C6" t="n">
-        <v>2.14</v>
+        <v>2.41</v>
       </c>
       <c r="D6" t="n">
-        <v>2.14</v>
+        <v>2.52</v>
       </c>
       <c r="E6" t="n">
-        <v>2.14</v>
+        <v>2.41</v>
       </c>
       <c r="F6" t="n">
-        <v>3182.7102</v>
+        <v>1981830.6218</v>
       </c>
       <c r="G6" t="n">
-        <v>2.134666666666666</v>
+        <v>159611609.3405403</v>
       </c>
       <c r="H6" t="n">
-        <v>2.294500000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="C7" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="D7" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="E7" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="F7" t="n">
-        <v>485993.718</v>
+        <v>809646.602</v>
       </c>
       <c r="G7" t="n">
-        <v>2.127333333333332</v>
+        <v>158801962.7385404</v>
       </c>
       <c r="H7" t="n">
-        <v>2.290666666666668</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.03</v>
+        <v>2.41</v>
       </c>
       <c r="C8" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="D8" t="n">
-        <v>2.03</v>
+        <v>2.41</v>
       </c>
       <c r="E8" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="F8" t="n">
-        <v>200000</v>
+        <v>143115.18</v>
       </c>
       <c r="G8" t="n">
-        <v>2.120666666666665</v>
+        <v>158801962.7385404</v>
       </c>
       <c r="H8" t="n">
-        <v>2.287000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="C9" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="D9" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="E9" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="F9" t="n">
-        <v>483564.3537</v>
+        <v>742131.6838999999</v>
       </c>
       <c r="G9" t="n">
-        <v>2.121999999999998</v>
+        <v>158059831.0546404</v>
       </c>
       <c r="H9" t="n">
-        <v>2.285166666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.01</v>
+        <v>2.38</v>
       </c>
       <c r="C10" t="n">
-        <v>2.01</v>
+        <v>2.39</v>
       </c>
       <c r="D10" t="n">
-        <v>2.01</v>
+        <v>2.39</v>
       </c>
       <c r="E10" t="n">
-        <v>2.01</v>
+        <v>2.38</v>
       </c>
       <c r="F10" t="n">
-        <v>12967.5</v>
+        <v>72929.33163891213</v>
       </c>
       <c r="G10" t="n">
-        <v>2.114666666666665</v>
+        <v>158132760.3862793</v>
       </c>
       <c r="H10" t="n">
-        <v>2.281166666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D11" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="F11" t="n">
-        <v>964514.0056</v>
+        <v>332755.4076</v>
       </c>
       <c r="G11" t="n">
-        <v>2.105333333333332</v>
+        <v>158465515.7938792</v>
       </c>
       <c r="H11" t="n">
-        <v>2.280833333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.04</v>
+        <v>2.37</v>
       </c>
       <c r="C12" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="D12" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="E12" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="F12" t="n">
-        <v>120000</v>
+        <v>630677.8343</v>
       </c>
       <c r="G12" t="n">
-        <v>2.104666666666665</v>
+        <v>157834837.9595792</v>
       </c>
       <c r="H12" t="n">
-        <v>2.280166666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="C13" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="D13" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="F13" t="n">
-        <v>917747.8874</v>
+        <v>15623.0761</v>
       </c>
       <c r="G13" t="n">
-        <v>2.101999999999998</v>
+        <v>157850461.0356792</v>
       </c>
       <c r="H13" t="n">
-        <v>2.277333333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.05</v>
+        <v>2.39</v>
       </c>
       <c r="C14" t="n">
-        <v>2.05</v>
+        <v>2.39</v>
       </c>
       <c r="D14" t="n">
-        <v>2.05</v>
+        <v>2.39</v>
       </c>
       <c r="E14" t="n">
-        <v>2.05</v>
+        <v>2.39</v>
       </c>
       <c r="F14" t="n">
-        <v>2935</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>2.093999999999998</v>
+        <v>157850471.0356792</v>
       </c>
       <c r="H14" t="n">
-        <v>2.274333333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.05</v>
+        <v>2.36</v>
       </c>
       <c r="C15" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="D15" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="E15" t="n">
-        <v>2.05</v>
+        <v>2.36</v>
       </c>
       <c r="F15" t="n">
-        <v>140000</v>
+        <v>525587.0574</v>
       </c>
       <c r="G15" t="n">
-        <v>2.090666666666664</v>
+        <v>157324883.9782792</v>
       </c>
       <c r="H15" t="n">
-        <v>2.269333333333335</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="C16" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="D16" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="E16" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="F16" t="n">
-        <v>616943.1431</v>
+        <v>88594.93670000001</v>
       </c>
       <c r="G16" t="n">
-        <v>2.083999999999997</v>
+        <v>157324883.9782792</v>
       </c>
       <c r="H16" t="n">
-        <v>2.267500000000001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.03</v>
+        <v>2.36</v>
       </c>
       <c r="C17" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="D17" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="F17" t="n">
-        <v>1549820.1913</v>
+        <v>20000</v>
       </c>
       <c r="G17" t="n">
-        <v>2.077999999999998</v>
+        <v>157304883.9782792</v>
       </c>
       <c r="H17" t="n">
-        <v>2.264166666666668</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.09</v>
+        <v>2.36</v>
       </c>
       <c r="C18" t="n">
-        <v>2.09</v>
+        <v>2.36</v>
       </c>
       <c r="D18" t="n">
-        <v>2.09</v>
+        <v>2.36</v>
       </c>
       <c r="E18" t="n">
-        <v>2.09</v>
+        <v>2.36</v>
       </c>
       <c r="F18" t="n">
-        <v>502015.6997</v>
+        <v>3941.1016</v>
       </c>
       <c r="G18" t="n">
-        <v>2.071333333333331</v>
+        <v>157304883.9782792</v>
       </c>
       <c r="H18" t="n">
-        <v>2.255500000000002</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="C19" t="n">
-        <v>2.09</v>
+        <v>2.27</v>
       </c>
       <c r="D19" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="E19" t="n">
-        <v>2.09</v>
+        <v>2.27</v>
       </c>
       <c r="F19" t="n">
-        <v>14152</v>
+        <v>328944.8929</v>
       </c>
       <c r="G19" t="n">
-        <v>2.067333333333331</v>
+        <v>156975939.0853792</v>
       </c>
       <c r="H19" t="n">
-        <v>2.253000000000001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="C20" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="D20" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="E20" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="F20" t="n">
-        <v>88.5</v>
+        <v>823799.172</v>
       </c>
       <c r="G20" t="n">
-        <v>2.059999999999997</v>
+        <v>156152139.9133793</v>
       </c>
       <c r="H20" t="n">
-        <v>2.247166666666668</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="C21" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="D21" t="n">
-        <v>2.03</v>
+        <v>2.26</v>
       </c>
       <c r="E21" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="F21" t="n">
-        <v>396943.1431</v>
+        <v>201997</v>
       </c>
       <c r="G21" t="n">
-        <v>2.052666666666664</v>
+        <v>155950142.9133793</v>
       </c>
       <c r="H21" t="n">
-        <v>2.243500000000002</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="C22" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="D22" t="n">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="E22" t="n">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="F22" t="n">
-        <v>220193.2251</v>
+        <v>287315.0084</v>
       </c>
       <c r="G22" t="n">
-        <v>2.055333333333331</v>
+        <v>155662827.9049793</v>
       </c>
       <c r="H22" t="n">
-        <v>2.239333333333335</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="D23" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="F23" t="n">
-        <v>1122431.8959</v>
+        <v>157648.8829</v>
       </c>
       <c r="G23" t="n">
-        <v>2.053999999999998</v>
+        <v>155662827.9049793</v>
       </c>
       <c r="H23" t="n">
-        <v>2.232833333333335</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="C24" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="D24" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="E24" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="F24" t="n">
-        <v>32.5</v>
+        <v>106604.9326</v>
       </c>
       <c r="G24" t="n">
-        <v>2.042666666666665</v>
+        <v>155662827.9049793</v>
       </c>
       <c r="H24" t="n">
-        <v>2.226166666666669</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="C25" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="D25" t="n">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="E25" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="F25" t="n">
-        <v>239558.4276</v>
+        <v>41590.4415</v>
       </c>
       <c r="G25" t="n">
-        <v>2.041333333333332</v>
+        <v>155704418.3464793</v>
       </c>
       <c r="H25" t="n">
-        <v>2.219666666666669</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="C26" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="D26" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="E26" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="F26" t="n">
-        <v>491056.3471</v>
+        <v>39973</v>
       </c>
       <c r="G26" t="n">
-        <v>2.043333333333332</v>
+        <v>155664445.3464793</v>
       </c>
       <c r="H26" t="n">
-        <v>2.212833333333335</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="C27" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="D27" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="E27" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="F27" t="n">
-        <v>133750.9487</v>
+        <v>19919.829</v>
       </c>
       <c r="G27" t="n">
-        <v>2.041999999999998</v>
+        <v>155684365.1754793</v>
       </c>
       <c r="H27" t="n">
-        <v>2.205333333333335</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>2.07</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.07</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1347,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="C28" t="n">
-        <v>1.99</v>
+        <v>2.17</v>
       </c>
       <c r="D28" t="n">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="E28" t="n">
-        <v>1.99</v>
+        <v>2.17</v>
       </c>
       <c r="F28" t="n">
-        <v>1647079.5576</v>
+        <v>202821.1981</v>
       </c>
       <c r="G28" t="n">
-        <v>2.037333333333332</v>
+        <v>155887186.3735793</v>
       </c>
       <c r="H28" t="n">
-        <v>2.197833333333335</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1390,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F29" t="n">
-        <v>22964.146</v>
+        <v>20410</v>
       </c>
       <c r="G29" t="n">
-        <v>2.033999999999998</v>
+        <v>155866776.3735793</v>
       </c>
       <c r="H29" t="n">
-        <v>2.190166666666669</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,40 +1431,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="F30" t="n">
-        <v>30000</v>
+        <v>136376.2209</v>
       </c>
       <c r="G30" t="n">
-        <v>2.030666666666665</v>
+        <v>156003152.5944793</v>
       </c>
       <c r="H30" t="n">
-        <v>2.183500000000002</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1544,44 +1466,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="F31" t="n">
-        <v>11999</v>
+        <v>38988.267</v>
       </c>
       <c r="G31" t="n">
-        <v>2.027333333333332</v>
+        <v>156003152.5944793</v>
       </c>
       <c r="H31" t="n">
-        <v>2.176333333333335</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1590,42 +1501,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="C32" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="D32" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="E32" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="F32" t="n">
-        <v>723.6453</v>
+        <v>342669.8888</v>
       </c>
       <c r="G32" t="n">
-        <v>2.025333333333332</v>
+        <v>156345822.4832793</v>
       </c>
       <c r="H32" t="n">
-        <v>2.169166666666668</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>2</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1634,36 +1536,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="F33" t="n">
-        <v>55</v>
+        <v>201784</v>
       </c>
       <c r="G33" t="n">
-        <v>2.019333333333332</v>
+        <v>156144038.4832793</v>
       </c>
       <c r="H33" t="n">
-        <v>2.161333333333335</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,36 +1571,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="F34" t="n">
-        <v>48422.3301</v>
+        <v>97293</v>
       </c>
       <c r="G34" t="n">
-        <v>2.013333333333332</v>
+        <v>156046745.4832793</v>
       </c>
       <c r="H34" t="n">
-        <v>2.152500000000002</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,36 +1606,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="C35" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="D35" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="E35" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="F35" t="n">
-        <v>41139</v>
+        <v>3182.7102</v>
       </c>
       <c r="G35" t="n">
-        <v>2.015999999999998</v>
+        <v>156046745.4832793</v>
       </c>
       <c r="H35" t="n">
-        <v>2.145000000000001</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1748,36 +1641,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="C36" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="D36" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="E36" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="F36" t="n">
-        <v>20000</v>
+        <v>485993.718</v>
       </c>
       <c r="G36" t="n">
-        <v>2.019999999999998</v>
+        <v>155560751.7652793</v>
       </c>
       <c r="H36" t="n">
-        <v>2.137833333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,36 +1676,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="C37" t="n">
-        <v>2.19</v>
+        <v>2.02</v>
       </c>
       <c r="D37" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="E37" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="F37" t="n">
-        <v>7666</v>
+        <v>200000</v>
       </c>
       <c r="G37" t="n">
-        <v>2.026666666666665</v>
+        <v>155360751.7652793</v>
       </c>
       <c r="H37" t="n">
-        <v>2.134166666666668</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,36 +1711,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="C38" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="D38" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="E38" t="n">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>483564.3537</v>
       </c>
       <c r="G38" t="n">
-        <v>2.047999999999997</v>
+        <v>155844316.1189793</v>
       </c>
       <c r="H38" t="n">
-        <v>2.132833333333334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,36 +1746,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.3</v>
+        <v>2.01</v>
       </c>
       <c r="C39" t="n">
-        <v>2.25</v>
+        <v>2.01</v>
       </c>
       <c r="D39" t="n">
-        <v>2.3</v>
+        <v>2.01</v>
       </c>
       <c r="E39" t="n">
-        <v>2.25</v>
+        <v>2.01</v>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>12967.5</v>
       </c>
       <c r="G39" t="n">
-        <v>2.066666666666664</v>
+        <v>155831348.6189793</v>
       </c>
       <c r="H39" t="n">
-        <v>2.130333333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1900,36 +1781,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="C40" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>2.27</v>
+        <v>2.06</v>
       </c>
       <c r="E40" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>897306.4</v>
+        <v>964514.0056</v>
       </c>
       <c r="G40" t="n">
-        <v>2.085333333333331</v>
+        <v>154866834.6133793</v>
       </c>
       <c r="H40" t="n">
-        <v>2.129166666666668</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,36 +1816,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.27</v>
+        <v>2.04</v>
       </c>
       <c r="C41" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="D41" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="E41" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="F41" t="n">
-        <v>75638</v>
+        <v>120000</v>
       </c>
       <c r="G41" t="n">
-        <v>2.091999999999998</v>
+        <v>154986834.6133793</v>
       </c>
       <c r="H41" t="n">
-        <v>2.124833333333334</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,36 +1851,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="D42" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="E42" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>865818</v>
+        <v>917747.8874</v>
       </c>
       <c r="G42" t="n">
-        <v>2.101999999999998</v>
+        <v>154986834.6133793</v>
       </c>
       <c r="H42" t="n">
-        <v>2.121333333333334</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,36 +1892,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="C43" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="D43" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="E43" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="F43" t="n">
-        <v>1687623.2653</v>
+        <v>2935</v>
       </c>
       <c r="G43" t="n">
-        <v>2.113999999999998</v>
+        <v>154983899.6133793</v>
       </c>
       <c r="H43" t="n">
-        <v>2.120166666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,36 +1931,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="C44" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="D44" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="E44" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>140000</v>
       </c>
       <c r="G44" t="n">
-        <v>2.127333333333331</v>
+        <v>154983899.6133793</v>
       </c>
       <c r="H44" t="n">
-        <v>2.119166666666668</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2090,36 +1970,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="C45" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="D45" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="E45" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="F45" t="n">
-        <v>120000</v>
+        <v>616943.1431</v>
       </c>
       <c r="G45" t="n">
-        <v>2.135333333333331</v>
+        <v>154983899.6133793</v>
       </c>
       <c r="H45" t="n">
-        <v>2.114666666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,36 +2009,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="C46" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="D46" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="E46" t="n">
-        <v>2.19</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>1549820.1913</v>
       </c>
       <c r="G46" t="n">
-        <v>2.147999999999997</v>
+        <v>156533719.8046793</v>
       </c>
       <c r="H46" t="n">
-        <v>2.111666666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,36 +2048,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="C47" t="n">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="D47" t="n">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="E47" t="n">
         <v>2.09</v>
       </c>
       <c r="F47" t="n">
-        <v>247810</v>
+        <v>502015.6997</v>
       </c>
       <c r="G47" t="n">
-        <v>2.159999999999997</v>
+        <v>157035735.5043793</v>
       </c>
       <c r="H47" t="n">
-        <v>2.109000000000001</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,36 +2087,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="C48" t="n">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="D48" t="n">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="E48" t="n">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="F48" t="n">
-        <v>19599</v>
+        <v>14152</v>
       </c>
       <c r="G48" t="n">
-        <v>2.178666666666664</v>
+        <v>157035735.5043793</v>
       </c>
       <c r="H48" t="n">
-        <v>2.107666666666668</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2242,36 +2126,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="C49" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="D49" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="E49" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="F49" t="n">
-        <v>120000</v>
+        <v>88.5</v>
       </c>
       <c r="G49" t="n">
-        <v>2.189999999999998</v>
+        <v>157035647.0043793</v>
       </c>
       <c r="H49" t="n">
-        <v>2.104500000000001</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,36 +2165,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.18</v>
+        <v>2.03</v>
       </c>
       <c r="C50" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="D50" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="E50" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="F50" t="n">
-        <v>97922</v>
+        <v>396943.1431</v>
       </c>
       <c r="G50" t="n">
-        <v>2.188666666666664</v>
+        <v>157035647.0043793</v>
       </c>
       <c r="H50" t="n">
-        <v>2.100833333333334</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2318,36 +2204,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.21</v>
+        <v>2.03</v>
       </c>
       <c r="C51" t="n">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="D51" t="n">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="E51" t="n">
-        <v>2.21</v>
+        <v>2.03</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>220193.2251</v>
       </c>
       <c r="G51" t="n">
-        <v>2.196666666666664</v>
+        <v>157255840.2294793</v>
       </c>
       <c r="H51" t="n">
-        <v>2.101000000000001</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,36 +2243,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="C52" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="E52" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>1162.4292</v>
+        <v>1122431.8959</v>
       </c>
       <c r="G52" t="n">
-        <v>2.193333333333331</v>
+        <v>156133408.3335793</v>
       </c>
       <c r="H52" t="n">
-        <v>2.100666666666668</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2394,36 +2282,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
       <c r="C53" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="D53" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="E53" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="F53" t="n">
-        <v>40000</v>
+        <v>32.5</v>
       </c>
       <c r="G53" t="n">
-        <v>2.183999999999997</v>
+        <v>156133375.8335793</v>
       </c>
       <c r="H53" t="n">
-        <v>2.101666666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2432,36 +2321,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="C54" t="n">
-        <v>2.15</v>
+        <v>1.99</v>
       </c>
       <c r="D54" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="E54" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="F54" t="n">
-        <v>120083.5581</v>
+        <v>239558.4276</v>
       </c>
       <c r="G54" t="n">
-        <v>2.177333333333331</v>
+        <v>156372934.2611793</v>
       </c>
       <c r="H54" t="n">
-        <v>2.102166666666668</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,36 +2360,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="C55" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="D55" t="n">
-        <v>2.19</v>
+        <v>2.04</v>
       </c>
       <c r="E55" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="F55" t="n">
-        <v>555</v>
+        <v>491056.3471</v>
       </c>
       <c r="G55" t="n">
-        <v>2.171999999999997</v>
+        <v>156863990.6082793</v>
       </c>
       <c r="H55" t="n">
-        <v>2.103333333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2508,36 +2399,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="C56" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="D56" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="E56" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="F56" t="n">
-        <v>10641.0384</v>
+        <v>133750.9487</v>
       </c>
       <c r="G56" t="n">
-        <v>2.174666666666664</v>
+        <v>156997741.5569793</v>
       </c>
       <c r="H56" t="n">
-        <v>2.103833333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2546,36 +2438,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="C57" t="n">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
       <c r="D57" t="n">
-        <v>2.19</v>
+        <v>2.04</v>
       </c>
       <c r="E57" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="F57" t="n">
-        <v>50000</v>
+        <v>1647079.5576</v>
       </c>
       <c r="G57" t="n">
-        <v>2.174666666666664</v>
+        <v>155350661.9993793</v>
       </c>
       <c r="H57" t="n">
-        <v>2.105833333333334</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,36 +2477,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>122408.6409</v>
+        <v>22964.146</v>
       </c>
       <c r="G58" t="n">
-        <v>2.17533333333333</v>
+        <v>155373626.1453793</v>
       </c>
       <c r="H58" t="n">
-        <v>2.107166666666668</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2622,36 +2516,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>146699.42</v>
+        <v>30000</v>
       </c>
       <c r="G59" t="n">
-        <v>2.17133333333333</v>
+        <v>155373626.1453793</v>
       </c>
       <c r="H59" t="n">
-        <v>2.106666666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,36 +2555,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>11999</v>
       </c>
       <c r="G60" t="n">
-        <v>2.174666666666664</v>
+        <v>155373626.1453793</v>
       </c>
       <c r="H60" t="n">
-        <v>2.107833333333334</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,36 +2594,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="C61" t="n">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="D61" t="n">
-        <v>2.18</v>
+        <v>2.03</v>
       </c>
       <c r="E61" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="F61" t="n">
-        <v>477993.966</v>
+        <v>723.6453</v>
       </c>
       <c r="G61" t="n">
-        <v>2.16933333333333</v>
+        <v>155374349.7906793</v>
       </c>
       <c r="H61" t="n">
-        <v>2.107166666666668</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,36 +2633,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G62" t="n">
-        <v>2.166666666666664</v>
+        <v>155374294.7906793</v>
       </c>
       <c r="H62" t="n">
-        <v>2.107500000000001</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,36 +2672,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>141911.4209</v>
+        <v>48422.3301</v>
       </c>
       <c r="G63" t="n">
-        <v>2.149999999999997</v>
+        <v>155374294.7906793</v>
       </c>
       <c r="H63" t="n">
-        <v>2.104833333333334</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2812,36 +2711,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="C64" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="D64" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="E64" t="n">
         <v>2.07</v>
       </c>
       <c r="F64" t="n">
-        <v>80000</v>
+        <v>41139</v>
       </c>
       <c r="G64" t="n">
-        <v>2.145333333333331</v>
+        <v>155415433.7906793</v>
       </c>
       <c r="H64" t="n">
-        <v>2.104000000000001</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,36 +2750,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="C65" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="D65" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="E65" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>20000</v>
       </c>
       <c r="G65" t="n">
-        <v>2.153999999999997</v>
+        <v>155435433.7906793</v>
       </c>
       <c r="H65" t="n">
-        <v>2.104666666666668</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,36 +2789,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="C66" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="D66" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="E66" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>7666</v>
       </c>
       <c r="G66" t="n">
-        <v>2.146666666666664</v>
+        <v>155443099.7906793</v>
       </c>
       <c r="H66" t="n">
-        <v>2.104000000000001</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,36 +2828,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="C67" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="D67" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="E67" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="F67" t="n">
-        <v>98540</v>
+        <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>2.143999999999997</v>
+        <v>155443110.7906793</v>
       </c>
       <c r="H67" t="n">
-        <v>2.104833333333334</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2964,36 +2867,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="C68" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="D68" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="E68" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="F68" t="n">
-        <v>60000</v>
+        <v>200</v>
       </c>
       <c r="G68" t="n">
-        <v>2.140666666666664</v>
+        <v>155442910.7906793</v>
       </c>
       <c r="H68" t="n">
-        <v>2.106666666666668</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,36 +2906,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="C69" t="n">
-        <v>2.04</v>
+        <v>2.27</v>
       </c>
       <c r="D69" t="n">
-        <v>2.04</v>
+        <v>2.27</v>
       </c>
       <c r="E69" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="F69" t="n">
-        <v>12077.2532</v>
+        <v>897306.4</v>
       </c>
       <c r="G69" t="n">
-        <v>2.133333333333331</v>
+        <v>156340217.1906793</v>
       </c>
       <c r="H69" t="n">
-        <v>2.105000000000001</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,36 +2945,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="C70" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="D70" t="n">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="E70" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="F70" t="n">
-        <v>163260.3204</v>
+        <v>75638</v>
       </c>
       <c r="G70" t="n">
-        <v>2.125333333333331</v>
+        <v>156264579.1906793</v>
       </c>
       <c r="H70" t="n">
-        <v>2.106000000000001</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,36 +2984,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.06</v>
+        <v>2.29</v>
       </c>
       <c r="C71" t="n">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="D71" t="n">
-        <v>2.06</v>
+        <v>2.29</v>
       </c>
       <c r="E71" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="F71" t="n">
-        <v>41549.7837</v>
+        <v>865818</v>
       </c>
       <c r="G71" t="n">
-        <v>2.117999999999997</v>
+        <v>157130397.1906793</v>
       </c>
       <c r="H71" t="n">
-        <v>2.107000000000001</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3116,36 +3023,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="C72" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="D72" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="E72" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="F72" t="n">
-        <v>51901.9323</v>
+        <v>1687623.2653</v>
       </c>
       <c r="G72" t="n">
-        <v>2.109999999999997</v>
+        <v>155442773.9253793</v>
       </c>
       <c r="H72" t="n">
-        <v>2.107166666666668</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,40 +3062,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="C73" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="D73" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="E73" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="F73" t="n">
-        <v>104327.795</v>
+        <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>2.102666666666664</v>
+        <v>155442784.9253793</v>
       </c>
       <c r="H73" t="n">
-        <v>2.107333333333334</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,44 +3101,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="C74" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="D74" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="E74" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="F74" t="n">
-        <v>21744.6266</v>
+        <v>120000</v>
       </c>
       <c r="G74" t="n">
-        <v>2.097999999999997</v>
+        <v>155322784.9253793</v>
       </c>
       <c r="H74" t="n">
-        <v>2.107666666666668</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,44 +3140,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="C75" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="D75" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="E75" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="F75" t="n">
-        <v>40000</v>
+        <v>11</v>
       </c>
       <c r="G75" t="n">
-        <v>2.09133333333333</v>
+        <v>155322795.9253793</v>
       </c>
       <c r="H75" t="n">
-        <v>2.108000000000001</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,44 +3179,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="C76" t="n">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="D76" t="n">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="E76" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="F76" t="n">
-        <v>20000</v>
+        <v>247810</v>
       </c>
       <c r="G76" t="n">
-        <v>2.08933333333333</v>
+        <v>155570605.9253793</v>
       </c>
       <c r="H76" t="n">
-        <v>2.108500000000001</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,44 +3218,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.07</v>
+        <v>2.21</v>
       </c>
       <c r="C77" t="n">
-        <v>2.07</v>
+        <v>2.28</v>
       </c>
       <c r="D77" t="n">
-        <v>2.07</v>
+        <v>2.28</v>
       </c>
       <c r="E77" t="n">
-        <v>2.07</v>
+        <v>2.21</v>
       </c>
       <c r="F77" t="n">
-        <v>120435.642</v>
+        <v>19599</v>
       </c>
       <c r="G77" t="n">
-        <v>2.082666666666663</v>
+        <v>155590204.9253793</v>
       </c>
       <c r="H77" t="n">
-        <v>2.108666666666668</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,44 +3257,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="C78" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="D78" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="E78" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="F78" t="n">
-        <v>340493.8669</v>
+        <v>120000</v>
       </c>
       <c r="G78" t="n">
-        <v>2.084666666666664</v>
+        <v>155470204.9253793</v>
       </c>
       <c r="H78" t="n">
-        <v>2.108166666666668</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,44 +3296,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="C79" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="D79" t="n">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="E79" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="F79" t="n">
-        <v>37043.16</v>
+        <v>97922</v>
       </c>
       <c r="G79" t="n">
-        <v>2.081999999999997</v>
+        <v>155372282.9253793</v>
       </c>
       <c r="H79" t="n">
-        <v>2.107666666666668</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3472,44 +3335,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="C80" t="n">
-        <v>2.03</v>
+        <v>2.21</v>
       </c>
       <c r="D80" t="n">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="E80" t="n">
-        <v>2.03</v>
+        <v>2.21</v>
       </c>
       <c r="F80" t="n">
-        <v>523272.3986</v>
+        <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>2.071999999999997</v>
+        <v>155372293.9253793</v>
       </c>
       <c r="H80" t="n">
-        <v>2.107666666666668</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,44 +3374,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="C81" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="D81" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="E81" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="F81" t="n">
-        <v>4604840.9048</v>
+        <v>1162.4292</v>
       </c>
       <c r="G81" t="n">
-        <v>2.071999999999997</v>
+        <v>155371131.4961793</v>
       </c>
       <c r="H81" t="n">
-        <v>2.108833333333334</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,44 +3413,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="C82" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="D82" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="E82" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="F82" t="n">
-        <v>34008951.74</v>
+        <v>40000</v>
       </c>
       <c r="G82" t="n">
-        <v>2.067999999999997</v>
+        <v>155411131.4961793</v>
       </c>
       <c r="H82" t="n">
-        <v>2.108000000000001</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,44 +3452,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="C83" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="D83" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="E83" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="F83" t="n">
-        <v>97019.23</v>
+        <v>120083.5581</v>
       </c>
       <c r="G83" t="n">
-        <v>2.062666666666663</v>
+        <v>155291047.9380793</v>
       </c>
       <c r="H83" t="n">
-        <v>2.108833333333334</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3656,44 +3491,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="C84" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="D84" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="E84" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="F84" t="n">
-        <v>523836.2831</v>
+        <v>555</v>
       </c>
       <c r="G84" t="n">
-        <v>2.060666666666664</v>
+        <v>155291602.9380793</v>
       </c>
       <c r="H84" t="n">
-        <v>2.109500000000001</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,44 +3530,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="C85" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="D85" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="E85" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="F85" t="n">
-        <v>1485605.0382</v>
+        <v>10641.0384</v>
       </c>
       <c r="G85" t="n">
-        <v>2.053999999999997</v>
+        <v>155280961.8996793</v>
       </c>
       <c r="H85" t="n">
-        <v>2.109166666666668</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,42 +3569,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="C86" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="D86" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="E86" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="F86" t="n">
-        <v>60019</v>
+        <v>50000</v>
       </c>
       <c r="G86" t="n">
-        <v>2.059999999999997</v>
+        <v>155330961.8996793</v>
       </c>
       <c r="H86" t="n">
-        <v>2.111166666666668</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,44 +3608,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="C87" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="D87" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="E87" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="F87" t="n">
-        <v>304504.7349</v>
+        <v>122408.6409</v>
       </c>
       <c r="G87" t="n">
-        <v>2.05933333333333</v>
+        <v>155208553.2587793</v>
       </c>
       <c r="H87" t="n">
-        <v>2.111500000000001</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3838,42 +3647,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="C88" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="D88" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="E88" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>146699.42</v>
       </c>
       <c r="G88" t="n">
-        <v>2.06333333333333</v>
+        <v>155061853.8387793</v>
       </c>
       <c r="H88" t="n">
-        <v>2.113833333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,42 +3686,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="C89" t="n">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="D89" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="E89" t="n">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="F89" t="n">
-        <v>104654.0105</v>
+        <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>2.05933333333333</v>
+        <v>155061864.8387793</v>
       </c>
       <c r="H89" t="n">
-        <v>2.114000000000001</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,42 +3725,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="C90" t="n">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="D90" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="E90" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="F90" t="n">
-        <v>100000</v>
+        <v>477993.966</v>
       </c>
       <c r="G90" t="n">
-        <v>2.059999999999997</v>
+        <v>154583870.8727793</v>
       </c>
       <c r="H90" t="n">
-        <v>2.115333333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3970,42 +3764,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="C91" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="D91" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="E91" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="F91" t="n">
-        <v>20289.8808</v>
+        <v>44</v>
       </c>
       <c r="G91" t="n">
-        <v>2.060666666666664</v>
+        <v>154583914.8727793</v>
       </c>
       <c r="H91" t="n">
-        <v>2.116833333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,42 +3803,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="C92" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="D92" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="E92" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="F92" t="n">
-        <v>100000</v>
+        <v>141911.4209</v>
       </c>
       <c r="G92" t="n">
-        <v>2.063999999999997</v>
+        <v>154442003.4518794</v>
       </c>
       <c r="H92" t="n">
-        <v>2.118333333333335</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,42 +3842,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="C93" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="D93" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="E93" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="F93" t="n">
-        <v>66719.583</v>
+        <v>80000</v>
       </c>
       <c r="G93" t="n">
-        <v>2.061999999999997</v>
+        <v>154522003.4518794</v>
       </c>
       <c r="H93" t="n">
-        <v>2.118833333333335</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,42 +3881,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="C94" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="D94" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="E94" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="F94" t="n">
-        <v>60000</v>
+        <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>2.066666666666664</v>
+        <v>154522014.4518794</v>
       </c>
       <c r="H94" t="n">
-        <v>2.121000000000001</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4146,42 +3920,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="C95" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="D95" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="E95" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="F95" t="n">
-        <v>290000</v>
+        <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>2.061999999999997</v>
+        <v>154521914.4518794</v>
       </c>
       <c r="H95" t="n">
-        <v>2.119166666666668</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,42 +3959,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="C96" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="D96" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="E96" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="F96" t="n">
-        <v>131439</v>
+        <v>98540</v>
       </c>
       <c r="G96" t="n">
-        <v>2.063999999999997</v>
+        <v>154521914.4518794</v>
       </c>
       <c r="H96" t="n">
-        <v>2.119833333333335</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,7 +3998,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="C97" t="n">
         <v>2.13</v>
@@ -4243,33 +4007,28 @@
         <v>2.13</v>
       </c>
       <c r="E97" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="F97" t="n">
-        <v>45104.0273</v>
+        <v>60000</v>
       </c>
       <c r="G97" t="n">
-        <v>2.069999999999997</v>
+        <v>154581914.4518794</v>
       </c>
       <c r="H97" t="n">
-        <v>2.118833333333335</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,42 +4037,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="C98" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="E98" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="F98" t="n">
-        <v>80000</v>
+        <v>12077.2532</v>
       </c>
       <c r="G98" t="n">
-        <v>2.075999999999997</v>
+        <v>154569837.1986794</v>
       </c>
       <c r="H98" t="n">
-        <v>2.115833333333335</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,42 +4076,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="C99" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="D99" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E99" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="F99" t="n">
-        <v>1078</v>
+        <v>163260.3204</v>
       </c>
       <c r="G99" t="n">
-        <v>2.084666666666664</v>
+        <v>154733097.5190794</v>
       </c>
       <c r="H99" t="n">
-        <v>2.114000000000001</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,42 +4115,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="C100" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="D100" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="E100" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="F100" t="n">
-        <v>659</v>
+        <v>41549.7837</v>
       </c>
       <c r="G100" t="n">
-        <v>2.095999999999997</v>
+        <v>154691547.7353794</v>
       </c>
       <c r="H100" t="n">
-        <v>2.111833333333334</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,42 +4154,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="C101" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="D101" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="E101" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="F101" t="n">
-        <v>46948.3568</v>
+        <v>51901.9323</v>
       </c>
       <c r="G101" t="n">
-        <v>2.094666666666664</v>
+        <v>154743449.6676794</v>
       </c>
       <c r="H101" t="n">
-        <v>2.111833333333335</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,42 +4193,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="C102" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="D102" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E102" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="F102" t="n">
-        <v>63140</v>
+        <v>104327.795</v>
       </c>
       <c r="G102" t="n">
-        <v>2.099999999999997</v>
+        <v>154743449.6676794</v>
       </c>
       <c r="H102" t="n">
-        <v>2.111000000000001</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,44 +4232,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="C103" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="D103" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E103" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="F103" t="n">
-        <v>127700.8679</v>
+        <v>21744.6266</v>
       </c>
       <c r="G103" t="n">
-        <v>2.100666666666664</v>
+        <v>154743449.6676794</v>
       </c>
       <c r="H103" t="n">
-        <v>2.1105</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,44 +4271,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="C104" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="D104" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="E104" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="F104" t="n">
-        <v>217867.365</v>
+        <v>40000</v>
       </c>
       <c r="G104" t="n">
-        <v>2.109999999999998</v>
+        <v>154743449.6676794</v>
       </c>
       <c r="H104" t="n">
-        <v>2.109666666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="L104" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4590,44 +4310,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="C105" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="D105" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="E105" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="F105" t="n">
-        <v>218193.4600954129</v>
+        <v>20000</v>
       </c>
       <c r="G105" t="n">
-        <v>2.116666666666664</v>
+        <v>154763449.6676794</v>
       </c>
       <c r="H105" t="n">
-        <v>2.110666666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,42 +4349,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="C106" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="D106" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="E106" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="F106" t="n">
-        <v>33068.3486</v>
+        <v>120435.642</v>
       </c>
       <c r="G106" t="n">
-        <v>2.122666666666664</v>
+        <v>154643014.0256794</v>
       </c>
       <c r="H106" t="n">
-        <v>2.1105</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4680,44 +4388,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="C107" t="n">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
       <c r="D107" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="E107" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="F107" t="n">
-        <v>1320</v>
+        <v>340493.8669</v>
       </c>
       <c r="G107" t="n">
-        <v>2.125999999999997</v>
+        <v>154302520.1587794</v>
       </c>
       <c r="H107" t="n">
-        <v>2.109833333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L107" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,44 +4427,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="C108" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="D108" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="E108" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="F108" t="n">
-        <v>565</v>
+        <v>37043.16</v>
       </c>
       <c r="G108" t="n">
-        <v>2.135999999999997</v>
+        <v>154302520.1587794</v>
       </c>
       <c r="H108" t="n">
-        <v>2.108166666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="L108" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,44 +4466,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="C109" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="D109" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="E109" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="F109" t="n">
-        <v>544</v>
+        <v>523272.3986</v>
       </c>
       <c r="G109" t="n">
-        <v>2.138666666666664</v>
+        <v>153779247.7601794</v>
       </c>
       <c r="H109" t="n">
-        <v>2.108166666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,44 +4505,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.18</v>
+        <v>2.03</v>
       </c>
       <c r="C110" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="D110" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="E110" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="F110" t="n">
-        <v>33</v>
+        <v>4604840.9048</v>
       </c>
       <c r="G110" t="n">
-        <v>2.150666666666664</v>
+        <v>158384088.6649794</v>
       </c>
       <c r="H110" t="n">
-        <v>2.109666666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="L110" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,44 +4544,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="C111" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="D111" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="E111" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="F111" t="n">
-        <v>187846.0854</v>
+        <v>34008951.74</v>
       </c>
       <c r="G111" t="n">
-        <v>2.153999999999997</v>
+        <v>124375136.9249794</v>
       </c>
       <c r="H111" t="n">
-        <v>2.109166666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,42 +4583,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="C112" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="D112" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="E112" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="F112" t="n">
-        <v>17833.5944</v>
+        <v>97019.23</v>
       </c>
       <c r="G112" t="n">
-        <v>2.156666666666664</v>
+        <v>124472156.1549794</v>
       </c>
       <c r="H112" t="n">
-        <v>2.109666666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4954,42 +4622,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="C113" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="D113" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="E113" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>523836.2831</v>
       </c>
       <c r="G113" t="n">
-        <v>2.157333333333331</v>
+        <v>123948319.8718794</v>
       </c>
       <c r="H113" t="n">
-        <v>2.109166666666666</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,42 +4661,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="C114" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="D114" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="E114" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="F114" t="n">
-        <v>423.5023</v>
+        <v>1485605.0382</v>
       </c>
       <c r="G114" t="n">
-        <v>2.159999999999997</v>
+        <v>122462714.8336794</v>
       </c>
       <c r="H114" t="n">
-        <v>2.109666666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,42 +4700,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="C115" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="D115" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="E115" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="F115" t="n">
-        <v>217647.9764</v>
+        <v>60019</v>
       </c>
       <c r="G115" t="n">
-        <v>2.161333333333331</v>
+        <v>122522733.8336794</v>
       </c>
       <c r="H115" t="n">
-        <v>2.109166666666666</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,42 +4739,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="C116" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="D116" t="n">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="E116" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="F116" t="n">
-        <v>255423.637</v>
+        <v>304504.7349</v>
       </c>
       <c r="G116" t="n">
-        <v>2.160666666666664</v>
+        <v>122218229.0987794</v>
       </c>
       <c r="H116" t="n">
-        <v>2.108333333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,44 +4778,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="C117" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="D117" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="E117" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="F117" t="n">
-        <v>33068.3486</v>
+        <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>2.15933333333333</v>
+        <v>122218240.0987794</v>
       </c>
       <c r="H117" t="n">
-        <v>2.107166666666666</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L117" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5176,42 +4817,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="C118" t="n">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="D118" t="n">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
       <c r="E118" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="F118" t="n">
-        <v>40630</v>
+        <v>104654.0105</v>
       </c>
       <c r="G118" t="n">
-        <v>2.16133333333333</v>
+        <v>122113586.0882794</v>
       </c>
       <c r="H118" t="n">
-        <v>2.106999999999999</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,44 +4856,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="C119" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="D119" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="E119" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="F119" t="n">
-        <v>20026.4976</v>
+        <v>100000</v>
       </c>
       <c r="G119" t="n">
-        <v>2.162666666666664</v>
+        <v>122213586.0882794</v>
       </c>
       <c r="H119" t="n">
-        <v>2.107499999999999</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="L119" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5266,44 +4895,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="C120" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="D120" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="E120" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="F120" t="n">
-        <v>7573</v>
+        <v>20289.8808</v>
       </c>
       <c r="G120" t="n">
-        <v>2.161999999999997</v>
+        <v>122233875.9690794</v>
       </c>
       <c r="H120" t="n">
-        <v>2.107499999999999</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="L120" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,42 +4934,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="C121" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="D121" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="E121" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="F121" t="n">
-        <v>9730.4874</v>
+        <v>100000</v>
       </c>
       <c r="G121" t="n">
-        <v>2.161333333333331</v>
+        <v>122333875.9690794</v>
       </c>
       <c r="H121" t="n">
-        <v>2.108499999999999</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,42 +4973,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="C122" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="D122" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="E122" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="F122" t="n">
-        <v>25499.3926</v>
+        <v>66719.583</v>
       </c>
       <c r="G122" t="n">
-        <v>2.161333333333331</v>
+        <v>122267156.3860794</v>
       </c>
       <c r="H122" t="n">
-        <v>2.108499999999999</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,42 +5012,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="C123" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="D123" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="E123" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="F123" t="n">
-        <v>123866.8941</v>
+        <v>60000</v>
       </c>
       <c r="G123" t="n">
-        <v>2.160666666666664</v>
+        <v>122327156.3860794</v>
       </c>
       <c r="H123" t="n">
-        <v>2.110833333333332</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,42 +5051,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="C124" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="D124" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="E124" t="n">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="F124" t="n">
-        <v>69531</v>
+        <v>290000</v>
       </c>
       <c r="G124" t="n">
-        <v>2.161333333333331</v>
+        <v>122037156.3860794</v>
       </c>
       <c r="H124" t="n">
-        <v>2.112166666666666</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,42 +5090,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="C125" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="D125" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="E125" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="F125" t="n">
-        <v>11</v>
+        <v>131439</v>
       </c>
       <c r="G125" t="n">
-        <v>2.161999999999997</v>
+        <v>122168595.3860794</v>
       </c>
       <c r="H125" t="n">
-        <v>2.111666666666666</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,42 +5129,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="C126" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="D126" t="n">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="E126" t="n">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="F126" t="n">
-        <v>873991.8349</v>
+        <v>45104.0273</v>
       </c>
       <c r="G126" t="n">
-        <v>2.161333333333331</v>
+        <v>122168595.3860794</v>
       </c>
       <c r="H126" t="n">
-        <v>2.112833333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,44 +5168,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="C127" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="D127" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="E127" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="F127" t="n">
-        <v>98994</v>
+        <v>80000</v>
       </c>
       <c r="G127" t="n">
-        <v>2.161333333333331</v>
+        <v>122248595.3860794</v>
       </c>
       <c r="H127" t="n">
-        <v>2.113999999999999</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="L127" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5622,44 +5207,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="C128" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="D128" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="E128" t="n">
         <v>2.14</v>
       </c>
       <c r="F128" t="n">
-        <v>137813.1824</v>
+        <v>1078</v>
       </c>
       <c r="G128" t="n">
-        <v>2.161333333333331</v>
+        <v>122248595.3860794</v>
       </c>
       <c r="H128" t="n">
-        <v>2.114333333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="L128" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5668,44 +5246,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="C129" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="D129" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="E129" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="F129" t="n">
-        <v>97841</v>
+        <v>659</v>
       </c>
       <c r="G129" t="n">
-        <v>2.161333333333331</v>
+        <v>122248595.3860794</v>
       </c>
       <c r="H129" t="n">
-        <v>2.116666666666666</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L129" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,44 +5285,1168 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="C130" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="D130" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="E130" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="F130" t="n">
+        <v>46948.3568</v>
+      </c>
+      <c r="G130" t="n">
+        <v>122201647.0292794</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>63140</v>
+      </c>
+      <c r="G131" t="n">
+        <v>122264787.0292794</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F132" t="n">
+        <v>127700.8679</v>
+      </c>
+      <c r="G132" t="n">
+        <v>122264787.0292794</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F133" t="n">
+        <v>217867.365</v>
+      </c>
+      <c r="G133" t="n">
+        <v>122482654.3942793</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F134" t="n">
+        <v>218193.4600954129</v>
+      </c>
+      <c r="G134" t="n">
+        <v>122700847.8543748</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F135" t="n">
+        <v>33068.3486</v>
+      </c>
+      <c r="G135" t="n">
+        <v>122700847.8543748</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G136" t="n">
+        <v>122699527.8543748</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F137" t="n">
+        <v>565</v>
+      </c>
+      <c r="G137" t="n">
+        <v>122700092.8543748</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F138" t="n">
+        <v>544</v>
+      </c>
+      <c r="G138" t="n">
+        <v>122699548.8543748</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F139" t="n">
+        <v>33</v>
+      </c>
+      <c r="G139" t="n">
+        <v>122699515.8543748</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F140" t="n">
+        <v>187846.0854</v>
+      </c>
+      <c r="G140" t="n">
+        <v>122887361.9397748</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F141" t="n">
+        <v>17833.5944</v>
+      </c>
+      <c r="G141" t="n">
+        <v>122869528.3453747</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>122869518.3453747</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F143" t="n">
+        <v>423.5023</v>
+      </c>
+      <c r="G143" t="n">
+        <v>122869941.8476747</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F144" t="n">
+        <v>217647.9764</v>
+      </c>
+      <c r="G144" t="n">
+        <v>122652293.8712747</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F145" t="n">
+        <v>255423.637</v>
+      </c>
+      <c r="G145" t="n">
+        <v>122396870.2342747</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F146" t="n">
+        <v>33068.3486</v>
+      </c>
+      <c r="G146" t="n">
+        <v>122396870.2342747</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F147" t="n">
+        <v>40630</v>
+      </c>
+      <c r="G147" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20026.4976</v>
+      </c>
+      <c r="G148" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7573</v>
+      </c>
+      <c r="G149" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9730.4874</v>
+      </c>
+      <c r="G150" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F151" t="n">
+        <v>25499.3926</v>
+      </c>
+      <c r="G151" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F152" t="n">
+        <v>123866.8941</v>
+      </c>
+      <c r="G152" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F153" t="n">
+        <v>69531</v>
+      </c>
+      <c r="G153" t="n">
+        <v>122507031.2342747</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11</v>
+      </c>
+      <c r="G154" t="n">
+        <v>122507020.2342747</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F155" t="n">
+        <v>873991.8349</v>
+      </c>
+      <c r="G155" t="n">
+        <v>123381012.0691748</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F156" t="n">
+        <v>98994</v>
+      </c>
+      <c r="G156" t="n">
+        <v>123381012.0691748</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F157" t="n">
+        <v>137813.1824</v>
+      </c>
+      <c r="G157" t="n">
+        <v>123243198.8867747</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F158" t="n">
+        <v>97841</v>
+      </c>
+      <c r="G158" t="n">
+        <v>123341039.8867747</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F159" t="n">
         <v>105725.8135</v>
       </c>
-      <c r="G130" t="n">
-        <v>2.161999999999998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2.118333333333333</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L130" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="G159" t="n">
+        <v>123235314.0732747</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.46</v>
+        <v>2.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2.47</v>
+        <v>2.05</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="E2" t="n">
-        <v>2.46</v>
+        <v>2.05</v>
       </c>
       <c r="F2" t="n">
-        <v>1922176.71722301</v>
+        <v>140000</v>
       </c>
       <c r="G2" t="n">
-        <v>158918762.5599683</v>
+        <v>154983899.6133793</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.51</v>
+        <v>2.05</v>
       </c>
       <c r="C3" t="n">
-        <v>2.53</v>
+        <v>2.05</v>
       </c>
       <c r="D3" t="n">
-        <v>2.53</v>
+        <v>2.05</v>
       </c>
       <c r="E3" t="n">
-        <v>2.47</v>
+        <v>2.05</v>
       </c>
       <c r="F3" t="n">
-        <v>2683625.130872112</v>
+        <v>616943.1431</v>
       </c>
       <c r="G3" t="n">
-        <v>161602387.6908404</v>
+        <v>154983899.6133793</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.52</v>
+        <v>2.03</v>
       </c>
       <c r="C4" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="D4" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="E4" t="n">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>8947.728499999999</v>
+        <v>1549820.1913</v>
       </c>
       <c r="G4" t="n">
-        <v>161593439.9623404</v>
+        <v>156533719.8046793</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.54</v>
+        <v>2.09</v>
       </c>
       <c r="C5" t="n">
-        <v>2.52</v>
+        <v>2.09</v>
       </c>
       <c r="D5" t="n">
-        <v>2.54</v>
+        <v>2.09</v>
       </c>
       <c r="E5" t="n">
-        <v>2.52</v>
+        <v>2.09</v>
       </c>
       <c r="F5" t="n">
-        <v>31200.4858</v>
+        <v>502015.6997</v>
       </c>
       <c r="G5" t="n">
-        <v>161593439.9623404</v>
+        <v>157035735.5043793</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.51</v>
+        <v>2.09</v>
       </c>
       <c r="C6" t="n">
-        <v>2.41</v>
+        <v>2.09</v>
       </c>
       <c r="D6" t="n">
-        <v>2.52</v>
+        <v>2.09</v>
       </c>
       <c r="E6" t="n">
-        <v>2.41</v>
+        <v>2.09</v>
       </c>
       <c r="F6" t="n">
-        <v>1981830.6218</v>
+        <v>14152</v>
       </c>
       <c r="G6" t="n">
-        <v>159611609.3405403</v>
+        <v>157035735.5043793</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.41</v>
+        <v>2.1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="D7" t="n">
-        <v>2.41</v>
+        <v>2.1</v>
       </c>
       <c r="E7" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="F7" t="n">
-        <v>809646.602</v>
+        <v>88.5</v>
       </c>
       <c r="G7" t="n">
-        <v>158801962.7385404</v>
+        <v>157035647.0043793</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.41</v>
+        <v>2.03</v>
       </c>
       <c r="C8" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="D8" t="n">
-        <v>2.41</v>
+        <v>2.03</v>
       </c>
       <c r="E8" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="F8" t="n">
-        <v>143115.18</v>
+        <v>396943.1431</v>
       </c>
       <c r="G8" t="n">
-        <v>158801962.7385404</v>
+        <v>157035647.0043793</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="C9" t="n">
-        <v>2.34</v>
+        <v>2.09</v>
       </c>
       <c r="D9" t="n">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="E9" t="n">
-        <v>2.34</v>
+        <v>2.03</v>
       </c>
       <c r="F9" t="n">
-        <v>742131.6838999999</v>
+        <v>220193.2251</v>
       </c>
       <c r="G9" t="n">
-        <v>158059831.0546404</v>
+        <v>157255840.2294793</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="C10" t="n">
-        <v>2.39</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2.39</v>
+        <v>2.02</v>
       </c>
       <c r="E10" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>72929.33163891213</v>
+        <v>1122431.8959</v>
       </c>
       <c r="G10" t="n">
-        <v>158132760.3862793</v>
+        <v>156133408.3335793</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="C11" t="n">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="D11" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="E11" t="n">
-        <v>2.32</v>
+        <v>1.97</v>
       </c>
       <c r="F11" t="n">
-        <v>332755.4076</v>
+        <v>32.5</v>
       </c>
       <c r="G11" t="n">
-        <v>158465515.7938792</v>
+        <v>156133375.8335793</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.37</v>
+        <v>2.09</v>
       </c>
       <c r="C12" t="n">
-        <v>2.24</v>
+        <v>1.99</v>
       </c>
       <c r="D12" t="n">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="E12" t="n">
-        <v>2.24</v>
+        <v>1.99</v>
       </c>
       <c r="F12" t="n">
-        <v>630677.8343</v>
+        <v>239558.4276</v>
       </c>
       <c r="G12" t="n">
-        <v>157834837.9595792</v>
+        <v>156372934.2611793</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.26</v>
+        <v>2.03</v>
       </c>
       <c r="C13" t="n">
-        <v>2.26</v>
+        <v>2.03</v>
       </c>
       <c r="D13" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="E13" t="n">
-        <v>2.26</v>
+        <v>2.03</v>
       </c>
       <c r="F13" t="n">
-        <v>15623.0761</v>
+        <v>491056.3471</v>
       </c>
       <c r="G13" t="n">
-        <v>157850461.0356792</v>
+        <v>156863990.6082793</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.39</v>
+        <v>2.04</v>
       </c>
       <c r="C14" t="n">
-        <v>2.39</v>
+        <v>2.04</v>
       </c>
       <c r="D14" t="n">
-        <v>2.39</v>
+        <v>2.04</v>
       </c>
       <c r="E14" t="n">
-        <v>2.39</v>
+        <v>2.04</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>133750.9487</v>
       </c>
       <c r="G14" t="n">
-        <v>157850471.0356792</v>
+        <v>156997741.5569793</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="C15" t="n">
-        <v>2.37</v>
+        <v>1.99</v>
       </c>
       <c r="D15" t="n">
-        <v>2.37</v>
+        <v>2.04</v>
       </c>
       <c r="E15" t="n">
-        <v>2.36</v>
+        <v>1.99</v>
       </c>
       <c r="F15" t="n">
-        <v>525587.0574</v>
+        <v>1647079.5576</v>
       </c>
       <c r="G15" t="n">
-        <v>157324883.9782792</v>
+        <v>155350661.9993793</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>88594.93670000001</v>
+        <v>22964.146</v>
       </c>
       <c r="G16" t="n">
-        <v>157324883.9782792</v>
+        <v>155373626.1453793</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G17" t="n">
-        <v>157304883.9782792</v>
+        <v>155373626.1453793</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>3941.1016</v>
+        <v>11999</v>
       </c>
       <c r="G18" t="n">
-        <v>157304883.9782792</v>
+        <v>155373626.1453793</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="C19" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="D19" t="n">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="E19" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="F19" t="n">
-        <v>328944.8929</v>
+        <v>723.6453</v>
       </c>
       <c r="G19" t="n">
-        <v>156975939.0853792</v>
+        <v>155374349.7906793</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>823799.172</v>
+        <v>55</v>
       </c>
       <c r="G20" t="n">
-        <v>156152139.9133793</v>
+        <v>155374294.7906793</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>201997</v>
+        <v>48422.3301</v>
       </c>
       <c r="G21" t="n">
-        <v>155950142.9133793</v>
+        <v>155374294.7906793</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="C22" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="D22" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="E22" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="F22" t="n">
-        <v>287315.0084</v>
+        <v>41139</v>
       </c>
       <c r="G22" t="n">
-        <v>155662827.9049793</v>
+        <v>155415433.7906793</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="C23" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="D23" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="E23" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="F23" t="n">
-        <v>157648.8829</v>
+        <v>20000</v>
       </c>
       <c r="G23" t="n">
-        <v>155662827.9049793</v>
+        <v>155435433.7906793</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="C24" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="D24" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="E24" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="F24" t="n">
-        <v>106604.9326</v>
+        <v>7666</v>
       </c>
       <c r="G24" t="n">
-        <v>155662827.9049793</v>
+        <v>155443099.7906793</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="C25" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="D25" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="E25" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="F25" t="n">
-        <v>41590.4415</v>
+        <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>155704418.3464793</v>
+        <v>155443110.7906793</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="C26" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="D26" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="E26" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="F26" t="n">
-        <v>39973</v>
+        <v>200</v>
       </c>
       <c r="G26" t="n">
-        <v>155664445.3464793</v>
+        <v>155442910.7906793</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,110 +1331,101 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="C27" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="D27" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="E27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="F27" t="n">
-        <v>19919.829</v>
+        <v>897306.4</v>
       </c>
       <c r="G27" t="n">
-        <v>155684365.1754793</v>
+        <v>156340217.1906793</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.07</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="C28" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="D28" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="E28" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="F28" t="n">
-        <v>202821.1981</v>
+        <v>75638</v>
       </c>
       <c r="G28" t="n">
-        <v>155887186.3735793</v>
+        <v>156264579.1906793</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="C29" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="D29" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="E29" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="F29" t="n">
-        <v>20410</v>
+        <v>865818</v>
       </c>
       <c r="G29" t="n">
-        <v>155866776.3735793</v>
+        <v>157130397.1906793</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1414,39 +1434,34 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="C30" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="D30" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="E30" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="F30" t="n">
-        <v>136376.2209</v>
+        <v>1687623.2653</v>
       </c>
       <c r="G30" t="n">
-        <v>156003152.5944793</v>
+        <v>155442773.9253793</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="C31" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="D31" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="E31" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="F31" t="n">
-        <v>38988.267</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>156003152.5944793</v>
+        <v>155442784.9253793</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="C32" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="D32" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="E32" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="F32" t="n">
-        <v>342669.8888</v>
+        <v>120000</v>
       </c>
       <c r="G32" t="n">
-        <v>156345822.4832793</v>
+        <v>155322784.9253793</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="C33" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="D33" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="E33" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="F33" t="n">
-        <v>201784</v>
+        <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>156144038.4832793</v>
+        <v>155322795.9253793</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="C34" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="D34" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="E34" t="n">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="F34" t="n">
-        <v>97293</v>
+        <v>247810</v>
       </c>
       <c r="G34" t="n">
-        <v>156046745.4832793</v>
+        <v>155570605.9253793</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="C35" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="D35" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="E35" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="F35" t="n">
-        <v>3182.7102</v>
+        <v>19599</v>
       </c>
       <c r="G35" t="n">
-        <v>156046745.4832793</v>
+        <v>155590204.9253793</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1644,19 +1665,19 @@
         <v>2.17</v>
       </c>
       <c r="C36" t="n">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="D36" t="n">
         <v>2.17</v>
       </c>
       <c r="E36" t="n">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="F36" t="n">
-        <v>485993.718</v>
+        <v>120000</v>
       </c>
       <c r="G36" t="n">
-        <v>155560751.7652793</v>
+        <v>155470204.9253793</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="C37" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="D37" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="E37" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="F37" t="n">
-        <v>200000</v>
+        <v>97922</v>
       </c>
       <c r="G37" t="n">
-        <v>155360751.7652793</v>
+        <v>155372282.9253793</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="C38" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="D38" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="E38" t="n">
-        <v>2.02</v>
+        <v>2.21</v>
       </c>
       <c r="F38" t="n">
-        <v>483564.3537</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>155844316.1189793</v>
+        <v>155372293.9253793</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="C39" t="n">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="D39" t="n">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="E39" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="F39" t="n">
-        <v>12967.5</v>
+        <v>1162.4292</v>
       </c>
       <c r="G39" t="n">
-        <v>155831348.6189793</v>
+        <v>155371131.4961793</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1775,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.04</v>
+        <v>2.19</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="D40" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="F40" t="n">
-        <v>964514.0056</v>
+        <v>40000</v>
       </c>
       <c r="G40" t="n">
-        <v>154866834.6133793</v>
+        <v>155411131.4961793</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="C41" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="D41" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="E41" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="F41" t="n">
-        <v>120000</v>
+        <v>120083.5581</v>
       </c>
       <c r="G41" t="n">
-        <v>154986834.6133793</v>
+        <v>155291047.9380793</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1845,303 +1871,281 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="C42" t="n">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="D42" t="n">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="F42" t="n">
-        <v>917747.8874</v>
+        <v>555</v>
       </c>
       <c r="G42" t="n">
-        <v>154986834.6133793</v>
+        <v>155291602.9380793</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>2.06</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="C43" t="n">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="D43" t="n">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="E43" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="F43" t="n">
-        <v>2935</v>
+        <v>10641.0384</v>
       </c>
       <c r="G43" t="n">
-        <v>154983899.6133793</v>
+        <v>155280961.8996793</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="C44" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="D44" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="E44" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="F44" t="n">
-        <v>140000</v>
+        <v>50000</v>
       </c>
       <c r="G44" t="n">
-        <v>154983899.6133793</v>
+        <v>155330961.8996793</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="C45" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="D45" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="E45" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="F45" t="n">
-        <v>616943.1431</v>
+        <v>122408.6409</v>
       </c>
       <c r="G45" t="n">
-        <v>154983899.6133793</v>
+        <v>155208553.2587793</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="C46" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="D46" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="F46" t="n">
-        <v>1549820.1913</v>
+        <v>146699.42</v>
       </c>
       <c r="G46" t="n">
-        <v>156533719.8046793</v>
+        <v>155061853.8387793</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="C47" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="D47" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="E47" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="F47" t="n">
-        <v>502015.6997</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>157035735.5043793</v>
+        <v>155061864.8387793</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="C48" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="D48" t="n">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="E48" t="n">
         <v>2.09</v>
       </c>
       <c r="F48" t="n">
-        <v>14152</v>
+        <v>477993.966</v>
       </c>
       <c r="G48" t="n">
-        <v>157035735.5043793</v>
+        <v>154583870.8727793</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="C49" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="D49" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="E49" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="F49" t="n">
-        <v>88.5</v>
+        <v>44</v>
       </c>
       <c r="G49" t="n">
-        <v>157035647.0043793</v>
+        <v>154583914.8727793</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2151,36 +2155,33 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="C50" t="n">
         <v>2.03</v>
       </c>
       <c r="D50" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="E50" t="n">
         <v>2.03</v>
       </c>
       <c r="F50" t="n">
-        <v>396943.1431</v>
+        <v>141911.4209</v>
       </c>
       <c r="G50" t="n">
-        <v>157035647.0043793</v>
+        <v>154442003.4518794</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,36 +2191,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="C51" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="D51" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="E51" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="F51" t="n">
-        <v>220193.2251</v>
+        <v>80000</v>
       </c>
       <c r="G51" t="n">
-        <v>157255840.2294793</v>
+        <v>154522003.4518794</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2229,36 +2227,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="D52" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="F52" t="n">
-        <v>1122431.8959</v>
+        <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>156133408.3335793</v>
+        <v>154522014.4518794</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2268,36 +2263,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="C53" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="D53" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="F53" t="n">
-        <v>32.5</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>156133375.8335793</v>
+        <v>154521914.4518794</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2307,75 +2299,69 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="C54" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="D54" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="F54" t="n">
-        <v>239558.4276</v>
+        <v>98540</v>
       </c>
       <c r="G54" t="n">
-        <v>156372934.2611793</v>
+        <v>154521914.4518794</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="C55" t="n">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="D55" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="E55" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="F55" t="n">
-        <v>491056.3471</v>
+        <v>60000</v>
       </c>
       <c r="G55" t="n">
-        <v>156863990.6082793</v>
+        <v>154581914.4518794</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2385,14 +2371,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2411,49 +2394,46 @@
         <v>2.04</v>
       </c>
       <c r="F56" t="n">
-        <v>133750.9487</v>
+        <v>12077.2532</v>
       </c>
       <c r="G56" t="n">
-        <v>156997741.5569793</v>
+        <v>154569837.1986794</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="C57" t="n">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="D57" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="E57" t="n">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="F57" t="n">
-        <v>1647079.5576</v>
+        <v>163260.3204</v>
       </c>
       <c r="G57" t="n">
-        <v>155350661.9993793</v>
+        <v>154733097.5190794</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2463,36 +2443,33 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="F58" t="n">
-        <v>22964.146</v>
+        <v>41549.7837</v>
       </c>
       <c r="G58" t="n">
-        <v>155373626.1453793</v>
+        <v>154691547.7353794</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2502,36 +2479,33 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="F59" t="n">
-        <v>30000</v>
+        <v>51901.9323</v>
       </c>
       <c r="G59" t="n">
-        <v>155373626.1453793</v>
+        <v>154743449.6676794</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2541,36 +2515,33 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="F60" t="n">
-        <v>11999</v>
+        <v>104327.795</v>
       </c>
       <c r="G60" t="n">
-        <v>155373626.1453793</v>
+        <v>154743449.6676794</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2580,36 +2551,33 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="C61" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="D61" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="E61" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="F61" t="n">
-        <v>723.6453</v>
+        <v>21744.6266</v>
       </c>
       <c r="G61" t="n">
-        <v>155374349.7906793</v>
+        <v>154743449.6676794</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2619,36 +2587,33 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="F62" t="n">
-        <v>55</v>
+        <v>40000</v>
       </c>
       <c r="G62" t="n">
-        <v>155374294.7906793</v>
+        <v>154743449.6676794</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2658,36 +2623,33 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="F63" t="n">
-        <v>48422.3301</v>
+        <v>20000</v>
       </c>
       <c r="G63" t="n">
-        <v>155374294.7906793</v>
+        <v>154763449.6676794</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2697,14 +2659,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2723,10 +2682,10 @@
         <v>2.07</v>
       </c>
       <c r="F64" t="n">
-        <v>41139</v>
+        <v>120435.642</v>
       </c>
       <c r="G64" t="n">
-        <v>155415433.7906793</v>
+        <v>154643014.0256794</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2736,36 +2695,33 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="C65" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="D65" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="E65" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="F65" t="n">
-        <v>20000</v>
+        <v>340493.8669</v>
       </c>
       <c r="G65" t="n">
-        <v>155435433.7906793</v>
+        <v>154302520.1587794</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2775,36 +2731,33 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="C66" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="D66" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="E66" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="F66" t="n">
-        <v>7666</v>
+        <v>37043.16</v>
       </c>
       <c r="G66" t="n">
-        <v>155443099.7906793</v>
+        <v>154302520.1587794</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2814,36 +2767,33 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="C67" t="n">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="D67" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="E67" t="n">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="F67" t="n">
-        <v>11</v>
+        <v>523272.3986</v>
       </c>
       <c r="G67" t="n">
-        <v>155443110.7906793</v>
+        <v>153779247.7601794</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2853,36 +2803,33 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
       <c r="C68" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="D68" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="E68" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>4604840.9048</v>
       </c>
       <c r="G68" t="n">
-        <v>155442910.7906793</v>
+        <v>158384088.6649794</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2892,36 +2839,33 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D69" t="n">
         <v>2.08</v>
       </c>
-      <c r="C69" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2.27</v>
-      </c>
       <c r="E69" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="F69" t="n">
-        <v>897306.4</v>
+        <v>34008951.74</v>
       </c>
       <c r="G69" t="n">
-        <v>156340217.1906793</v>
+        <v>124375136.9249794</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2931,36 +2875,33 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="C70" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="D70" t="n">
-        <v>2.29</v>
+        <v>2.05</v>
       </c>
       <c r="E70" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="F70" t="n">
-        <v>75638</v>
+        <v>97019.23</v>
       </c>
       <c r="G70" t="n">
-        <v>156264579.1906793</v>
+        <v>124472156.1549794</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2970,36 +2911,33 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="C71" t="n">
-        <v>2.19</v>
+        <v>2.01</v>
       </c>
       <c r="D71" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="E71" t="n">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="F71" t="n">
-        <v>865818</v>
+        <v>523836.2831</v>
       </c>
       <c r="G71" t="n">
-        <v>157130397.1906793</v>
+        <v>123948319.8718794</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3009,36 +2947,33 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="C72" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="D72" t="n">
-        <v>2.27</v>
+        <v>1.97</v>
       </c>
       <c r="E72" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="F72" t="n">
-        <v>1687623.2653</v>
+        <v>1485605.0382</v>
       </c>
       <c r="G72" t="n">
-        <v>155442773.9253793</v>
+        <v>122462714.8336794</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3048,75 +2983,73 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="C73" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="D73" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="E73" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>60019</v>
       </c>
       <c r="G73" t="n">
-        <v>155442784.9253793</v>
+        <v>122522733.8336794</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="C74" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="D74" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="E74" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="F74" t="n">
-        <v>120000</v>
+        <v>304504.7349</v>
       </c>
       <c r="G74" t="n">
-        <v>155322784.9253793</v>
+        <v>122218229.0987794</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3125,76 +3058,84 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1.97</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="C75" t="n">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="D75" t="n">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="E75" t="n">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="F75" t="n">
         <v>11</v>
       </c>
       <c r="G75" t="n">
-        <v>155322795.9253793</v>
+        <v>122218240.0987794</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.97</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="C76" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="D76" t="n">
-        <v>2.21</v>
+        <v>2.06</v>
       </c>
       <c r="E76" t="n">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="F76" t="n">
-        <v>247810</v>
+        <v>104654.0105</v>
       </c>
       <c r="G76" t="n">
-        <v>155570605.9253793</v>
+        <v>122113586.0882794</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3204,36 +3145,33 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.21</v>
+        <v>2.08</v>
       </c>
       <c r="C77" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="D77" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="E77" t="n">
-        <v>2.21</v>
+        <v>2.08</v>
       </c>
       <c r="F77" t="n">
-        <v>19599</v>
+        <v>100000</v>
       </c>
       <c r="G77" t="n">
-        <v>155590204.9253793</v>
+        <v>122213586.0882794</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3243,75 +3181,73 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="C78" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="D78" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="E78" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="F78" t="n">
-        <v>120000</v>
+        <v>20289.8808</v>
       </c>
       <c r="G78" t="n">
-        <v>155470204.9253793</v>
+        <v>122233875.9690794</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="C79" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="D79" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="E79" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="F79" t="n">
-        <v>97922</v>
+        <v>100000</v>
       </c>
       <c r="G79" t="n">
-        <v>155372282.9253793</v>
+        <v>122333875.9690794</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3320,37 +3256,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>2.08</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.21</v>
+        <v>2.03</v>
       </c>
       <c r="C80" t="n">
-        <v>2.21</v>
+        <v>2.03</v>
       </c>
       <c r="D80" t="n">
-        <v>2.21</v>
+        <v>2.03</v>
       </c>
       <c r="E80" t="n">
-        <v>2.21</v>
+        <v>2.03</v>
       </c>
       <c r="F80" t="n">
-        <v>11</v>
+        <v>66719.583</v>
       </c>
       <c r="G80" t="n">
-        <v>155372293.9253793</v>
+        <v>122267156.3860794</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3359,37 +3298,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>2.08</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="C81" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="D81" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="E81" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="F81" t="n">
-        <v>1162.4292</v>
+        <v>60000</v>
       </c>
       <c r="G81" t="n">
-        <v>155371131.4961793</v>
+        <v>122327156.3860794</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3399,36 +3341,33 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.19</v>
+        <v>2.04</v>
       </c>
       <c r="C82" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="D82" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="E82" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="F82" t="n">
-        <v>40000</v>
+        <v>290000</v>
       </c>
       <c r="G82" t="n">
-        <v>155411131.4961793</v>
+        <v>122037156.3860794</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3438,114 +3377,117 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="C83" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="D83" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="E83" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="F83" t="n">
-        <v>120083.5581</v>
+        <v>131439</v>
       </c>
       <c r="G83" t="n">
-        <v>155291047.9380793</v>
+        <v>122168595.3860794</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.19</v>
+        <v>1.96</v>
       </c>
       <c r="C84" t="n">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="D84" t="n">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="E84" t="n">
-        <v>2.19</v>
+        <v>1.96</v>
       </c>
       <c r="F84" t="n">
-        <v>555</v>
+        <v>45104.0273</v>
       </c>
       <c r="G84" t="n">
-        <v>155291602.9380793</v>
+        <v>122168595.3860794</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="C85" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="D85" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="E85" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="F85" t="n">
-        <v>10641.0384</v>
+        <v>80000</v>
       </c>
       <c r="G85" t="n">
-        <v>155280961.8996793</v>
+        <v>122248595.3860794</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3554,7 +3496,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3563,6 +3507,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3572,19 +3517,19 @@
         <v>2.14</v>
       </c>
       <c r="C86" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="D86" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="E86" t="n">
         <v>2.14</v>
       </c>
       <c r="F86" t="n">
-        <v>50000</v>
+        <v>1078</v>
       </c>
       <c r="G86" t="n">
-        <v>155330961.8996793</v>
+        <v>122248595.3860794</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3593,7 +3538,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3602,28 +3549,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="C87" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="D87" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="E87" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="F87" t="n">
-        <v>122408.6409</v>
+        <v>659</v>
       </c>
       <c r="G87" t="n">
-        <v>155208553.2587793</v>
+        <v>122248595.3860794</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3632,7 +3580,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3641,28 +3591,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="C88" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="D88" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="E88" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="F88" t="n">
-        <v>146699.42</v>
+        <v>46948.3568</v>
       </c>
       <c r="G88" t="n">
-        <v>155061853.8387793</v>
+        <v>122201647.0292794</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3671,7 +3622,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,28 +3633,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="C89" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="D89" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="E89" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>63140</v>
       </c>
       <c r="G89" t="n">
-        <v>155061864.8387793</v>
+        <v>122264787.0292794</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3710,7 +3664,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,37 +3675,42 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="C90" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="D90" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="E90" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="F90" t="n">
-        <v>477993.966</v>
+        <v>127700.8679</v>
       </c>
       <c r="G90" t="n">
-        <v>154583870.8727793</v>
+        <v>122264787.0292794</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,37 +3719,42 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="C91" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="D91" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="E91" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="F91" t="n">
-        <v>44</v>
+        <v>217867.365</v>
       </c>
       <c r="G91" t="n">
-        <v>154583914.8727793</v>
+        <v>122482654.3942793</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,37 +3763,42 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="C92" t="n">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="D92" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="E92" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="F92" t="n">
-        <v>141911.4209</v>
+        <v>218193.4600954129</v>
       </c>
       <c r="G92" t="n">
-        <v>154442003.4518794</v>
+        <v>122700847.8543748</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,37 +3807,42 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="C93" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="D93" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="E93" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="F93" t="n">
-        <v>80000</v>
+        <v>33068.3486</v>
       </c>
       <c r="G93" t="n">
-        <v>154522003.4518794</v>
+        <v>122700847.8543748</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,6 +3851,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3884,28 +3861,32 @@
         <v>2.18</v>
       </c>
       <c r="C94" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="D94" t="n">
         <v>2.18</v>
       </c>
       <c r="E94" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G94" t="n">
+        <v>122699527.8543748</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>2.18</v>
       </c>
-      <c r="F94" t="n">
-        <v>11</v>
-      </c>
-      <c r="G94" t="n">
-        <v>154522014.4518794</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,28 +3895,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="C95" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="D95" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="E95" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="F95" t="n">
-        <v>100</v>
+        <v>565</v>
       </c>
       <c r="G95" t="n">
-        <v>154521914.4518794</v>
+        <v>122700092.8543748</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3944,7 +3926,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3953,28 +3937,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="C96" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="D96" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="E96" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="F96" t="n">
-        <v>98540</v>
+        <v>544</v>
       </c>
       <c r="G96" t="n">
-        <v>154521914.4518794</v>
+        <v>122699548.8543748</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3983,7 +3968,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,28 +3979,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="C97" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="D97" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="E97" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="F97" t="n">
-        <v>60000</v>
+        <v>33</v>
       </c>
       <c r="G97" t="n">
-        <v>154581914.4518794</v>
+        <v>122699515.8543748</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4022,7 +4010,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4031,28 +4021,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="C98" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="D98" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="E98" t="n">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="F98" t="n">
-        <v>12077.2532</v>
+        <v>187846.0854</v>
       </c>
       <c r="G98" t="n">
-        <v>154569837.1986794</v>
+        <v>122887361.9397748</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4061,7 +4052,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4070,28 +4063,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="C99" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="D99" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="E99" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="F99" t="n">
-        <v>163260.3204</v>
+        <v>17833.5944</v>
       </c>
       <c r="G99" t="n">
-        <v>154733097.5190794</v>
+        <v>122869528.3453747</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4100,7 +4094,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4109,28 +4105,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="C100" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="E100" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="F100" t="n">
-        <v>41549.7837</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>154691547.7353794</v>
+        <v>122869518.3453747</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4139,7 +4136,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4148,28 +4147,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="C101" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="D101" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="E101" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="F101" t="n">
-        <v>51901.9323</v>
+        <v>423.5023</v>
       </c>
       <c r="G101" t="n">
-        <v>154743449.6676794</v>
+        <v>122869941.8476747</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4178,7 +4178,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4187,37 +4189,42 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="C102" t="n">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="D102" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="E102" t="n">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="F102" t="n">
-        <v>104327.795</v>
+        <v>217647.9764</v>
       </c>
       <c r="G102" t="n">
-        <v>154743449.6676794</v>
+        <v>122652293.8712747</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,37 +4233,42 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="C103" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="D103" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="E103" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="F103" t="n">
-        <v>21744.6266</v>
+        <v>255423.637</v>
       </c>
       <c r="G103" t="n">
-        <v>154743449.6676794</v>
+        <v>122396870.2342747</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4265,37 +4277,42 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="C104" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="D104" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="E104" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="F104" t="n">
-        <v>40000</v>
+        <v>33068.3486</v>
       </c>
       <c r="G104" t="n">
-        <v>154743449.6676794</v>
+        <v>122396870.2342747</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,37 +4321,42 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="C105" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="D105" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="E105" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="F105" t="n">
-        <v>20000</v>
+        <v>40630</v>
       </c>
       <c r="G105" t="n">
-        <v>154763449.6676794</v>
+        <v>122437500.2342747</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4343,37 +4365,42 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="C106" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="D106" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="E106" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="F106" t="n">
-        <v>120435.642</v>
+        <v>20026.4976</v>
       </c>
       <c r="G106" t="n">
-        <v>154643014.0256794</v>
+        <v>122437500.2342747</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,37 +4409,42 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="C107" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="D107" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="E107" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="F107" t="n">
-        <v>340493.8669</v>
+        <v>7573</v>
       </c>
       <c r="G107" t="n">
-        <v>154302520.1587794</v>
+        <v>122437500.2342747</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4421,37 +4453,42 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="C108" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="D108" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="E108" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="F108" t="n">
-        <v>37043.16</v>
+        <v>9730.4874</v>
       </c>
       <c r="G108" t="n">
-        <v>154302520.1587794</v>
+        <v>122437500.2342747</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,37 +4497,42 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="C109" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="D109" t="n">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="E109" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="F109" t="n">
-        <v>523272.3986</v>
+        <v>25499.3926</v>
       </c>
       <c r="G109" t="n">
-        <v>153779247.7601794</v>
+        <v>122437500.2342747</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4499,28 +4541,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="C110" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="D110" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="E110" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="F110" t="n">
-        <v>4604840.9048</v>
+        <v>123866.8941</v>
       </c>
       <c r="G110" t="n">
-        <v>158384088.6649794</v>
+        <v>122437500.2342747</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4529,7 +4572,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,37 +4583,42 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="C111" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="D111" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="E111" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="F111" t="n">
-        <v>34008951.74</v>
+        <v>69531</v>
       </c>
       <c r="G111" t="n">
-        <v>124375136.9249794</v>
+        <v>122507031.2342747</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4577,37 +4627,42 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="C112" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="D112" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="E112" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="F112" t="n">
-        <v>97019.23</v>
+        <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>124472156.1549794</v>
+        <v>122507020.2342747</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,37 +4671,42 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="C113" t="n">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="D113" t="n">
-        <v>2.01</v>
+        <v>2.18</v>
       </c>
       <c r="E113" t="n">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="F113" t="n">
-        <v>523836.2831</v>
+        <v>873991.8349</v>
       </c>
       <c r="G113" t="n">
-        <v>123948319.8718794</v>
+        <v>123381012.0691748</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,37 +4715,42 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="C114" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="D114" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="E114" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="F114" t="n">
-        <v>1485605.0382</v>
+        <v>98994</v>
       </c>
       <c r="G114" t="n">
-        <v>122462714.8336794</v>
+        <v>123381012.0691748</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4694,13 +4759,14 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="C115" t="n">
         <v>2.15</v>
@@ -4709,22 +4775,26 @@
         <v>2.15</v>
       </c>
       <c r="E115" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="F115" t="n">
-        <v>60019</v>
+        <v>137813.1824</v>
       </c>
       <c r="G115" t="n">
-        <v>122522733.8336794</v>
+        <v>123243198.8867747</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4733,28 +4803,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="C116" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="D116" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="E116" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="F116" t="n">
-        <v>304504.7349</v>
+        <v>97841</v>
       </c>
       <c r="G116" t="n">
-        <v>122218229.0987794</v>
+        <v>123341039.8867747</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4763,7 +4834,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4772,28 +4845,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="C117" t="n">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="D117" t="n">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="E117" t="n">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="F117" t="n">
-        <v>11</v>
+        <v>105725.8135</v>
       </c>
       <c r="G117" t="n">
-        <v>122218240.0987794</v>
+        <v>123235314.0732747</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4802,7 +4876,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1.96</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4811,1644 +4887,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="D118" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F118" t="n">
-        <v>104654.0105</v>
-      </c>
-      <c r="G118" t="n">
-        <v>122113586.0882794</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="E119" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="F119" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G119" t="n">
-        <v>122213586.0882794</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="E120" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F120" t="n">
-        <v>20289.8808</v>
-      </c>
-      <c r="G120" t="n">
-        <v>122233875.9690794</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F121" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G121" t="n">
-        <v>122333875.9690794</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="F122" t="n">
-        <v>66719.583</v>
-      </c>
-      <c r="G122" t="n">
-        <v>122267156.3860794</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E123" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F123" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G123" t="n">
-        <v>122327156.3860794</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="D124" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="F124" t="n">
-        <v>290000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>122037156.3860794</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C125" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E125" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F125" t="n">
-        <v>131439</v>
-      </c>
-      <c r="G125" t="n">
-        <v>122168595.3860794</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="D126" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="F126" t="n">
-        <v>45104.0273</v>
-      </c>
-      <c r="G126" t="n">
-        <v>122168595.3860794</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C127" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F127" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G127" t="n">
-        <v>122248595.3860794</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C128" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E128" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1078</v>
-      </c>
-      <c r="G128" t="n">
-        <v>122248595.3860794</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D129" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E129" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F129" t="n">
-        <v>659</v>
-      </c>
-      <c r="G129" t="n">
-        <v>122248595.3860794</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C130" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="D130" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F130" t="n">
-        <v>46948.3568</v>
-      </c>
-      <c r="G130" t="n">
-        <v>122201647.0292794</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C131" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D131" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E131" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F131" t="n">
-        <v>63140</v>
-      </c>
-      <c r="G131" t="n">
-        <v>122264787.0292794</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="C132" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E132" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="F132" t="n">
-        <v>127700.8679</v>
-      </c>
-      <c r="G132" t="n">
-        <v>122264787.0292794</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E133" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F133" t="n">
-        <v>217867.365</v>
-      </c>
-      <c r="G133" t="n">
-        <v>122482654.3942793</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F134" t="n">
-        <v>218193.4600954129</v>
-      </c>
-      <c r="G134" t="n">
-        <v>122700847.8543748</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="F135" t="n">
-        <v>33068.3486</v>
-      </c>
-      <c r="G135" t="n">
-        <v>122700847.8543748</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D136" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1320</v>
-      </c>
-      <c r="G136" t="n">
-        <v>122699527.8543748</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="F137" t="n">
-        <v>565</v>
-      </c>
-      <c r="G137" t="n">
-        <v>122700092.8543748</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D138" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E138" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F138" t="n">
-        <v>544</v>
-      </c>
-      <c r="G138" t="n">
-        <v>122699548.8543748</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D139" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F139" t="n">
-        <v>33</v>
-      </c>
-      <c r="G139" t="n">
-        <v>122699515.8543748</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C140" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F140" t="n">
-        <v>187846.0854</v>
-      </c>
-      <c r="G140" t="n">
-        <v>122887361.9397748</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C141" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D141" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E141" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F141" t="n">
-        <v>17833.5944</v>
-      </c>
-      <c r="G141" t="n">
-        <v>122869528.3453747</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C142" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D142" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E142" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F142" t="n">
-        <v>10</v>
-      </c>
-      <c r="G142" t="n">
-        <v>122869518.3453747</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C143" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E143" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F143" t="n">
-        <v>423.5023</v>
-      </c>
-      <c r="G143" t="n">
-        <v>122869941.8476747</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C144" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D144" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E144" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F144" t="n">
-        <v>217647.9764</v>
-      </c>
-      <c r="G144" t="n">
-        <v>122652293.8712747</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D145" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E145" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F145" t="n">
-        <v>255423.637</v>
-      </c>
-      <c r="G145" t="n">
-        <v>122396870.2342747</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F146" t="n">
-        <v>33068.3486</v>
-      </c>
-      <c r="G146" t="n">
-        <v>122396870.2342747</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C147" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D147" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F147" t="n">
-        <v>40630</v>
-      </c>
-      <c r="G147" t="n">
-        <v>122437500.2342747</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C148" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D148" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E148" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F148" t="n">
-        <v>20026.4976</v>
-      </c>
-      <c r="G148" t="n">
-        <v>122437500.2342747</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D149" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E149" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F149" t="n">
-        <v>7573</v>
-      </c>
-      <c r="G149" t="n">
-        <v>122437500.2342747</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C150" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D150" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E150" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F150" t="n">
-        <v>9730.4874</v>
-      </c>
-      <c r="G150" t="n">
-        <v>122437500.2342747</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C151" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D151" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E151" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F151" t="n">
-        <v>25499.3926</v>
-      </c>
-      <c r="G151" t="n">
-        <v>122437500.2342747</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D152" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E152" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F152" t="n">
-        <v>123866.8941</v>
-      </c>
-      <c r="G152" t="n">
-        <v>122437500.2342747</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D153" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E153" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F153" t="n">
-        <v>69531</v>
-      </c>
-      <c r="G153" t="n">
-        <v>122507031.2342747</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F154" t="n">
-        <v>11</v>
-      </c>
-      <c r="G154" t="n">
-        <v>122507020.2342747</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D155" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E155" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F155" t="n">
-        <v>873991.8349</v>
-      </c>
-      <c r="G155" t="n">
-        <v>123381012.0691748</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C156" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D156" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E156" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F156" t="n">
-        <v>98994</v>
-      </c>
-      <c r="G156" t="n">
-        <v>123381012.0691748</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C157" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D157" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E157" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F157" t="n">
-        <v>137813.1824</v>
-      </c>
-      <c r="G157" t="n">
-        <v>123243198.8867747</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C158" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D158" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E158" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F158" t="n">
-        <v>97841</v>
-      </c>
-      <c r="G158" t="n">
-        <v>123341039.8867747</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C159" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D159" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E159" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F159" t="n">
-        <v>105725.8135</v>
-      </c>
-      <c r="G159" t="n">
-        <v>123235314.0732747</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="C2" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="D2" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="E2" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="F2" t="n">
-        <v>140000</v>
+        <v>987923.6226</v>
       </c>
       <c r="G2" t="n">
-        <v>154983899.6133793</v>
+        <v>6270983.614973146</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="C3" t="n">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="D3" t="n">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="E3" t="n">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="F3" t="n">
-        <v>616943.1431</v>
+        <v>16520.9372</v>
       </c>
       <c r="G3" t="n">
-        <v>154983899.6133793</v>
+        <v>6254462.677773146</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.03</v>
+        <v>2.27</v>
       </c>
       <c r="C4" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="D4" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="F4" t="n">
-        <v>1549820.1913</v>
+        <v>40000</v>
       </c>
       <c r="G4" t="n">
-        <v>156533719.8046793</v>
+        <v>6294462.677773146</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.24</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -546,22 +550,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="C5" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="D5" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="E5" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="F5" t="n">
-        <v>502015.6997</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>157035735.5043793</v>
+        <v>6294462.677773146</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -570,8 +574,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +592,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="C6" t="n">
-        <v>2.09</v>
+        <v>2.24</v>
       </c>
       <c r="D6" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="E6" t="n">
-        <v>2.09</v>
+        <v>2.24</v>
       </c>
       <c r="F6" t="n">
-        <v>14152</v>
+        <v>40441892.9908</v>
       </c>
       <c r="G6" t="n">
-        <v>157035735.5043793</v>
+        <v>-34147430.31302685</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -606,8 +616,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +634,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="C7" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="D7" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="E7" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="F7" t="n">
-        <v>88.5</v>
+        <v>68647856.6842</v>
       </c>
       <c r="G7" t="n">
-        <v>157035647.0043793</v>
+        <v>34500426.37117315</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -642,8 +658,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +676,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="C8" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="D8" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="E8" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="F8" t="n">
-        <v>396943.1431</v>
+        <v>44460596.859</v>
       </c>
       <c r="G8" t="n">
-        <v>157035647.0043793</v>
+        <v>34500426.37117315</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +700,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +718,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.03</v>
+        <v>2.28</v>
       </c>
       <c r="C9" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="D9" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="E9" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="F9" t="n">
-        <v>220193.2251</v>
+        <v>10148923.0188</v>
       </c>
       <c r="G9" t="n">
-        <v>157255840.2294793</v>
+        <v>24351503.35237315</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +742,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +760,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D10" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="F10" t="n">
-        <v>1122431.8959</v>
+        <v>806148.1971</v>
       </c>
       <c r="G10" t="n">
-        <v>156133408.3335793</v>
+        <v>25157651.54947315</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +784,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +802,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.99</v>
+        <v>2.19</v>
       </c>
       <c r="C11" t="n">
-        <v>1.97</v>
+        <v>2.23</v>
       </c>
       <c r="D11" t="n">
-        <v>1.99</v>
+        <v>2.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="F11" t="n">
-        <v>32.5</v>
+        <v>4995513.8283</v>
       </c>
       <c r="G11" t="n">
-        <v>156133375.8335793</v>
+        <v>30153165.37777315</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +826,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +844,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="C12" t="n">
-        <v>1.99</v>
+        <v>2.23</v>
       </c>
       <c r="D12" t="n">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="E12" t="n">
-        <v>1.99</v>
+        <v>2.23</v>
       </c>
       <c r="F12" t="n">
-        <v>239558.4276</v>
+        <v>161093.8026</v>
       </c>
       <c r="G12" t="n">
-        <v>156372934.2611793</v>
+        <v>30153165.37777315</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +868,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +886,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.03</v>
+        <v>2.21</v>
       </c>
       <c r="C13" t="n">
-        <v>2.03</v>
+        <v>2.35</v>
       </c>
       <c r="D13" t="n">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="E13" t="n">
-        <v>2.03</v>
+        <v>2.21</v>
       </c>
       <c r="F13" t="n">
-        <v>491056.3471</v>
+        <v>2753708.5816</v>
       </c>
       <c r="G13" t="n">
-        <v>156863990.6082793</v>
+        <v>32906873.95937315</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +910,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +928,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.04</v>
+        <v>2.25</v>
       </c>
       <c r="C14" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="D14" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="F14" t="n">
-        <v>133750.9487</v>
+        <v>2678591.3824</v>
       </c>
       <c r="G14" t="n">
-        <v>156997741.5569793</v>
+        <v>30228282.57697315</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +952,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +970,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="C15" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="D15" t="n">
-        <v>2.04</v>
+        <v>2.51</v>
       </c>
       <c r="E15" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="F15" t="n">
-        <v>1647079.5576</v>
+        <v>32207412.6945</v>
       </c>
       <c r="G15" t="n">
-        <v>155350661.9993793</v>
+        <v>62435695.27147315</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +994,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1012,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>2.61</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>2.61</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="F16" t="n">
-        <v>22964.146</v>
+        <v>28334987.676</v>
       </c>
       <c r="G16" t="n">
-        <v>155373626.1453793</v>
+        <v>90770682.94747315</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1036,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1054,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>2.31</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="F17" t="n">
-        <v>30000</v>
+        <v>11421104.8875</v>
       </c>
       <c r="G17" t="n">
-        <v>155373626.1453793</v>
+        <v>79349578.05997315</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1096,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="F18" t="n">
-        <v>11999</v>
+        <v>5584712.5138</v>
       </c>
       <c r="G18" t="n">
-        <v>155373626.1453793</v>
+        <v>84934290.57377315</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1120,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1138,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.03</v>
+        <v>2.38</v>
       </c>
       <c r="C19" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="D19" t="n">
-        <v>2.03</v>
+        <v>2.38</v>
       </c>
       <c r="E19" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="F19" t="n">
-        <v>723.6453</v>
+        <v>816528.9507</v>
       </c>
       <c r="G19" t="n">
-        <v>155374349.7906793</v>
+        <v>84117761.62307315</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1162,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1180,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="F20" t="n">
-        <v>55</v>
+        <v>22074599.2316</v>
       </c>
       <c r="G20" t="n">
-        <v>155374294.7906793</v>
+        <v>106192360.8546731</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1204,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1222,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="F21" t="n">
-        <v>48422.3301</v>
+        <v>790654.7816</v>
       </c>
       <c r="G21" t="n">
-        <v>155374294.7906793</v>
+        <v>106983015.6362731</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1246,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1264,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.07</v>
+        <v>2.39</v>
       </c>
       <c r="C22" t="n">
-        <v>2.07</v>
+        <v>2.37</v>
       </c>
       <c r="D22" t="n">
-        <v>2.07</v>
+        <v>2.39</v>
       </c>
       <c r="E22" t="n">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="F22" t="n">
-        <v>41139</v>
+        <v>15026220.0977</v>
       </c>
       <c r="G22" t="n">
-        <v>155415433.7906793</v>
+        <v>91956795.53857315</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1288,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.09</v>
+        <v>2.35</v>
       </c>
       <c r="C23" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="D23" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="E23" t="n">
-        <v>2.09</v>
+        <v>2.35</v>
       </c>
       <c r="F23" t="n">
-        <v>20000</v>
+        <v>17495161.3682</v>
       </c>
       <c r="G23" t="n">
-        <v>155435433.7906793</v>
+        <v>109451956.9067731</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1330,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1348,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.09</v>
+        <v>2.39</v>
       </c>
       <c r="C24" t="n">
-        <v>2.19</v>
+        <v>2.44</v>
       </c>
       <c r="D24" t="n">
-        <v>2.19</v>
+        <v>2.44</v>
       </c>
       <c r="E24" t="n">
-        <v>2.09</v>
+        <v>2.36</v>
       </c>
       <c r="F24" t="n">
-        <v>7666</v>
+        <v>11106434.8049</v>
       </c>
       <c r="G24" t="n">
-        <v>155443099.7906793</v>
+        <v>120558391.7116732</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1372,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1390,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="C25" t="n">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="D25" t="n">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="E25" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>24263515.1103</v>
       </c>
       <c r="G25" t="n">
-        <v>155443110.7906793</v>
+        <v>144821906.8219731</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1414,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1432,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="C26" t="n">
-        <v>2.25</v>
+        <v>2.44</v>
       </c>
       <c r="D26" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="E26" t="n">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>18379790.7032</v>
       </c>
       <c r="G26" t="n">
-        <v>155442910.7906793</v>
+        <v>126442116.1187731</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1456,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1474,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="C27" t="n">
-        <v>2.27</v>
+        <v>2.46</v>
       </c>
       <c r="D27" t="n">
-        <v>2.27</v>
+        <v>2.46</v>
       </c>
       <c r="E27" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="F27" t="n">
-        <v>897306.4</v>
+        <v>25634971.244</v>
       </c>
       <c r="G27" t="n">
-        <v>156340217.1906793</v>
+        <v>152077087.3627732</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1498,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1516,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="C28" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="D28" t="n">
-        <v>2.29</v>
+        <v>2.47</v>
       </c>
       <c r="E28" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="F28" t="n">
-        <v>75638</v>
+        <v>123210.9025</v>
       </c>
       <c r="G28" t="n">
-        <v>156264579.1906793</v>
+        <v>151953876.4602731</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1540,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1558,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="C29" t="n">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="D29" t="n">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="E29" t="n">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="F29" t="n">
-        <v>865818</v>
+        <v>2074192.1546</v>
       </c>
       <c r="G29" t="n">
-        <v>157130397.1906793</v>
+        <v>154028068.6148731</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1582,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1600,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="C30" t="n">
-        <v>2.17</v>
+        <v>2.46</v>
       </c>
       <c r="D30" t="n">
-        <v>2.27</v>
+        <v>2.51</v>
       </c>
       <c r="E30" t="n">
-        <v>2.17</v>
+        <v>2.43</v>
       </c>
       <c r="F30" t="n">
-        <v>1687623.2653</v>
+        <v>2968517.227872111</v>
       </c>
       <c r="G30" t="n">
-        <v>155442773.9253793</v>
+        <v>156996585.8427452</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1624,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1642,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="C31" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="D31" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="E31" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>1922176.71722301</v>
       </c>
       <c r="G31" t="n">
-        <v>155442784.9253793</v>
+        <v>158918762.5599683</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1666,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1684,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.12</v>
+        <v>2.51</v>
       </c>
       <c r="C32" t="n">
-        <v>2.12</v>
+        <v>2.53</v>
       </c>
       <c r="D32" t="n">
-        <v>2.12</v>
+        <v>2.53</v>
       </c>
       <c r="E32" t="n">
-        <v>2.12</v>
+        <v>2.47</v>
       </c>
       <c r="F32" t="n">
-        <v>120000</v>
+        <v>2683625.130872112</v>
       </c>
       <c r="G32" t="n">
-        <v>155322784.9253793</v>
+        <v>161602387.6908404</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1708,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1726,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
       <c r="C33" t="n">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
       <c r="D33" t="n">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
       <c r="E33" t="n">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>8947.728499999999</v>
       </c>
       <c r="G33" t="n">
-        <v>155322795.9253793</v>
+        <v>161593439.9623404</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1750,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1768,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.12</v>
+        <v>2.54</v>
       </c>
       <c r="C34" t="n">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
       <c r="D34" t="n">
-        <v>2.21</v>
+        <v>2.54</v>
       </c>
       <c r="E34" t="n">
-        <v>2.09</v>
+        <v>2.52</v>
       </c>
       <c r="F34" t="n">
-        <v>247810</v>
+        <v>31200.4858</v>
       </c>
       <c r="G34" t="n">
-        <v>155570605.9253793</v>
+        <v>161593439.9623404</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1792,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,64 +1810,72 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.21</v>
+        <v>2.51</v>
       </c>
       <c r="C35" t="n">
-        <v>2.28</v>
+        <v>2.41</v>
       </c>
       <c r="D35" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="E35" t="n">
-        <v>2.21</v>
+        <v>2.41</v>
       </c>
       <c r="F35" t="n">
-        <v>19599</v>
+        <v>1981830.6218</v>
       </c>
       <c r="G35" t="n">
-        <v>155590204.9253793</v>
+        <v>159611609.3405403</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>1.070892857142857</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.026905829596413</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="C36" t="n">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="D36" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="E36" t="n">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="F36" t="n">
-        <v>120000</v>
+        <v>809646.602</v>
       </c>
       <c r="G36" t="n">
-        <v>155470204.9253793</v>
+        <v>158801962.7385404</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1890,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.18</v>
+        <v>2.41</v>
       </c>
       <c r="C37" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="D37" t="n">
-        <v>2.19</v>
+        <v>2.41</v>
       </c>
       <c r="E37" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="F37" t="n">
-        <v>97922</v>
+        <v>143115.18</v>
       </c>
       <c r="G37" t="n">
-        <v>155372282.9253793</v>
+        <v>158801962.7385404</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1926,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.21</v>
+        <v>2.4</v>
       </c>
       <c r="C38" t="n">
-        <v>2.21</v>
+        <v>2.34</v>
       </c>
       <c r="D38" t="n">
-        <v>2.21</v>
+        <v>2.4</v>
       </c>
       <c r="E38" t="n">
-        <v>2.21</v>
+        <v>2.34</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>742131.6838999999</v>
       </c>
       <c r="G38" t="n">
-        <v>155372293.9253793</v>
+        <v>158059831.0546404</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,22 +1962,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="C39" t="n">
-        <v>2.14</v>
+        <v>2.39</v>
       </c>
       <c r="D39" t="n">
-        <v>2.14</v>
+        <v>2.39</v>
       </c>
       <c r="E39" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="F39" t="n">
-        <v>1162.4292</v>
+        <v>72929.33163891213</v>
       </c>
       <c r="G39" t="n">
-        <v>155371131.4961793</v>
+        <v>158132760.3862793</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,28 +1998,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.19</v>
+        <v>2.32</v>
       </c>
       <c r="C40" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="D40" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="E40" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="F40" t="n">
-        <v>40000</v>
+        <v>332755.4076</v>
       </c>
       <c r="G40" t="n">
-        <v>155411131.4961793</v>
+        <v>158465515.7938792</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,22 +2034,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="C41" t="n">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="D41" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="E41" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="F41" t="n">
-        <v>120083.5581</v>
+        <v>630677.8343</v>
       </c>
       <c r="G41" t="n">
-        <v>155291047.9380793</v>
+        <v>157834837.9595792</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,28 +2070,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.19</v>
+        <v>2.26</v>
       </c>
       <c r="C42" t="n">
-        <v>2.19</v>
+        <v>2.26</v>
       </c>
       <c r="D42" t="n">
-        <v>2.19</v>
+        <v>2.26</v>
       </c>
       <c r="E42" t="n">
-        <v>2.19</v>
+        <v>2.26</v>
       </c>
       <c r="F42" t="n">
-        <v>555</v>
+        <v>15623.0761</v>
       </c>
       <c r="G42" t="n">
-        <v>155291602.9380793</v>
+        <v>157850461.0356792</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +2106,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.08</v>
+        <v>2.39</v>
       </c>
       <c r="C43" t="n">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="D43" t="n">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="E43" t="n">
-        <v>2.08</v>
+        <v>2.39</v>
       </c>
       <c r="F43" t="n">
-        <v>10641.0384</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>155280961.8996793</v>
+        <v>157850471.0356792</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,22 +2142,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="C44" t="n">
-        <v>2.19</v>
+        <v>2.37</v>
       </c>
       <c r="D44" t="n">
-        <v>2.19</v>
+        <v>2.37</v>
       </c>
       <c r="E44" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="F44" t="n">
-        <v>50000</v>
+        <v>525587.0574</v>
       </c>
       <c r="G44" t="n">
-        <v>155330961.8996793</v>
+        <v>157324883.9782792</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2178,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.13</v>
+        <v>2.37</v>
       </c>
       <c r="C45" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="D45" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="E45" t="n">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="F45" t="n">
-        <v>122408.6409</v>
+        <v>88594.93670000001</v>
       </c>
       <c r="G45" t="n">
-        <v>155208553.2587793</v>
+        <v>157324883.9782792</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2214,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.15</v>
+        <v>2.36</v>
       </c>
       <c r="C46" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="D46" t="n">
-        <v>2.15</v>
+        <v>2.36</v>
       </c>
       <c r="E46" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="F46" t="n">
-        <v>146699.42</v>
+        <v>20000</v>
       </c>
       <c r="G46" t="n">
-        <v>155061853.8387793</v>
+        <v>157304883.9782792</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2250,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.17</v>
+        <v>2.36</v>
       </c>
       <c r="C47" t="n">
-        <v>2.17</v>
+        <v>2.36</v>
       </c>
       <c r="D47" t="n">
-        <v>2.17</v>
+        <v>2.36</v>
       </c>
       <c r="E47" t="n">
-        <v>2.17</v>
+        <v>2.36</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>3941.1016</v>
       </c>
       <c r="G47" t="n">
-        <v>155061864.8387793</v>
+        <v>157304883.9782792</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2286,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="C48" t="n">
-        <v>2.11</v>
+        <v>2.27</v>
       </c>
       <c r="D48" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="E48" t="n">
-        <v>2.09</v>
+        <v>2.27</v>
       </c>
       <c r="F48" t="n">
-        <v>477993.966</v>
+        <v>328944.8929</v>
       </c>
       <c r="G48" t="n">
-        <v>154583870.8727793</v>
+        <v>156975939.0853792</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,28 +2322,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.17</v>
+        <v>2.26</v>
       </c>
       <c r="C49" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="D49" t="n">
-        <v>2.17</v>
+        <v>2.26</v>
       </c>
       <c r="E49" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="F49" t="n">
-        <v>44</v>
+        <v>823799.172</v>
       </c>
       <c r="G49" t="n">
-        <v>154583914.8727793</v>
+        <v>156152139.9133793</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,22 +2358,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="C50" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="D50" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="E50" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="F50" t="n">
-        <v>141911.4209</v>
+        <v>201997</v>
       </c>
       <c r="G50" t="n">
-        <v>154442003.4518794</v>
+        <v>155950142.9133793</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2394,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="C51" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="D51" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="E51" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="F51" t="n">
-        <v>80000</v>
+        <v>287315.0084</v>
       </c>
       <c r="G51" t="n">
-        <v>154522003.4518794</v>
+        <v>155662827.9049793</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2430,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="C52" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="D52" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="E52" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>157648.8829</v>
       </c>
       <c r="G52" t="n">
-        <v>154522014.4518794</v>
+        <v>155662827.9049793</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2466,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="C53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="D53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="E53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>106604.9326</v>
       </c>
       <c r="G53" t="n">
-        <v>154521914.4518794</v>
+        <v>155662827.9049793</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,28 +2502,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="C54" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="D54" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="E54" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="F54" t="n">
-        <v>98540</v>
+        <v>41590.4415</v>
       </c>
       <c r="G54" t="n">
-        <v>154521914.4518794</v>
+        <v>155704418.3464793</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,22 +2538,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="C55" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="D55" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="E55" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="F55" t="n">
-        <v>60000</v>
+        <v>39973</v>
       </c>
       <c r="G55" t="n">
-        <v>154581914.4518794</v>
+        <v>155664445.3464793</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,28 +2574,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="C56" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="D56" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="E56" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="F56" t="n">
-        <v>12077.2532</v>
+        <v>19919.829</v>
       </c>
       <c r="G56" t="n">
-        <v>154569837.1986794</v>
+        <v>155684365.1754793</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,22 +2610,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="C57" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="D57" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="E57" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="F57" t="n">
-        <v>163260.3204</v>
+        <v>202821.1981</v>
       </c>
       <c r="G57" t="n">
-        <v>154733097.5190794</v>
+        <v>155887186.3735793</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2646,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="C58" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="D58" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="E58" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="F58" t="n">
-        <v>41549.7837</v>
+        <v>20410</v>
       </c>
       <c r="G58" t="n">
-        <v>154691547.7353794</v>
+        <v>155866776.3735793</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2682,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="C59" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="D59" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="E59" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="F59" t="n">
-        <v>51901.9323</v>
+        <v>136376.2209</v>
       </c>
       <c r="G59" t="n">
-        <v>154743449.6676794</v>
+        <v>156003152.5944793</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2718,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="C60" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="D60" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="E60" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="F60" t="n">
-        <v>104327.795</v>
+        <v>38988.267</v>
       </c>
       <c r="G60" t="n">
-        <v>154743449.6676794</v>
+        <v>156003152.5944793</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2754,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="C61" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="D61" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="E61" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="F61" t="n">
-        <v>21744.6266</v>
+        <v>342669.8888</v>
       </c>
       <c r="G61" t="n">
-        <v>154743449.6676794</v>
+        <v>156345822.4832793</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2790,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="C62" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="D62" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="E62" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="F62" t="n">
-        <v>40000</v>
+        <v>201784</v>
       </c>
       <c r="G62" t="n">
-        <v>154743449.6676794</v>
+        <v>156144038.4832793</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2826,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="C63" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="D63" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="E63" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="F63" t="n">
-        <v>20000</v>
+        <v>97293</v>
       </c>
       <c r="G63" t="n">
-        <v>154763449.6676794</v>
+        <v>156046745.4832793</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2862,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="C64" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="D64" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="E64" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="F64" t="n">
-        <v>120435.642</v>
+        <v>3182.7102</v>
       </c>
       <c r="G64" t="n">
-        <v>154643014.0256794</v>
+        <v>156046745.4832793</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2898,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="C65" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="D65" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="E65" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="F65" t="n">
-        <v>340493.8669</v>
+        <v>485993.718</v>
       </c>
       <c r="G65" t="n">
-        <v>154302520.1587794</v>
+        <v>155560751.7652793</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2934,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="C66" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="D66" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="E66" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="F66" t="n">
-        <v>37043.16</v>
+        <v>200000</v>
       </c>
       <c r="G66" t="n">
-        <v>154302520.1587794</v>
+        <v>155360751.7652793</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2970,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="C67" t="n">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="D67" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="E67" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="F67" t="n">
-        <v>523272.3986</v>
+        <v>483564.3537</v>
       </c>
       <c r="G67" t="n">
-        <v>153779247.7601794</v>
+        <v>155844316.1189793</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +3006,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="C68" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="D68" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="E68" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="F68" t="n">
-        <v>4604840.9048</v>
+        <v>12967.5</v>
       </c>
       <c r="G68" t="n">
-        <v>158384088.6649794</v>
+        <v>155831348.6189793</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +3042,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="C69" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="E69" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>34008951.74</v>
+        <v>964514.0056</v>
       </c>
       <c r="G69" t="n">
-        <v>124375136.9249794</v>
+        <v>154866834.6133793</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +3078,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="C70" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="D70" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="E70" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="F70" t="n">
-        <v>97019.23</v>
+        <v>120000</v>
       </c>
       <c r="G70" t="n">
-        <v>124472156.1549794</v>
+        <v>154986834.6133793</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +3114,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="D71" t="n">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="E71" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>523836.2831</v>
+        <v>917747.8874</v>
       </c>
       <c r="G71" t="n">
-        <v>123948319.8718794</v>
+        <v>154986834.6133793</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +3150,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="C72" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="D72" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="E72" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="F72" t="n">
-        <v>1485605.0382</v>
+        <v>2935</v>
       </c>
       <c r="G72" t="n">
-        <v>122462714.8336794</v>
+        <v>154983899.6133793</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,35 +3186,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="C73" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="D73" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="E73" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="F73" t="n">
-        <v>60019</v>
+        <v>140000</v>
       </c>
       <c r="G73" t="n">
-        <v>122522733.8336794</v>
+        <v>154983899.6133793</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1.97</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
@@ -3037,19 +3225,19 @@
         <v>2.05</v>
       </c>
       <c r="C74" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="D74" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="E74" t="n">
         <v>2.05</v>
       </c>
       <c r="F74" t="n">
-        <v>304504.7349</v>
+        <v>616943.1431</v>
       </c>
       <c r="G74" t="n">
-        <v>122218229.0987794</v>
+        <v>154983899.6133793</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3058,14 +3246,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3076,40 +3258,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="C75" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="D75" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="E75" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>11</v>
+        <v>1549820.1913</v>
       </c>
       <c r="G75" t="n">
-        <v>122218240.0987794</v>
+        <v>156533719.8046793</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3120,22 +3294,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="C76" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="D76" t="n">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="E76" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="F76" t="n">
-        <v>104654.0105</v>
+        <v>502015.6997</v>
       </c>
       <c r="G76" t="n">
-        <v>122113586.0882794</v>
+        <v>157035735.5043793</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3156,22 +3330,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="C77" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="D77" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="E77" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="F77" t="n">
-        <v>100000</v>
+        <v>14152</v>
       </c>
       <c r="G77" t="n">
-        <v>122213586.0882794</v>
+        <v>157035735.5043793</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3192,35 +3366,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="C78" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="D78" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="E78" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="F78" t="n">
-        <v>20289.8808</v>
+        <v>88.5</v>
       </c>
       <c r="G78" t="n">
-        <v>122233875.9690794</v>
+        <v>157035647.0043793</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2.08</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
@@ -3232,22 +3402,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="C79" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="D79" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="E79" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="F79" t="n">
-        <v>100000</v>
+        <v>396943.1431</v>
       </c>
       <c r="G79" t="n">
-        <v>122333875.9690794</v>
+        <v>157035647.0043793</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3256,14 +3426,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3277,19 +3441,19 @@
         <v>2.03</v>
       </c>
       <c r="C80" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="D80" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="E80" t="n">
         <v>2.03</v>
       </c>
       <c r="F80" t="n">
-        <v>66719.583</v>
+        <v>220193.2251</v>
       </c>
       <c r="G80" t="n">
-        <v>122267156.3860794</v>
+        <v>157255840.2294793</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3298,14 +3462,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3316,22 +3474,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="C81" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>2.13</v>
+        <v>2.02</v>
       </c>
       <c r="E81" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>60000</v>
+        <v>1122431.8959</v>
       </c>
       <c r="G81" t="n">
-        <v>122327156.3860794</v>
+        <v>156133408.3335793</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3352,22 +3510,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="C82" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="D82" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="E82" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="F82" t="n">
-        <v>290000</v>
+        <v>32.5</v>
       </c>
       <c r="G82" t="n">
-        <v>122037156.3860794</v>
+        <v>156133375.8335793</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3388,35 +3546,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="C83" t="n">
-        <v>2.13</v>
+        <v>1.99</v>
       </c>
       <c r="D83" t="n">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="E83" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="F83" t="n">
-        <v>131439</v>
+        <v>239558.4276</v>
       </c>
       <c r="G83" t="n">
-        <v>122168595.3860794</v>
+        <v>156372934.2611793</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1.96</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
@@ -3428,40 +3582,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="C84" t="n">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="D84" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="E84" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="F84" t="n">
-        <v>45104.0273</v>
+        <v>491056.3471</v>
       </c>
       <c r="G84" t="n">
-        <v>122168595.3860794</v>
+        <v>156863990.6082793</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3472,22 +3618,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="C85" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="D85" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="E85" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="F85" t="n">
-        <v>80000</v>
+        <v>133750.9487</v>
       </c>
       <c r="G85" t="n">
-        <v>122248595.3860794</v>
+        <v>156997741.5569793</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3496,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3654,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="C86" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="D86" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="E86" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="F86" t="n">
-        <v>1078</v>
+        <v>1647079.5576</v>
       </c>
       <c r="G86" t="n">
-        <v>122248595.3860794</v>
+        <v>155350661.9993793</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3538,14 +3678,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3556,22 +3690,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>659</v>
+        <v>22964.146</v>
       </c>
       <c r="G87" t="n">
-        <v>122248595.3860794</v>
+        <v>155373626.1453793</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3580,14 +3714,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3598,22 +3726,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>46948.3568</v>
+        <v>30000</v>
       </c>
       <c r="G88" t="n">
-        <v>122201647.0292794</v>
+        <v>155373626.1453793</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3622,14 +3750,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3640,22 +3762,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>63140</v>
+        <v>11999</v>
       </c>
       <c r="G89" t="n">
-        <v>122264787.0292794</v>
+        <v>155373626.1453793</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3664,14 +3786,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3682,40 +3798,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="C90" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="D90" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="E90" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="F90" t="n">
-        <v>127700.8679</v>
+        <v>723.6453</v>
       </c>
       <c r="G90" t="n">
-        <v>122264787.0292794</v>
+        <v>155374349.7906793</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="K90" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3726,40 +3834,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>217867.365</v>
+        <v>55</v>
       </c>
       <c r="G91" t="n">
-        <v>122482654.3942793</v>
+        <v>155374294.7906793</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3770,40 +3870,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>218193.4600954129</v>
+        <v>48422.3301</v>
       </c>
       <c r="G92" t="n">
-        <v>122700847.8543748</v>
+        <v>155374294.7906793</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3814,40 +3906,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="C93" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="D93" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="E93" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="F93" t="n">
-        <v>33068.3486</v>
+        <v>41139</v>
       </c>
       <c r="G93" t="n">
-        <v>122700847.8543748</v>
+        <v>155415433.7906793</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3858,40 +3942,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="C94" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="D94" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="E94" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="F94" t="n">
-        <v>1320</v>
+        <v>20000</v>
       </c>
       <c r="G94" t="n">
-        <v>122699527.8543748</v>
+        <v>155435433.7906793</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3902,22 +3978,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="C95" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="D95" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="E95" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="F95" t="n">
-        <v>565</v>
+        <v>7666</v>
       </c>
       <c r="G95" t="n">
-        <v>122700092.8543748</v>
+        <v>155443099.7906793</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3926,14 +4002,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3944,22 +4014,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.17</v>
+        <v>2.32</v>
       </c>
       <c r="C96" t="n">
-        <v>2.17</v>
+        <v>2.32</v>
       </c>
       <c r="D96" t="n">
-        <v>2.17</v>
+        <v>2.32</v>
       </c>
       <c r="E96" t="n">
-        <v>2.17</v>
+        <v>2.32</v>
       </c>
       <c r="F96" t="n">
-        <v>544</v>
+        <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>122699548.8543748</v>
+        <v>155443110.7906793</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3968,14 +4038,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3986,22 +4050,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="C97" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="D97" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="E97" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="F97" t="n">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="G97" t="n">
-        <v>122699515.8543748</v>
+        <v>155442910.7906793</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4010,14 +4074,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4028,22 +4086,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="C98" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="D98" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="E98" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="F98" t="n">
-        <v>187846.0854</v>
+        <v>897306.4</v>
       </c>
       <c r="G98" t="n">
-        <v>122887361.9397748</v>
+        <v>156340217.1906793</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4052,14 +4110,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4070,22 +4122,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="C99" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="D99" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="E99" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="F99" t="n">
-        <v>17833.5944</v>
+        <v>75638</v>
       </c>
       <c r="G99" t="n">
-        <v>122869528.3453747</v>
+        <v>156264579.1906793</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4094,14 +4146,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4112,22 +4158,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="C100" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="D100" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="E100" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>865818</v>
       </c>
       <c r="G100" t="n">
-        <v>122869518.3453747</v>
+        <v>157130397.1906793</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4136,14 +4182,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4154,22 +4194,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="C101" t="n">
         <v>2.17</v>
       </c>
-      <c r="C101" t="n">
-        <v>2.18</v>
-      </c>
       <c r="D101" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="E101" t="n">
         <v>2.17</v>
       </c>
       <c r="F101" t="n">
-        <v>423.5023</v>
+        <v>1687623.2653</v>
       </c>
       <c r="G101" t="n">
-        <v>122869941.8476747</v>
+        <v>155442773.9253793</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4178,14 +4218,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4196,40 +4230,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="C102" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="D102" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="E102" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="F102" t="n">
-        <v>217647.9764</v>
+        <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>122652293.8712747</v>
+        <v>155442784.9253793</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4240,40 +4266,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="C103" t="n">
         <v>2.12</v>
       </c>
       <c r="D103" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="E103" t="n">
         <v>2.12</v>
       </c>
       <c r="F103" t="n">
-        <v>255423.637</v>
+        <v>120000</v>
       </c>
       <c r="G103" t="n">
-        <v>122396870.2342747</v>
+        <v>155322784.9253793</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4284,40 +4302,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="C104" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="D104" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="E104" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="F104" t="n">
-        <v>33068.3486</v>
+        <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>122396870.2342747</v>
+        <v>155322795.9253793</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4328,40 +4338,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="C105" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="D105" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="E105" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="F105" t="n">
-        <v>40630</v>
+        <v>247810</v>
       </c>
       <c r="G105" t="n">
-        <v>122437500.2342747</v>
+        <v>155570605.9253793</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K105" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4372,40 +4374,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="C106" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="D106" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="E106" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="F106" t="n">
-        <v>20026.4976</v>
+        <v>19599</v>
       </c>
       <c r="G106" t="n">
-        <v>122437500.2342747</v>
+        <v>155590204.9253793</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K106" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4428,28 +4422,20 @@
         <v>2.17</v>
       </c>
       <c r="F107" t="n">
-        <v>7573</v>
+        <v>120000</v>
       </c>
       <c r="G107" t="n">
-        <v>122437500.2342747</v>
+        <v>155470204.9253793</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4460,40 +4446,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="C108" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="D108" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="E108" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="F108" t="n">
-        <v>9730.4874</v>
+        <v>97922</v>
       </c>
       <c r="G108" t="n">
-        <v>122437500.2342747</v>
+        <v>155372282.9253793</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4504,40 +4482,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="C109" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="D109" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="E109" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="F109" t="n">
-        <v>25499.3926</v>
+        <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>122437500.2342747</v>
+        <v>155372293.9253793</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K109" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4548,22 +4518,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="C110" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="D110" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="E110" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="F110" t="n">
-        <v>123866.8941</v>
+        <v>1162.4292</v>
       </c>
       <c r="G110" t="n">
-        <v>122437500.2342747</v>
+        <v>155371131.4961793</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4572,14 +4542,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4590,40 +4554,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="C111" t="n">
         <v>2.18</v>
       </c>
       <c r="D111" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E111" t="n">
         <v>2.18</v>
       </c>
-      <c r="E111" t="n">
-        <v>2.17</v>
-      </c>
       <c r="F111" t="n">
-        <v>69531</v>
+        <v>40000</v>
       </c>
       <c r="G111" t="n">
-        <v>122507031.2342747</v>
+        <v>155411131.4961793</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4643,31 +4599,23 @@
         <v>2.15</v>
       </c>
       <c r="E112" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="F112" t="n">
-        <v>11</v>
+        <v>120083.5581</v>
       </c>
       <c r="G112" t="n">
-        <v>122507020.2342747</v>
+        <v>155291047.9380793</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4678,40 +4626,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="C113" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="D113" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="E113" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="F113" t="n">
-        <v>873991.8349</v>
+        <v>555</v>
       </c>
       <c r="G113" t="n">
-        <v>123381012.0691748</v>
+        <v>155291602.9380793</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K113" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4722,7 +4662,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="C114" t="n">
         <v>2.17</v>
@@ -4731,31 +4671,23 @@
         <v>2.17</v>
       </c>
       <c r="E114" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="F114" t="n">
-        <v>98994</v>
+        <v>10641.0384</v>
       </c>
       <c r="G114" t="n">
-        <v>123381012.0691748</v>
+        <v>155280961.8996793</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4766,40 +4698,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="C115" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="D115" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="E115" t="n">
         <v>2.14</v>
       </c>
       <c r="F115" t="n">
-        <v>137813.1824</v>
+        <v>50000</v>
       </c>
       <c r="G115" t="n">
-        <v>123243198.8867747</v>
+        <v>155330961.8996793</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4810,7 +4734,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="C116" t="n">
         <v>2.18</v>
@@ -4819,13 +4743,13 @@
         <v>2.18</v>
       </c>
       <c r="E116" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="F116" t="n">
-        <v>97841</v>
+        <v>122408.6409</v>
       </c>
       <c r="G116" t="n">
-        <v>123341039.8867747</v>
+        <v>155208553.2587793</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4834,14 +4758,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4852,42 +4770,3048 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F117" t="n">
+        <v>146699.42</v>
+      </c>
+      <c r="G117" t="n">
+        <v>155061853.8387793</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
         <v>2.17</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>2.17</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>2.17</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>2.17</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
+        <v>11</v>
+      </c>
+      <c r="G118" t="n">
+        <v>155061864.8387793</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F119" t="n">
+        <v>477993.966</v>
+      </c>
+      <c r="G119" t="n">
+        <v>154583870.8727793</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F120" t="n">
+        <v>44</v>
+      </c>
+      <c r="G120" t="n">
+        <v>154583914.8727793</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F121" t="n">
+        <v>141911.4209</v>
+      </c>
+      <c r="G121" t="n">
+        <v>154442003.4518794</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F122" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>154522003.4518794</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F123" t="n">
+        <v>11</v>
+      </c>
+      <c r="G123" t="n">
+        <v>154522014.4518794</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100</v>
+      </c>
+      <c r="G124" t="n">
+        <v>154521914.4518794</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>98540</v>
+      </c>
+      <c r="G125" t="n">
+        <v>154521914.4518794</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>154581914.4518794</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12077.2532</v>
+      </c>
+      <c r="G127" t="n">
+        <v>154569837.1986794</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F128" t="n">
+        <v>163260.3204</v>
+      </c>
+      <c r="G128" t="n">
+        <v>154733097.5190794</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F129" t="n">
+        <v>41549.7837</v>
+      </c>
+      <c r="G129" t="n">
+        <v>154691547.7353794</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F130" t="n">
+        <v>51901.9323</v>
+      </c>
+      <c r="G130" t="n">
+        <v>154743449.6676794</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F131" t="n">
+        <v>104327.795</v>
+      </c>
+      <c r="G131" t="n">
+        <v>154743449.6676794</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F132" t="n">
+        <v>21744.6266</v>
+      </c>
+      <c r="G132" t="n">
+        <v>154743449.6676794</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F133" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>154743449.6676794</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F134" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>154763449.6676794</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F135" t="n">
+        <v>120435.642</v>
+      </c>
+      <c r="G135" t="n">
+        <v>154643014.0256794</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F136" t="n">
+        <v>340493.8669</v>
+      </c>
+      <c r="G136" t="n">
+        <v>154302520.1587794</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F137" t="n">
+        <v>37043.16</v>
+      </c>
+      <c r="G137" t="n">
+        <v>154302520.1587794</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F138" t="n">
+        <v>523272.3986</v>
+      </c>
+      <c r="G138" t="n">
+        <v>153779247.7601794</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4604840.9048</v>
+      </c>
+      <c r="G139" t="n">
+        <v>158384088.6649794</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F140" t="n">
+        <v>34008951.74</v>
+      </c>
+      <c r="G140" t="n">
+        <v>124375136.9249794</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F141" t="n">
+        <v>97019.23</v>
+      </c>
+      <c r="G141" t="n">
+        <v>124472156.1549794</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F142" t="n">
+        <v>523836.2831</v>
+      </c>
+      <c r="G142" t="n">
+        <v>123948319.8718794</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1485605.0382</v>
+      </c>
+      <c r="G143" t="n">
+        <v>122462714.8336794</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F144" t="n">
+        <v>60019</v>
+      </c>
+      <c r="G144" t="n">
+        <v>122522733.8336794</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>304504.7349</v>
+      </c>
+      <c r="G145" t="n">
+        <v>122218229.0987794</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11</v>
+      </c>
+      <c r="G146" t="n">
+        <v>122218240.0987794</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F147" t="n">
+        <v>104654.0105</v>
+      </c>
+      <c r="G147" t="n">
+        <v>122113586.0882794</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>122213586.0882794</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F149" t="n">
+        <v>20289.8808</v>
+      </c>
+      <c r="G149" t="n">
+        <v>122233875.9690794</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>122333875.9690794</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F151" t="n">
+        <v>66719.583</v>
+      </c>
+      <c r="G151" t="n">
+        <v>122267156.3860794</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F152" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>122327156.3860794</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F153" t="n">
+        <v>290000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>122037156.3860794</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F154" t="n">
+        <v>131439</v>
+      </c>
+      <c r="G154" t="n">
+        <v>122168595.3860794</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F155" t="n">
+        <v>45104.0273</v>
+      </c>
+      <c r="G155" t="n">
+        <v>122168595.3860794</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F156" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>122248595.3860794</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1078</v>
+      </c>
+      <c r="G157" t="n">
+        <v>122248595.3860794</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F158" t="n">
+        <v>659</v>
+      </c>
+      <c r="G158" t="n">
+        <v>122248595.3860794</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F159" t="n">
+        <v>46948.3568</v>
+      </c>
+      <c r="G159" t="n">
+        <v>122201647.0292794</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F160" t="n">
+        <v>63140</v>
+      </c>
+      <c r="G160" t="n">
+        <v>122264787.0292794</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F161" t="n">
+        <v>127700.8679</v>
+      </c>
+      <c r="G161" t="n">
+        <v>122264787.0292794</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F162" t="n">
+        <v>217867.365</v>
+      </c>
+      <c r="G162" t="n">
+        <v>122482654.3942793</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F163" t="n">
+        <v>218193.4600954129</v>
+      </c>
+      <c r="G163" t="n">
+        <v>122700847.8543748</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F164" t="n">
+        <v>33068.3486</v>
+      </c>
+      <c r="G164" t="n">
+        <v>122700847.8543748</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G165" t="n">
+        <v>122699527.8543748</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F166" t="n">
+        <v>565</v>
+      </c>
+      <c r="G166" t="n">
+        <v>122700092.8543748</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F167" t="n">
+        <v>544</v>
+      </c>
+      <c r="G167" t="n">
+        <v>122699548.8543748</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F168" t="n">
+        <v>33</v>
+      </c>
+      <c r="G168" t="n">
+        <v>122699515.8543748</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F169" t="n">
+        <v>187846.0854</v>
+      </c>
+      <c r="G169" t="n">
+        <v>122887361.9397748</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17833.5944</v>
+      </c>
+      <c r="G170" t="n">
+        <v>122869528.3453747</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F171" t="n">
+        <v>10</v>
+      </c>
+      <c r="G171" t="n">
+        <v>122869518.3453747</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F172" t="n">
+        <v>423.5023</v>
+      </c>
+      <c r="G172" t="n">
+        <v>122869941.8476747</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F173" t="n">
+        <v>217647.9764</v>
+      </c>
+      <c r="G173" t="n">
+        <v>122652293.8712747</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F174" t="n">
+        <v>255423.637</v>
+      </c>
+      <c r="G174" t="n">
+        <v>122396870.2342747</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F175" t="n">
+        <v>33068.3486</v>
+      </c>
+      <c r="G175" t="n">
+        <v>122396870.2342747</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F176" t="n">
+        <v>40630</v>
+      </c>
+      <c r="G176" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20026.4976</v>
+      </c>
+      <c r="G177" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7573</v>
+      </c>
+      <c r="G178" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F179" t="n">
+        <v>9730.4874</v>
+      </c>
+      <c r="G179" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F180" t="n">
+        <v>25499.3926</v>
+      </c>
+      <c r="G180" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F181" t="n">
+        <v>123866.8941</v>
+      </c>
+      <c r="G181" t="n">
+        <v>122437500.2342747</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F182" t="n">
+        <v>69531</v>
+      </c>
+      <c r="G182" t="n">
+        <v>122507031.2342747</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F183" t="n">
+        <v>11</v>
+      </c>
+      <c r="G183" t="n">
+        <v>122507020.2342747</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F184" t="n">
+        <v>873991.8349</v>
+      </c>
+      <c r="G184" t="n">
+        <v>123381012.0691748</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F185" t="n">
+        <v>98994</v>
+      </c>
+      <c r="G185" t="n">
+        <v>123381012.0691748</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F186" t="n">
+        <v>137813.1824</v>
+      </c>
+      <c r="G186" t="n">
+        <v>123243198.8867747</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F187" t="n">
+        <v>97841</v>
+      </c>
+      <c r="G187" t="n">
+        <v>123341039.8867747</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F188" t="n">
         <v>105725.8135</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G188" t="n">
         <v>123235314.0732747</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,15 @@
         <v>6294462.677773146</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,22 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,22 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -652,24 +616,15 @@
         <v>34500426.37117315</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,24 +649,15 @@
         <v>34500426.37117315</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,22 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,22 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,22 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -864,22 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -906,22 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -948,22 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -990,22 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1032,22 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1074,22 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1116,22 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1158,22 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1200,22 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1242,22 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1284,22 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1326,22 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1368,22 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1410,22 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1452,22 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1494,22 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1536,22 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1578,22 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1618,24 +1375,15 @@
         <v>156996585.8427452</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1662,22 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1702,24 +1441,15 @@
         <v>161602387.6908404</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1744,24 +1474,15 @@
         <v>161593439.9623404</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1786,24 +1507,15 @@
         <v>161593439.9623404</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1830,24 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1.070892857142857</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.026905829596413</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1874,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1908,18 +1606,15 @@
         <v>158801962.7385404</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1944,18 +1639,15 @@
         <v>158059831.0546404</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1980,18 +1672,15 @@
         <v>158132760.3862793</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2016,18 +1705,15 @@
         <v>158465515.7938792</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2054,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2090,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2126,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2162,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2198,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2234,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2270,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2304,18 +1969,15 @@
         <v>156975939.0853792</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2342,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2378,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2414,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2450,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2486,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2522,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2558,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2594,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2630,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2666,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2702,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2738,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2774,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2810,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2846,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2880,18 +2497,15 @@
         <v>156046745.4832793</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2916,18 +2530,15 @@
         <v>155560751.7652793</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2952,18 +2563,15 @@
         <v>155360751.7652793</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2988,18 +2596,15 @@
         <v>155844316.1189793</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3024,18 +2629,15 @@
         <v>155831348.6189793</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3062,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3096,18 +2695,15 @@
         <v>154986834.6133793</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3132,18 +2728,15 @@
         <v>154986834.6133793</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3170,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3206,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3242,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3278,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3314,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3350,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3386,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3422,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3458,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3494,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3530,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3566,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3602,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3638,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3674,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3710,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3746,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3782,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3818,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3854,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3890,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3926,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3962,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3998,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4034,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4070,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4104,18 +3619,15 @@
         <v>156340217.1906793</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4142,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4178,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4214,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4250,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4286,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4322,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4358,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4394,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4428,18 +3916,15 @@
         <v>155470204.9253793</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4466,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4500,18 +3982,15 @@
         <v>155372293.9253793</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4536,18 +4015,15 @@
         <v>155371131.4961793</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4572,18 +4048,15 @@
         <v>155411131.4961793</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4608,18 +4081,15 @@
         <v>155291047.9380793</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4644,18 +4114,15 @@
         <v>155291602.9380793</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4682,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4718,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4754,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4790,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4826,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4862,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4896,22 +4345,15 @@
         <v>154583914.8727793</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="K120" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4936,26 +4378,21 @@
         <v>154442003.4518794</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K121" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L121" t="inlineStr">
+        <v>2.17</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4980,26 +4417,19 @@
         <v>154522003.4518794</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K122" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L122" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5024,26 +4454,21 @@
         <v>154522014.4518794</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
         <v>2.1</v>
       </c>
-      <c r="K123" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5070,22 +4495,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5110,26 +4530,19 @@
         <v>154521914.4518794</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K125" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L125" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5154,26 +4567,21 @@
         <v>154581914.4518794</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
         <v>2.1</v>
       </c>
-      <c r="K126" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5198,24 +4606,21 @@
         <v>154569837.1986794</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5240,26 +4645,21 @@
         <v>154733097.5190794</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
         <v>2.04</v>
       </c>
-      <c r="K128" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5284,26 +4684,21 @@
         <v>154691547.7353794</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
         <v>2.07</v>
       </c>
-      <c r="K129" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5328,26 +4723,21 @@
         <v>154743449.6676794</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
         <v>2.06</v>
       </c>
-      <c r="K130" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5372,26 +4762,21 @@
         <v>154743449.6676794</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
         <v>2.07</v>
       </c>
-      <c r="K131" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5416,26 +4801,21 @@
         <v>154743449.6676794</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
         <v>2.07</v>
       </c>
-      <c r="K132" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5460,26 +4840,21 @@
         <v>154743449.6676794</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
         <v>2.07</v>
       </c>
-      <c r="K133" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5504,26 +4879,21 @@
         <v>154763449.6676794</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
         <v>2.07</v>
       </c>
-      <c r="K134" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5548,26 +4918,21 @@
         <v>154643014.0256794</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
         <v>2.08</v>
       </c>
-      <c r="K135" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5592,26 +4957,19 @@
         <v>154302520.1587794</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K136" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5636,26 +4994,19 @@
         <v>154302520.1587794</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="K137" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L137" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5680,26 +5031,21 @@
         <v>153779247.7601794</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
         <v>2.06</v>
       </c>
-      <c r="K138" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5724,26 +5070,21 @@
         <v>158384088.6649794</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
         <v>2.03</v>
       </c>
-      <c r="K139" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5768,26 +5109,21 @@
         <v>124375136.9249794</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
         <v>2.1</v>
       </c>
-      <c r="K140" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5812,24 +5148,21 @@
         <v>124472156.1549794</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5854,26 +5187,21 @@
         <v>123948319.8718794</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
         <v>2.05</v>
       </c>
-      <c r="K142" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5900,22 +5228,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5942,22 +5265,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5984,22 +5302,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6026,22 +5339,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6068,22 +5376,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6110,22 +5413,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6152,22 +5450,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6194,22 +5487,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6236,22 +5524,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6278,22 +5561,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6320,22 +5598,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6362,22 +5635,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6404,22 +5672,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6446,22 +5709,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6488,22 +5746,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6530,22 +5783,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6572,22 +5820,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6614,22 +5857,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6656,22 +5894,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6698,22 +5931,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6740,22 +5968,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6782,22 +6005,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6824,22 +6042,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6866,22 +6079,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6908,22 +6116,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6950,22 +6153,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6992,22 +6190,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7034,22 +6227,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7076,22 +6264,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7118,22 +6301,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7160,22 +6338,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7202,22 +6375,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7244,22 +6412,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7286,22 +6449,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7328,22 +6486,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7370,22 +6523,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7410,26 +6558,19 @@
         <v>122437500.2342747</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K179" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L179" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7454,26 +6595,19 @@
         <v>122437500.2342747</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K180" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7498,26 +6632,19 @@
         <v>122437500.2342747</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K181" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7544,22 +6671,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7586,22 +6708,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7628,22 +6745,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7668,24 +6780,21 @@
         <v>123381012.0691748</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7712,22 +6821,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7752,24 +6856,21 @@
         <v>123341039.8867747</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7796,24 +6897,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6270983.614973146</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>6254462.677773146</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>6294462.677773146</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>6294462.677773146</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-34147430.31302685</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -618,9 +646,17 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -651,9 +687,17 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>24351503.35237315</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>25157651.54947315</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>30153165.37777315</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +852,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +891,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +930,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +969,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1008,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1047,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1086,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1125,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1164,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1203,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1242,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1281,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1320,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1359,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1398,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1437,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1476,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1515,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1551,17 @@
         <v>156996585.8427452</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1593,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1629,17 @@
         <v>161602387.6908404</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1668,17 @@
         <v>161593439.9623404</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1707,17 @@
         <v>161593439.9623404</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1749,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1788,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,13 +1824,19 @@
         <v>158801962.7385404</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>1.043034934497817</v>
       </c>
       <c r="M37" t="inlineStr"/>
     </row>
@@ -1639,7 +1863,7 @@
         <v>158059831.0546404</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1896,7 @@
         <v>158132760.3862793</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1929,7 @@
         <v>158465515.7938792</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1995,7 @@
         <v>157850461.0356792</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +2028,7 @@
         <v>157850471.0356792</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +2061,7 @@
         <v>157324883.9782792</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2094,7 @@
         <v>157324883.9782792</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2127,7 @@
         <v>157304883.9782792</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +2193,7 @@
         <v>156975939.0853792</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2226,7 @@
         <v>156152139.9133793</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2259,7 @@
         <v>155950142.9133793</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2292,7 @@
         <v>155662827.9049793</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2325,7 @@
         <v>155662827.9049793</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2358,7 @@
         <v>155662827.9049793</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2391,7 @@
         <v>155704418.3464793</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2424,7 @@
         <v>155664445.3464793</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2457,7 @@
         <v>155684365.1754793</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2490,7 @@
         <v>155887186.3735793</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2523,7 @@
         <v>155866776.3735793</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2556,7 @@
         <v>156003152.5944793</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2589,7 @@
         <v>156003152.5944793</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2622,7 @@
         <v>156345822.4832793</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2655,7 @@
         <v>156144038.4832793</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2688,7 @@
         <v>156046745.4832793</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2721,7 @@
         <v>156046745.4832793</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2754,7 @@
         <v>155560751.7652793</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2787,7 @@
         <v>155360751.7652793</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2820,7 @@
         <v>155844316.1189793</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2853,7 @@
         <v>155831348.6189793</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2919,7 @@
         <v>154986834.6133793</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2952,7 @@
         <v>154986834.6133793</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2985,7 @@
         <v>154983899.6133793</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +3018,7 @@
         <v>154983899.6133793</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +3051,7 @@
         <v>154983899.6133793</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +3084,7 @@
         <v>156533719.8046793</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3117,7 @@
         <v>157035735.5043793</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3150,7 @@
         <v>157035735.5043793</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3183,7 @@
         <v>157035647.0043793</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3216,7 @@
         <v>157035647.0043793</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3249,7 @@
         <v>157255840.2294793</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3282,7 @@
         <v>156133408.3335793</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3315,7 @@
         <v>156133375.8335793</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3348,7 @@
         <v>156372934.2611793</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3619,7 +3843,7 @@
         <v>156340217.1906793</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3916,7 +4140,7 @@
         <v>155470204.9253793</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,7 +4206,7 @@
         <v>155372293.9253793</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4239,7 @@
         <v>155371131.4961793</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4272,7 @@
         <v>155411131.4961793</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4305,7 @@
         <v>155291047.9380793</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4338,7 @@
         <v>155291602.9380793</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4378,17 +4602,11 @@
         <v>154442003.4518794</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>2.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4421,11 +4639,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4454,17 +4668,11 @@
         <v>154522014.4518794</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>2.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4497,11 +4705,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4534,11 +4738,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4567,17 +4767,11 @@
         <v>154581914.4518794</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>2.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4606,17 +4800,11 @@
         <v>154569837.1986794</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>2.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4645,17 +4833,11 @@
         <v>154733097.5190794</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4684,17 +4866,11 @@
         <v>154691547.7353794</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4723,17 +4899,11 @@
         <v>154743449.6676794</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4762,17 +4932,11 @@
         <v>154743449.6676794</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4801,17 +4965,11 @@
         <v>154743449.6676794</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4840,17 +4998,11 @@
         <v>154743449.6676794</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4879,17 +5031,11 @@
         <v>154763449.6676794</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4918,17 +5064,11 @@
         <v>154643014.0256794</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4957,15 +5097,11 @@
         <v>154302520.1587794</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4994,15 +5130,11 @@
         <v>154302520.1587794</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5033,15 +5165,9 @@
       <c r="H138" t="n">
         <v>2</v>
       </c>
-      <c r="I138" t="n">
-        <v>2.06</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5070,17 +5196,11 @@
         <v>158384088.6649794</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5109,17 +5229,11 @@
         <v>124375136.9249794</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5148,17 +5262,11 @@
         <v>124472156.1549794</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5187,17 +5295,11 @@
         <v>123948319.8718794</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5230,11 +5332,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5267,11 +5365,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5304,11 +5398,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5341,11 +5431,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5378,11 +5464,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5415,11 +5497,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5452,11 +5530,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5489,11 +5563,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5526,11 +5596,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5563,11 +5629,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5600,11 +5662,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5637,11 +5695,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5674,11 +5728,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5711,11 +5761,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5748,11 +5794,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5785,11 +5827,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5822,11 +5860,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5859,11 +5893,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5926,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5933,11 +5959,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5970,11 +5992,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6007,11 +6025,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6044,11 +6058,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6081,11 +6091,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6118,11 +6124,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6155,11 +6157,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6192,11 +6190,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6229,11 +6223,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6266,11 +6256,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6303,11 +6289,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6340,11 +6322,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6377,11 +6355,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6414,11 +6388,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6451,11 +6421,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6488,11 +6454,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6525,11 +6487,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6562,11 +6520,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6599,11 +6553,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6636,11 +6586,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6673,11 +6619,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6710,11 +6652,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6747,11 +6685,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6780,17 +6714,11 @@
         <v>123381012.0691748</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>2.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6823,11 +6751,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6856,17 +6780,11 @@
         <v>123341039.8867747</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>2.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6899,17 +6817,13 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
       <c r="M188" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>6254462.677773146</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,224 +517,182 @@
         <v>6294462.677773146</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6294462.677773146</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C6" t="n">
         <v>2.24</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="D6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40441892.9908</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-34147430.31302685</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68647856.6842</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34500426.37117315</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>44460596.859</v>
+      </c>
+      <c r="G8" t="n">
+        <v>34500426.37117315</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10148923.0188</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24351503.35237315</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6294462.677773146</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40441892.9908</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-34147430.31302685</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>68647856.6842</v>
-      </c>
-      <c r="G7" t="n">
-        <v>34500426.37117315</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>44460596.859</v>
-      </c>
-      <c r="G8" t="n">
-        <v>34500426.37117315</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10148923.0188</v>
-      </c>
-      <c r="G9" t="n">
-        <v>24351503.35237315</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -772,9 +726,7 @@
       <c r="I10" t="n">
         <v>2.02</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -808,14 +760,10 @@
         <v>30153165.37777315</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -852,9 +800,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -891,9 +837,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -930,9 +874,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -969,9 +911,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1008,9 +948,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1047,9 +985,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1086,9 +1022,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1125,9 +1059,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1164,9 +1096,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1203,9 +1133,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1242,9 +1170,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1281,9 +1207,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1320,9 +1244,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1359,9 +1281,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1398,9 +1318,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1437,9 +1355,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1476,9 +1392,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1515,9 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1554,9 +1466,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1593,9 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1632,9 +1540,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1671,9 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1710,9 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1749,9 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1788,9 +1688,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2.29</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1824,350 +1722,386 @@
         <v>158801962.7385404</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F38" t="n">
+        <v>742131.6838999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>158059831.0546404</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F39" t="n">
+        <v>72929.33163891213</v>
+      </c>
+      <c r="G39" t="n">
+        <v>158132760.3862793</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F40" t="n">
+        <v>332755.4076</v>
+      </c>
+      <c r="G40" t="n">
+        <v>158465515.7938792</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F41" t="n">
+        <v>630677.8343</v>
+      </c>
+      <c r="G41" t="n">
+        <v>157834837.9595792</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15623.0761</v>
+      </c>
+      <c r="G42" t="n">
+        <v>157850461.0356792</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F43" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" t="n">
+        <v>157850471.0356792</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F44" t="n">
+        <v>525587.0574</v>
+      </c>
+      <c r="G44" t="n">
+        <v>157324883.9782792</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F45" t="n">
+        <v>88594.93670000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>157324883.9782792</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>157304883.9782792</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3941.1016</v>
+      </c>
+      <c r="G47" t="n">
+        <v>157304883.9782792</v>
+      </c>
+      <c r="H47" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K37" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1.043034934497817</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="F38" t="n">
-        <v>742131.6838999999</v>
-      </c>
-      <c r="G38" t="n">
-        <v>158059831.0546404</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="F39" t="n">
-        <v>72929.33163891213</v>
-      </c>
-      <c r="G39" t="n">
-        <v>158132760.3862793</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F40" t="n">
-        <v>332755.4076</v>
-      </c>
-      <c r="G40" t="n">
-        <v>158465515.7938792</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F41" t="n">
-        <v>630677.8343</v>
-      </c>
-      <c r="G41" t="n">
-        <v>157834837.9595792</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F42" t="n">
-        <v>15623.0761</v>
-      </c>
-      <c r="G42" t="n">
-        <v>157850461.0356792</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="F43" t="n">
-        <v>10</v>
-      </c>
-      <c r="G43" t="n">
-        <v>157850471.0356792</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F44" t="n">
-        <v>525587.0574</v>
-      </c>
-      <c r="G44" t="n">
-        <v>157324883.9782792</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="F45" t="n">
-        <v>88594.93670000001</v>
-      </c>
-      <c r="G45" t="n">
-        <v>157324883.9782792</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F46" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>157304883.9782792</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3941.1016</v>
-      </c>
-      <c r="G47" t="n">
-        <v>157304883.9782792</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2193,7 +2127,7 @@
         <v>156975939.0853792</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2292,7 +2226,7 @@
         <v>155662827.9049793</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2325,7 +2259,7 @@
         <v>155662827.9049793</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2358,7 +2292,7 @@
         <v>155662827.9049793</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2391,7 +2325,7 @@
         <v>155704418.3464793</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2424,7 +2358,7 @@
         <v>155664445.3464793</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2457,7 +2391,7 @@
         <v>155684365.1754793</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2490,7 +2424,7 @@
         <v>155887186.3735793</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2523,7 +2457,7 @@
         <v>155866776.3735793</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2556,7 +2490,7 @@
         <v>156003152.5944793</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2589,7 +2523,7 @@
         <v>156003152.5944793</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2622,7 +2556,7 @@
         <v>156345822.4832793</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2655,7 +2589,7 @@
         <v>156144038.4832793</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2688,7 +2622,7 @@
         <v>156046745.4832793</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2721,7 +2655,7 @@
         <v>156046745.4832793</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2754,7 +2688,7 @@
         <v>155560751.7652793</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2787,7 +2721,7 @@
         <v>155360751.7652793</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2820,7 +2754,7 @@
         <v>155844316.1189793</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2853,7 +2787,7 @@
         <v>155831348.6189793</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2919,7 +2853,7 @@
         <v>154986834.6133793</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2952,7 +2886,7 @@
         <v>154986834.6133793</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2985,7 +2919,7 @@
         <v>154983899.6133793</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3018,7 +2952,7 @@
         <v>154983899.6133793</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3051,7 +2985,7 @@
         <v>154983899.6133793</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3084,7 +3018,7 @@
         <v>156533719.8046793</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3117,7 +3051,7 @@
         <v>157035735.5043793</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3150,7 +3084,7 @@
         <v>157035735.5043793</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3183,7 +3117,7 @@
         <v>157035647.0043793</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3216,7 +3150,7 @@
         <v>157035647.0043793</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3249,7 +3183,7 @@
         <v>157255840.2294793</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3282,7 +3216,7 @@
         <v>156133408.3335793</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3315,7 +3249,7 @@
         <v>156133375.8335793</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3348,7 +3282,7 @@
         <v>156372934.2611793</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -5097,7 +5031,7 @@
         <v>154302520.1587794</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5130,7 +5064,7 @@
         <v>154302520.1587794</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5163,7 +5097,7 @@
         <v>153779247.7601794</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -6824,6 +6758,6 @@
       <c r="M188" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest MXC.xlsx
+++ b/BackTest/2019-10-24 BackTest MXC.xlsx
@@ -484,10 +484,14 @@
         <v>6254462.677773146</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>6294462.677773146</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>6294462.677773146</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-34147430.31302685</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>34500426.37117315</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>34500426.37117315</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -687,10 +731,12 @@
       <c r="I9" t="n">
         <v>2.25</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -726,7 +772,9 @@
       <c r="I10" t="n">
         <v>2.02</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -763,7 +811,9 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -797,10 +847,14 @@
         <v>30153165.37777315</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -834,10 +888,14 @@
         <v>32906873.95937315</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -871,10 +929,14 @@
         <v>30228282.57697315</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -911,7 +973,9 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -948,7 +1012,9 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -985,7 +1051,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1022,7 +1090,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1059,7 +1129,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1096,7 +1168,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1133,7 +1207,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1170,7 +1246,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1207,7 +1285,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1244,7 +1324,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1281,7 +1363,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1318,7 +1402,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1355,7 +1441,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1392,7 +1480,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1429,7 +1519,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1466,7 +1558,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1503,7 +1597,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1540,7 +1636,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1574,19 +1672,23 @@
         <v>161593439.9623404</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2.29</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>1.095436681222707</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.026905829596413</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1611,15 +1713,11 @@
         <v>161593439.9623404</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1648,15 +1746,11 @@
         <v>159611609.3405403</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1685,15 +1779,11 @@
         <v>158801962.7385404</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1722,15 +1812,11 @@
         <v>158801962.7385404</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1759,15 +1845,11 @@
         <v>158059831.0546404</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1796,15 +1878,11 @@
         <v>158132760.3862793</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1833,15 +1911,11 @@
         <v>158465515.7938792</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1870,15 +1944,11 @@
         <v>157834837.9595792</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1907,15 +1977,11 @@
         <v>157850461.0356792</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1948,11 +2014,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1981,15 +2043,11 @@
         <v>157324883.9782792</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2018,15 +2076,11 @@
         <v>157324883.9782792</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2055,15 +2109,11 @@
         <v>157304883.9782792</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2096,12 +2146,10 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
       <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2127,7 +2175,7 @@
         <v>156975939.0853792</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2160,7 +2208,7 @@
         <v>156152139.9133793</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2193,7 +2241,7 @@
         <v>155950142.9133793</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
